--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2168 +418,2410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.676179349781278</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>48.62802251751053</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01174334069242348</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.0125495923810259</v>
+      </c>
+      <c r="E2">
         <v>4.539204260781325</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2.714997440202774</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>20.40210352703916</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.3565466218627704</v>
+      </c>
+      <c r="I2">
+        <v>10.04887527581972</v>
+      </c>
+      <c r="J2">
         <v>2.845875428274658</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>14.33287641756816</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>2.826484053371448</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>17.21555520271257</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.09048278954183189</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>1.429999678674808</v>
       </c>
-      <c r="N2" t="n">
-        <v>116.713524006151</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>127.1197521555221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.579604777972687</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>45.82627552477979</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01496700284328483</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.01599457852483693</v>
+      </c>
+      <c r="E3">
         <v>5.785260332368356</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>3.335568283677694</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>25.06544147607668</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1363266495357652</v>
+      </c>
+      <c r="I3">
+        <v>3.842217017225189</v>
+      </c>
+      <c r="J3">
         <v>3.135286488777166</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>15.79045707020221</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>2.506504726574681</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>15.266624425047</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.2312337954957926</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>3.654443623280065</v>
       </c>
-      <c r="N3" t="n">
-        <v>122.1916675270954</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>126.1712387695379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.476369890866954</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>42.8313046015159</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.01174334069242348</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.0125495923810259</v>
+      </c>
+      <c r="E4">
         <v>4.539204260781325</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.667784141838847</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>12.53272073803834</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1258399841868602</v>
+      </c>
+      <c r="I4">
+        <v>3.54666186205402</v>
+      </c>
+      <c r="J4">
         <v>2.492150798771594</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>12.55138895323765</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>2.399844950975758</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>14.61698083249181</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.2010728656485153</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>3.177777063721795</v>
       </c>
-      <c r="N4" t="n">
-        <v>98.49834243858091</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>102.1716505365104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.712811083915571</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>49.6907541354429</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.01266438702124101</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.01353387413640048</v>
+      </c>
+      <c r="E5">
         <v>4.895220281234762</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2.249569307596583</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>16.90460006526102</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.2202199723270053</v>
+      </c>
+      <c r="I5">
+        <v>6.206658258594537</v>
+      </c>
+      <c r="J5">
         <v>3.006659350776051</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>15.1426434468093</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>1.973205848580068</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>12.01840646227104</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.1709119358012379</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>2.701110504163525</v>
       </c>
-      <c r="N5" t="n">
-        <v>110.4785568088733</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>116.90630452691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.592925408566975</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>46.2127233858461</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.01312491018564977</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.01402601501408777</v>
+      </c>
+      <c r="E6">
         <v>5.073228291461482</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.753783117919956</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>20.693562148854</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I6">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J6">
         <v>3.215678450027862</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>16.19534058482277</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>2.026535736379529</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>12.34322825854863</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.1508046492363865</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>2.383332797791347</v>
       </c>
-      <c r="N6" t="n">
-        <v>112.6542677396407</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>118.1639216138305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.708370873717475</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>49.56193818175414</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.01358543335005854</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.01451815589177506</v>
+      </c>
+      <c r="E7">
         <v>5.251236301688199</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3.180425572808963</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>23.89960698881731</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I7">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J7">
         <v>3.376462372529255</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>17.00510761406391</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>1.919875960780607</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>11.69358466599345</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.1306973626715349</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>2.065555091419167</v>
       </c>
-      <c r="N7" t="n">
-        <v>119.8064464195941</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>125.3161319114971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.746112660401291</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>50.65687378810863</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.01243412543903663</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.01328780369755683</v>
+      </c>
+      <c r="E8">
         <v>4.806216276121401</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>3.102854217374599</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>23.31668974518762</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.2097333069781002</v>
+      </c>
+      <c r="I8">
+        <v>5.911103103423367</v>
+      </c>
+      <c r="J8">
         <v>3.151364881027305</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>15.87143377312632</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>1.6532265217833</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>10.06947568460547</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>1.112221972302628</v>
       </c>
-      <c r="N8" t="n">
-        <v>115.5692791484546</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>121.6909692371146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.952582434612761</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>56.64681563463645</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.0115130791102191</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.01230352194218225</v>
+      </c>
+      <c r="E9">
         <v>4.450200255667966</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.714997440202774</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>20.40210352703916</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.3355732911649604</v>
+      </c>
+      <c r="I9">
+        <v>9.45776496547739</v>
+      </c>
+      <c r="J9">
         <v>2.79764025152424</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>14.08994630879581</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>1.759886297382223</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>10.71911927716066</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.1105900761066834</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>1.747777385046988</v>
       </c>
-      <c r="N9" t="n">
-        <v>117.4031719672859</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>127.1973006667603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2.120200369590888</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>61.50961788638751</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.0140459565144673</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.01501029676946235</v>
+      </c>
+      <c r="E10">
         <v>5.429244311914917</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2.482283373899679</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>18.65335179615009</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.6291999209343007</v>
+      </c>
+      <c r="I10">
+        <v>17.7333093102701</v>
+      </c>
+      <c r="J10">
         <v>2.685091505773264</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>13.52310938832702</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>1.333247194986532</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>8.120544906939891</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.06032185969455459</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.9533331191165386</v>
       </c>
-      <c r="N10" t="n">
-        <v>116.8843916692954</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>135.2478652407547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.253406675533771</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>65.37409649705062</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.008749940123766516</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.009350676676058512</v>
+      </c>
+      <c r="E11">
         <v>3.382152194307654</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>2.133212274445035</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>16.03022419981649</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.6711465823299209</v>
+      </c>
+      <c r="I11">
+        <v>18.91552993095478</v>
+      </c>
+      <c r="J11">
         <v>1.495290479262956</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>7.530833371942591</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.2666494389973064</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>1.624108981387979</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>1.112221972302628</v>
       </c>
-      <c r="N11" t="n">
-        <v>101.2813215281478</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>120.8685987779848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.641767720746033</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>47.62969887642258</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.007368370630540222</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.007874254042996642</v>
+      </c>
+      <c r="E12">
         <v>2.848128163627498</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2.171997952162219</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>16.32168282163133</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.4089799486072955</v>
+      </c>
+      <c r="I12">
+        <v>11.52665105167557</v>
+      </c>
+      <c r="J12">
         <v>1.334506556761563</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>6.721066342701451</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.5866287657940743</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>3.573039759053552</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N12" t="n">
-        <v>83.17377032246787</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>95.1099072061632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.431967788885992</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>41.54314506462821</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.005065754808496403</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.00541354965456019</v>
+      </c>
+      <c r="E13">
         <v>1.958088112493905</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1.279927364667022</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>9.618134519889891</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.5453065981430607</v>
+      </c>
+      <c r="I13">
+        <v>15.36886806890076</v>
+      </c>
+      <c r="J13">
         <v>0.8360763970072442</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>4.210788552053922</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.9599379803903033</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>5.846792332996723</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.05026821641212882</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.7944442659304488</v>
       </c>
-      <c r="N13" t="n">
-        <v>68.53463635016429</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>84.44915881205418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.134473705613554</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>32.91247616748065</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.004374970061883258</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.004675338338029256</v>
+      </c>
+      <c r="E14">
         <v>1.691076097153827</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1.318713042384205</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>9.909593141704738</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.3460599565138654</v>
+      </c>
+      <c r="I14">
+        <v>9.75332012064856</v>
+      </c>
+      <c r="J14">
         <v>0.562743728754876</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>2.834184602343986</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>4.547505147886341</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.05026821641212882</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.7944442659304488</v>
       </c>
-      <c r="N14" t="n">
-        <v>56.50647151491911</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>66.60615196035768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.8014579407563457</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>23.25127964082293</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.006217062719518314</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.006643901848778416</v>
+      </c>
+      <c r="E15">
         <v>2.403108138060701</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.8532849097780146</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>6.412089679926596</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1992466416291952</v>
+      </c>
+      <c r="I15">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="J15">
         <v>0.4823517675041794</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>2.429301087723417</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.6399586535935357</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>3.897861555331148</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>41.17691043621638</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>46.99213186522704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.4928633319886672</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>14.29857085945343</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.005065754808496403</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.00541354965456019</v>
+      </c>
+      <c r="E16">
         <v>1.958088112493905</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.5817851657577373</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>4.371879327222679</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.1048666534890501</v>
+      </c>
+      <c r="I16">
+        <v>2.955551551711684</v>
+      </c>
+      <c r="J16">
         <v>0.3698030217532042</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>1.862464167254619</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.5866287657940743</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>3.573039759053552</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>28.10018826558036</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>31.16095426562715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.3829681295857887</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>11.11037600565638</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.007138109048335841</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.007628183604152998</v>
+      </c>
+      <c r="E17">
         <v>2.759124158514138</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.1939283885859124</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1.457293109074226</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.02097333069781003</v>
+      </c>
+      <c r="I17">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="J17">
         <v>0.2090190992518111</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>1.05269713801348</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.6932885413929969</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>4.222683351608743</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>22.08851603073182</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>22.70108974632778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.2497618236429056</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>7.245897394993293</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.006447324301722695</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.006889972287622062</v>
+      </c>
+      <c r="E18">
         <v>2.492112143174061</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.3490710994546422</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>2.623127596333607</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.04194666139562005</v>
+      </c>
+      <c r="I18">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="J18">
         <v>0.3858814140033436</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>1.943440870178733</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.4266391023956901</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>2.598574370220766</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>18.32095313869877</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>19.54556306876496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1487470416362194</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4.315334448573783</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.005756539555109552</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.006151760971091127</v>
+      </c>
+      <c r="E19">
         <v>2.225100127833983</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.4654281326061898</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3.497503461778142</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.01048666534890501</v>
+      </c>
+      <c r="I19">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="J19">
         <v>0.1768623147515324</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.8907437321652527</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>0.9066080925908417</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>5.521970536719127</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N19" t="n">
-        <v>18.32299692467869</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>18.62943396661475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.1798285130228921</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5.217046124395169</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.004374970061883258</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.004675338338029256</v>
+      </c>
+      <c r="E20">
         <v>1.691076097153827</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.5817851657577373</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>4.371879327222679</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.03145999604671504</v>
+      </c>
+      <c r="I20">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="J20">
         <v>0.3537246295030648</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>1.781487464330505</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>4.547505147886341</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N20" t="n">
-        <v>19.64426836499507</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>20.56269419483144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.3085946087676789</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>8.952708781369488</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.002072354239839438</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.002214633949592805</v>
+      </c>
+      <c r="E21">
         <v>0.8010360460202338</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.8144992320608321</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>6.120631058111751</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.0734066574423351</v>
+      </c>
+      <c r="I21">
+        <v>2.068886086198179</v>
+      </c>
+      <c r="J21">
         <v>0.6270572977554331</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>3.158091414040441</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>1.226587419387609</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>7.4709013143847</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>29.48217952613801</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>31.62461454948828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.62051937518393</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>18.00202952800556</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.001842092657635056</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.00196856351074916</v>
+      </c>
+      <c r="E22">
         <v>0.7120320409068744</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1.202356009232657</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>9.035217276260202</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.3041132951182454</v>
+      </c>
+      <c r="I22">
+        <v>8.57109949996388</v>
+      </c>
+      <c r="J22">
         <v>1.768623147515324</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>8.907437321652527</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>2.239855287577374</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>13.64251544365902</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N22" t="n">
-        <v>56.47031251558812</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>65.34565178152337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.178875807594515</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>34.20063570436835</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.004144708479678875</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.00442926789918561</v>
+      </c>
+      <c r="E23">
         <v>1.602072092040468</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>2.055640919010671</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>15.44730695618679</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.8808798893080211</v>
+      </c>
+      <c r="I23">
+        <v>24.82663303437815</v>
+      </c>
+      <c r="J23">
         <v>2.604699544522568</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>13.11822587370645</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>3.146463380168216</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>19.16448598037814</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.1206437193891092</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>1.906666238233077</v>
       </c>
-      <c r="N23" t="n">
-        <v>94.54986092407803</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>120.2576584071837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.69616029567271</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>49.20769430911</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.006217062719518314</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.006643901848778416</v>
+      </c>
+      <c r="E24">
         <v>2.403108138060701</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>2.171997952162219</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>16.32168282163133</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.9542865467503561</v>
+      </c>
+      <c r="I24">
+        <v>26.89551912057632</v>
+      </c>
+      <c r="J24">
         <v>2.749405074773823</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>13.84701620002348</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>3.999741584959597</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>24.36163472081968</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.1809655790836638</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>2.859999357349615</v>
       </c>
-      <c r="N24" t="n">
-        <v>119.8056230963663</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>147.6558556028223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.843797284759406</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>53.49082476926157</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.01059203278140157</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.01131924018680767</v>
+      </c>
+      <c r="E25">
         <v>4.094184235214528</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>2.714997440202774</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>20.40210352703916</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.4509266100029157</v>
+      </c>
+      <c r="I25">
+        <v>12.70887167236024</v>
+      </c>
+      <c r="J25">
         <v>2.79764025152424</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>14.08994630879581</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>2.719824277772526</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>16.56591161015737</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>1.271110825488718</v>
       </c>
-      <c r="N25" t="n">
-        <v>120.0813617092569</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>133.2418871990255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.728351819608907</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>50.1416099733536</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.01128281752801471</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.01205745150333861</v>
+      </c>
+      <c r="E26">
         <v>4.361196250554606</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>2.63742608476841</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>19.81918628340948</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.3670332872116754</v>
+      </c>
+      <c r="I26">
+        <v>10.3444304309909</v>
+      </c>
+      <c r="J26">
         <v>2.958424174025633</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>14.89971333803696</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>2.986473716769831</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>18.19002059154536</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>1.271110825488718</v>
       </c>
-      <c r="N26" t="n">
-        <v>119.0852250213489</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>129.7974633735268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.628447090151745</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>47.24325101535628</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.01450647967887606</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.01550243764714964</v>
+      </c>
+      <c r="E27">
         <v>5.607252322141636</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3.219211250526147</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>24.19106561063216</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1468133148846702</v>
+      </c>
+      <c r="I27">
+        <v>4.137772172396358</v>
+      </c>
+      <c r="J27">
         <v>3.247835234528141</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>16.357293990671</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>2.613164502173603</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>15.91626801760219</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.2111265089309411</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>3.336665916907886</v>
       </c>
-      <c r="N27" t="n">
-        <v>123.5860879393006</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>127.8716693845499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.650648141142226</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>47.88733078380011</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.01335517176785415</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.01427208545293141</v>
+      </c>
+      <c r="E28">
         <v>5.162232296574839</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2.521069051616862</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>18.94481041796494</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.1468133148846702</v>
+      </c>
+      <c r="I28">
+        <v>4.137772172396358</v>
+      </c>
+      <c r="J28">
         <v>2.910188997275215</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>14.65678322926461</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>2.773154165571988</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>16.89073340643497</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.1306973626715349</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>2.065555091419167</v>
       </c>
-      <c r="N28" t="n">
-        <v>115.6065581155043</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>119.8920605164704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.722801556861287</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>49.98059003124262</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.01427621809667168</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.015256367208306</v>
+      </c>
+      <c r="E29">
         <v>5.518248317028276</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>2.133212274445035</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>16.03022419981649</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.1572999802335752</v>
+      </c>
+      <c r="I29">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="J29">
         <v>2.910188997275215</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>14.65678322926461</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>2.239855287577374</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>13.64251544365902</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>1.271110825488718</v>
       </c>
-      <c r="N29" t="n">
-        <v>110.2002355270147</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>114.7918429839275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.788294657283204</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>51.88062534815198</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.01243412543903663</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.01328780369755683</v>
+      </c>
+      <c r="E30">
         <v>4.806216276121401</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.784141174990394</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>13.40709660348288</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1782733109313852</v>
+      </c>
+      <c r="I30">
+        <v>5.024437637909862</v>
+      </c>
+      <c r="J30">
         <v>3.617638256281345</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>18.21975815792562</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>2.506504726574681</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>15.266624425047</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.1206437193891092</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>1.906666238233077</v>
       </c>
-      <c r="N30" t="n">
-        <v>115.3166437089197</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>120.5202083360195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.607356091710788</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>46.63137523533459</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.01243412543903663</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.01328780369755683</v>
+      </c>
+      <c r="E31">
         <v>4.806216276121401</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>2.365926340748131</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>17.77897593070555</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I31">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J31">
         <v>2.829797036024519</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>14.25189971464404</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>1.759886297382223</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>10.71911927716066</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.06032185969455459</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.9533331191165386</v>
       </c>
-      <c r="N31" t="n">
-        <v>103.776641304082</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>109.2862477517019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.790514762382252</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>51.94503332499635</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.01105255594581034</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.01181138106449496</v>
+      </c>
+      <c r="E32">
         <v>4.272192245441247</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>3.568282349980789</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>26.81419320696575</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I32">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J32">
         <v>3.247835234528141</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>16.357293990671</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>1.6532265217833</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>10.06947568460547</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.1407510059539607</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>2.224443944605257</v>
       </c>
-      <c r="N32" t="n">
-        <v>122.0942948278593</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>127.6038064223393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.799395182778445</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>52.2026652323739</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.0115130791102191</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.01230352194218225</v>
+      </c>
+      <c r="E33">
         <v>4.450200255667966</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3.025282861940233</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>22.73377250155793</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.2726532990715304</v>
+      </c>
+      <c r="I33">
+        <v>7.684434034450379</v>
+      </c>
+      <c r="J33">
         <v>3.006659350776051</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>15.1426434468093</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>2.07986562417899</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>12.66805005482624</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.1306973626715349</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>2.065555091419167</v>
       </c>
-      <c r="N33" t="n">
-        <v>119.31630004411</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>127.2741778204638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2.147951683328988</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>62.3147175969423</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.009901248034788427</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.01058102887027674</v>
+      </c>
+      <c r="E34">
         <v>3.82717221987445</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>2.63742608476841</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>19.81918628340948</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.5557932634919657</v>
+      </c>
+      <c r="I34">
+        <v>15.66442322407192</v>
+      </c>
+      <c r="J34">
         <v>2.508229191021732</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>12.63236565616176</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>1.173257531588149</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>7.146079518107104</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>1.588888531860898</v>
       </c>
-      <c r="N34" t="n">
-        <v>115.9057119779223</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>132.1266082463217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2.24230615003853</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>65.05205661282868</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.007598632212744604</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.008120324481840285</v>
+      </c>
+      <c r="E35">
         <v>2.937132168740858</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>2.171997952162219</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>16.32168282163133</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.6187132555853958</v>
+      </c>
+      <c r="I35">
+        <v>17.43775415509894</v>
+      </c>
+      <c r="J35">
         <v>1.945485462266856</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>9.798181053817778</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>4.547505147886341</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>1.271110825488718</v>
       </c>
-      <c r="N35" t="n">
-        <v>107.1221044025259</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>125.1790935054793</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.687279875276517</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>48.95006240173247</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.006217062719518314</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.006643901848778416</v>
+      </c>
+      <c r="E36">
         <v>2.403108138060701</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>2.210783629879401</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>16.61314144344617</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.6501732516321108</v>
+      </c>
+      <c r="I36">
+        <v>18.32441962061244</v>
+      </c>
+      <c r="J36">
         <v>1.205879418760448</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>6.073252719308542</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.6932885413929969</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>4.222683351608743</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.05026821641212882</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.7944442659304488</v>
       </c>
-      <c r="N36" t="n">
-        <v>84.91040906452808</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>103.8854287759019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1.566284147378399</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>45.43982766371348</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.005756539555109552</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.006151760971091127</v>
+      </c>
+      <c r="E37">
         <v>2.225100127833983</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1.279927364667022</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>9.618134519889891</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.6396865862832058</v>
+      </c>
+      <c r="I37">
+        <v>18.02886446544127</v>
+      </c>
+      <c r="J37">
         <v>1.045095496259055</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>5.263485690067402</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.9066080925908417</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>5.521970536719127</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N37" t="n">
-        <v>73.21007517161135</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>91.8790214447518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1.245478960565955</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>36.13287500969991</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.003453923733065729</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.003691056582654675</v>
+      </c>
+      <c r="E38">
         <v>1.33506007670039</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1.047213298363927</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>7.869382789000821</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.4404399446540105</v>
+      </c>
+      <c r="I38">
+        <v>12.41331651718907</v>
+      </c>
+      <c r="J38">
         <v>0.6752924745058509</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>3.401021522812784</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.9066080925908417</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>5.521970536719127</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N38" t="n">
-        <v>58.47624167762969</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>71.33023527232238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.8913721972677918</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>25.8598027030205</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.004835493226292021</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.005167479215716545</v>
+      </c>
+      <c r="E39">
         <v>1.869084107380546</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.5042138103233722</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3.788962083592987</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I39">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J39">
         <v>0.4823517675041794</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>2.429301087723417</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.5332988779946127</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>3.248217962775958</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.0301609298472773</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.4766665595582693</v>
       </c>
-      <c r="N39" t="n">
-        <v>40.1182675802152</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>45.62735233556594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.5250548559248638</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>15.23248652369701</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.005526277972905168</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.005905690532247481</v>
+      </c>
+      <c r="E40">
         <v>2.136096122720624</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.5429994880405548</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>4.080420705407833</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.08389332279124011</v>
+      </c>
+      <c r="I40">
+        <v>2.364441241369347</v>
+      </c>
+      <c r="J40">
         <v>0.3858814140033436</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>1.943440870178733</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>4.547505147886341</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>30.14602983502467</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>32.59474381174459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.4051691805762692</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>11.75445577410023</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.005756539555109552</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.006151760971091127</v>
+      </c>
+      <c r="E41">
         <v>2.225100127833983</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.1939283885859124</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>1.457293109074226</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.04194666139562005</v>
+      </c>
+      <c r="I41">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="J41">
         <v>0.3054894527526469</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>1.538557355558164</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>0.9066080925908417</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>5.521970536719127</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>24.31432855734651</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>25.53889106084279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.263082454237194</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>7.6323452560596</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.006447324301722695</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.006889972287622062</v>
+      </c>
+      <c r="E42">
         <v>2.492112143174061</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.3102854217374599</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>2.331668974518761</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.05243332674452506</v>
+      </c>
+      <c r="I42">
+        <v>1.477775775855842</v>
+      </c>
+      <c r="J42">
         <v>0.3215678450027861</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>1.619534058482278</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.7999483169919194</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>4.872326944163936</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>20.64931873866972</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>22.17997048925599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1842687232209881</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>5.345862078083941</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.007138109048335841</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.007628183604152998</v>
+      </c>
+      <c r="E43">
         <v>2.759124158514138</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.5817851657577373</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>4.371879327222679</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.02097333069781003</v>
+      </c>
+      <c r="I43">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="J43">
         <v>0.2572542760022289</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>1.295627246785822</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>0.5332988779946127</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>3.248217962775958</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N43" t="n">
-        <v>18.75339842187495</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>19.36597213747092</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.2042496691124205</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>5.925533869683405</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.007138109048335841</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.007628183604152998</v>
+      </c>
+      <c r="E44">
         <v>2.759124158514138</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.3878567771718249</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>2.914586218148453</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.04194666139562005</v>
+      </c>
+      <c r="I44">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="J44">
         <v>0.3537246295030648</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>1.781487464330505</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.3199793267967678</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>1.948930777665574</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>16.60261099997449</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>17.8272683566106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.2752930322819582</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>7.986589128703721</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.00230261582204382</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.002460704388436451</v>
+      </c>
+      <c r="E45">
         <v>0.8900400511335933</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.7369278766264675</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>5.537713814482057</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.06291999209343008</v>
+      </c>
+      <c r="I45">
+        <v>1.77333093102701</v>
+      </c>
+      <c r="J45">
         <v>0.5949005132551545</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>2.996138008192214</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>0.6932885413929969</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>4.222683351608743</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N45" t="n">
-        <v>24.61164691937301</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>26.44805593105985</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.6393902685258385</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>18.54949733118283</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.001842092657635056</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.00196856351074916</v>
+      </c>
+      <c r="E46">
         <v>0.7120320409068744</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1.163570331515475</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>8.743758654445358</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.3145999604671503</v>
+      </c>
+      <c r="I46">
+        <v>8.866654655135051</v>
+      </c>
+      <c r="J46">
         <v>1.832936716515881</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>9.231344133348982</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>2.346515063176297</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>14.29215903621421</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N46" t="n">
-        <v>57.85093066142642</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>67.03231174788174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.215507541728807</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>35.2633673223007</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.003914446897474493</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.004183197460341966</v>
+      </c>
+      <c r="E47">
         <v>1.513068086927108</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1.978069563576307</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>14.86438971255711</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.912339885354736</v>
+      </c>
+      <c r="I47">
+        <v>25.71329849989165</v>
+      </c>
+      <c r="J47">
         <v>2.701169898023404</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>13.60408609125114</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>3.3064530435666</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>20.13895136921094</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.1105900761066834</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>1.747777385046988</v>
       </c>
-      <c r="N47" t="n">
-        <v>96.44734453719325</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>123.0732516730025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.748332765500339</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>50.72128176495305</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.005986801137313929</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.00639783140993477</v>
+      </c>
+      <c r="E48">
         <v>2.314104132947342</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>2.094426596727855</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>15.73876557800164</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.9962332081459764</v>
+      </c>
+      <c r="I48">
+        <v>28.07773974126101</v>
+      </c>
+      <c r="J48">
         <v>2.845875428274658</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>14.33287641756816</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>4.21306113615744</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>25.66092190593006</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.1709119358012379</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>2.701110504163525</v>
       </c>
-      <c r="N48" t="n">
-        <v>122.5476549671626</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>151.6220389468422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.901520017334655</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>55.16543216721559</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.01036177119919719</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.01107316974796402</v>
+      </c>
+      <c r="E49">
         <v>4.005180230101169</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>2.63742608476841</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>19.81918628340948</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.4718999407007257</v>
+      </c>
+      <c r="I49">
+        <v>13.29998198270258</v>
+      </c>
+      <c r="J49">
         <v>2.910188997275215</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>14.65678322926461</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>2.87981394117091</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>17.54037699899016</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>1.112221972302628</v>
       </c>
-      <c r="N49" t="n">
-        <v>122.708867196009</v>
+      <c r="P49">
+        <v>136.4814605179611</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.676179349781278</v>
+        <v>2.429731283552513</v>
       </c>
       <c r="C2">
-        <v>48.62802251751053</v>
+        <v>70.48949003190441</v>
       </c>
       <c r="D2">
-        <v>0.0125495923810259</v>
+        <v>0.01819145260797406</v>
       </c>
       <c r="E2">
-        <v>4.539204260781325</v>
+        <v>6.579872611063017</v>
       </c>
       <c r="F2">
-        <v>2.714997440202774</v>
+        <v>3.935565854624369</v>
       </c>
       <c r="G2">
-        <v>20.40210352703916</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="H2">
-        <v>0.3565466218627704</v>
+        <v>0.5168375814306421</v>
       </c>
       <c r="I2">
-        <v>10.04887527581972</v>
+        <v>14.56650007373172</v>
       </c>
       <c r="J2">
-        <v>2.845875428274658</v>
+        <v>4.125282033855526</v>
       </c>
       <c r="K2">
-        <v>14.33287641756816</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="L2">
-        <v>2.826484053371448</v>
+        <v>4.097172971278439</v>
       </c>
       <c r="M2">
-        <v>17.21555520271257</v>
+        <v>24.95507001993205</v>
       </c>
       <c r="N2">
-        <v>0.09048278954183189</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O2">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P2">
-        <v>127.1197521555221</v>
+        <v>184.2683711680481</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.579604777972687</v>
+        <v>2.289740143374322</v>
       </c>
       <c r="C3">
-        <v>45.82627552477979</v>
+        <v>66.42817504331127</v>
       </c>
       <c r="D3">
-        <v>0.01599457852483693</v>
+        <v>0.02318518469643753</v>
       </c>
       <c r="E3">
-        <v>5.785260332368356</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="F3">
-        <v>3.335568283677694</v>
+        <v>4.835123764252796</v>
       </c>
       <c r="G3">
-        <v>25.06544147607668</v>
+        <v>36.33399212227813</v>
       </c>
       <c r="H3">
-        <v>0.1363266495357652</v>
+        <v>0.1976143693705396</v>
       </c>
       <c r="I3">
-        <v>3.842217017225189</v>
+        <v>5.5695441458386</v>
       </c>
       <c r="J3">
-        <v>3.135286488777166</v>
+        <v>4.544802240688292</v>
       </c>
       <c r="K3">
-        <v>15.79045707020221</v>
+        <v>22.88929733567572</v>
       </c>
       <c r="L3">
-        <v>2.506504726574681</v>
+        <v>3.633342068869561</v>
       </c>
       <c r="M3">
-        <v>15.266624425047</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="N3">
-        <v>0.2312337954957926</v>
+        <v>0.335188467036075</v>
       </c>
       <c r="O3">
-        <v>3.654443623280065</v>
+        <v>5.297354365224233</v>
       </c>
       <c r="P3">
-        <v>126.1712387695379</v>
+        <v>182.8934391554954</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.476369890866954</v>
+        <v>2.140094441804532</v>
       </c>
       <c r="C4">
-        <v>42.8313046015159</v>
+        <v>62.08676936584961</v>
       </c>
       <c r="D4">
-        <v>0.0125495923810259</v>
+        <v>0.01819145260797406</v>
       </c>
       <c r="E4">
-        <v>4.539204260781325</v>
+        <v>6.579872611063017</v>
       </c>
       <c r="F4">
-        <v>1.667784141838847</v>
+        <v>2.417561882126398</v>
       </c>
       <c r="G4">
-        <v>12.53272073803834</v>
+        <v>18.16699606113906</v>
       </c>
       <c r="H4">
-        <v>0.1258399841868602</v>
+        <v>0.1824132640343443</v>
       </c>
       <c r="I4">
-        <v>3.54666186205402</v>
+        <v>5.141117673081784</v>
       </c>
       <c r="J4">
-        <v>2.492150798771594</v>
+        <v>3.612535114393257</v>
       </c>
       <c r="K4">
-        <v>12.55138895323765</v>
+        <v>18.19405685656275</v>
       </c>
       <c r="L4">
-        <v>2.399844950975758</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M4">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N4">
-        <v>0.2010728656485153</v>
+        <v>0.2914682322052826</v>
       </c>
       <c r="O4">
-        <v>3.177777063721795</v>
+        <v>4.606395100194987</v>
       </c>
       <c r="P4">
-        <v>102.1716505365104</v>
+        <v>148.1044708211851</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.712811083915571</v>
+        <v>2.482831371206308</v>
       </c>
       <c r="C5">
-        <v>49.6907541354429</v>
+        <v>72.0299888206811</v>
       </c>
       <c r="D5">
-        <v>0.01353387413640048</v>
+        <v>0.01961823320467792</v>
       </c>
       <c r="E5">
-        <v>4.895220281234762</v>
+        <v>7.09594105114639</v>
       </c>
       <c r="F5">
-        <v>2.249569307596583</v>
+        <v>3.260897422403049</v>
       </c>
       <c r="G5">
-        <v>16.90460006526102</v>
+        <v>24.50432026851315</v>
       </c>
       <c r="H5">
-        <v>0.2202199723270053</v>
+        <v>0.3192232120601024</v>
       </c>
       <c r="I5">
-        <v>6.206658258594537</v>
+        <v>8.996955927893124</v>
       </c>
       <c r="J5">
-        <v>3.006659350776051</v>
+        <v>4.358348815429284</v>
       </c>
       <c r="K5">
-        <v>15.1426434468093</v>
+        <v>21.95024923985313</v>
       </c>
       <c r="L5">
-        <v>1.973205848580068</v>
+        <v>2.86029056485476</v>
       </c>
       <c r="M5">
-        <v>12.01840646227104</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="N5">
-        <v>0.1709119358012379</v>
+        <v>0.2477479973744902</v>
       </c>
       <c r="O5">
-        <v>2.701110504163525</v>
+        <v>3.915435835165739</v>
       </c>
       <c r="P5">
-        <v>116.90630452691</v>
+        <v>169.4633127359643</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.592925408566975</v>
+        <v>2.309049266157521</v>
       </c>
       <c r="C6">
-        <v>46.2127233858461</v>
+        <v>66.98835642104825</v>
       </c>
       <c r="D6">
-        <v>0.01402601501408777</v>
+        <v>0.02033162350302984</v>
       </c>
       <c r="E6">
-        <v>5.073228291461482</v>
+        <v>7.353975271188077</v>
       </c>
       <c r="F6">
-        <v>2.753783117919956</v>
+        <v>3.991788223976146</v>
       </c>
       <c r="G6">
-        <v>20.693562148854</v>
+        <v>29.99666791490403</v>
       </c>
       <c r="H6">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I6">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J6">
-        <v>3.215678450027862</v>
+        <v>4.661335631475172</v>
       </c>
       <c r="K6">
-        <v>16.19534058482277</v>
+        <v>23.47620239556485</v>
       </c>
       <c r="L6">
-        <v>2.026535736379529</v>
+        <v>2.937595715256239</v>
       </c>
       <c r="M6">
-        <v>12.34322825854863</v>
+        <v>17.89231435391355</v>
       </c>
       <c r="N6">
-        <v>0.1508046492363865</v>
+        <v>0.218601174153962</v>
       </c>
       <c r="O6">
-        <v>2.383332797791347</v>
+        <v>3.45479632514624</v>
       </c>
       <c r="P6">
-        <v>118.1639216138305</v>
+        <v>171.2863107219613</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.708370873717475</v>
+        <v>2.476394996945244</v>
       </c>
       <c r="C7">
-        <v>49.56193818175414</v>
+        <v>71.84326169476883</v>
       </c>
       <c r="D7">
-        <v>0.01451815589177506</v>
+        <v>0.02104501380138176</v>
       </c>
       <c r="E7">
-        <v>5.251236301688199</v>
+        <v>7.612009491229764</v>
       </c>
       <c r="F7">
-        <v>3.180425572808963</v>
+        <v>4.61023428684569</v>
       </c>
       <c r="G7">
-        <v>23.89960698881731</v>
+        <v>34.6440390003117</v>
       </c>
       <c r="H7">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I7">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J7">
-        <v>3.376462372529255</v>
+        <v>4.894402413048931</v>
       </c>
       <c r="K7">
-        <v>17.00510761406391</v>
+        <v>24.65001251534309</v>
       </c>
       <c r="L7">
-        <v>1.919875960780607</v>
+        <v>2.78298541445328</v>
       </c>
       <c r="M7">
-        <v>11.69358466599345</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="N7">
-        <v>0.1306973626715349</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O7">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P7">
-        <v>125.3161319114971</v>
+        <v>181.6539059969267</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.746112660401291</v>
+        <v>2.531104178164306</v>
       </c>
       <c r="C8">
-        <v>50.65687378810863</v>
+        <v>73.4304422650236</v>
       </c>
       <c r="D8">
-        <v>0.01328780369755683</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E8">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F8">
-        <v>3.102854217374599</v>
+        <v>4.49778954814214</v>
       </c>
       <c r="G8">
-        <v>23.31668974518762</v>
+        <v>33.79906243932849</v>
       </c>
       <c r="H8">
-        <v>0.2097333069781002</v>
+        <v>0.3040221067239071</v>
       </c>
       <c r="I8">
-        <v>5.911103103423367</v>
+        <v>8.568529455136309</v>
       </c>
       <c r="J8">
-        <v>3.151364881027305</v>
+        <v>4.568108918845668</v>
       </c>
       <c r="K8">
-        <v>15.87143377312632</v>
+        <v>23.00667834765355</v>
       </c>
       <c r="L8">
-        <v>1.6532265217833</v>
+        <v>2.39645966244588</v>
       </c>
       <c r="M8">
-        <v>10.06947568460547</v>
+        <v>14.59636170977158</v>
       </c>
       <c r="N8">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O8">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P8">
-        <v>121.6909692371146</v>
+        <v>176.3989962767566</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.952582434612761</v>
+        <v>2.830395581303887</v>
       </c>
       <c r="C9">
-        <v>56.64681563463645</v>
+        <v>82.11325361994696</v>
       </c>
       <c r="D9">
-        <v>0.01230352194218225</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E9">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F9">
-        <v>2.714997440202774</v>
+        <v>3.935565854624369</v>
       </c>
       <c r="G9">
-        <v>20.40210352703916</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="H9">
-        <v>0.3355732911649604</v>
+        <v>0.4864353707582514</v>
       </c>
       <c r="I9">
-        <v>9.45776496547739</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="J9">
-        <v>2.79764025152424</v>
+        <v>4.0553619993834</v>
       </c>
       <c r="K9">
-        <v>14.08994630879581</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="L9">
-        <v>1.759886297382223</v>
+        <v>2.551069963248839</v>
       </c>
       <c r="M9">
-        <v>10.71911927716066</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="N9">
-        <v>0.1105900761066834</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O9">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P9">
-        <v>127.1973006667603</v>
+        <v>184.3807827925995</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2.120200369590888</v>
+        <v>3.073368709659141</v>
       </c>
       <c r="C10">
-        <v>61.50961788638751</v>
+        <v>89.1622026231374</v>
       </c>
       <c r="D10">
-        <v>0.01501029676946235</v>
+        <v>0.02175840409973369</v>
       </c>
       <c r="E10">
-        <v>5.429244311914917</v>
+        <v>7.870043711271451</v>
       </c>
       <c r="F10">
-        <v>2.482283373899679</v>
+        <v>3.598231638513709</v>
       </c>
       <c r="G10">
-        <v>18.65335179615009</v>
+        <v>27.03924995146279</v>
       </c>
       <c r="H10">
-        <v>0.6291999209343007</v>
+        <v>0.9120663201717211</v>
       </c>
       <c r="I10">
-        <v>17.7333093102701</v>
+        <v>25.70558836540892</v>
       </c>
       <c r="J10">
-        <v>2.685091505773264</v>
+        <v>3.892215252281768</v>
       </c>
       <c r="K10">
-        <v>13.52310938832702</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="L10">
-        <v>1.333247194986532</v>
+        <v>1.932628760036998</v>
       </c>
       <c r="M10">
-        <v>8.120544906939891</v>
+        <v>11.77125944336418</v>
       </c>
       <c r="N10">
-        <v>0.06032185969455459</v>
+        <v>0.08744046966158478</v>
       </c>
       <c r="O10">
-        <v>0.9533331191165386</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="P10">
-        <v>135.2478652407547</v>
+        <v>196.0506011794245</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.253406675533771</v>
+        <v>3.266459937491127</v>
       </c>
       <c r="C11">
-        <v>65.37409649705062</v>
+        <v>94.76401640050727</v>
       </c>
       <c r="D11">
-        <v>0.009350676676058512</v>
+        <v>0.01355441566868656</v>
       </c>
       <c r="E11">
-        <v>3.382152194307654</v>
+        <v>4.902650180792051</v>
       </c>
       <c r="F11">
-        <v>2.133212274445035</v>
+        <v>3.09223031434772</v>
       </c>
       <c r="G11">
-        <v>16.03022419981649</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="H11">
-        <v>0.6711465823299209</v>
+        <v>0.9728707415165028</v>
       </c>
       <c r="I11">
-        <v>18.91552993095478</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="J11">
-        <v>1.495290479262956</v>
+        <v>2.167521068635955</v>
       </c>
       <c r="K11">
-        <v>7.530833371942591</v>
+        <v>10.91643411393765</v>
       </c>
       <c r="L11">
-        <v>0.2666494389973064</v>
+        <v>0.3865257520073999</v>
       </c>
       <c r="M11">
-        <v>1.624108981387979</v>
+        <v>2.354251888672835</v>
       </c>
       <c r="N11">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O11">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P11">
-        <v>120.8685987779848</v>
+        <v>175.2069166633918</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.641767720746033</v>
+        <v>2.37984938302925</v>
       </c>
       <c r="C12">
-        <v>47.62969887642258</v>
+        <v>69.04235480608391</v>
       </c>
       <c r="D12">
-        <v>0.007874254042996642</v>
+        <v>0.01141424477363078</v>
       </c>
       <c r="E12">
-        <v>2.848128163627498</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="F12">
-        <v>2.171997952162219</v>
+        <v>3.148452683699494</v>
       </c>
       <c r="G12">
-        <v>16.32168282163133</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="H12">
-        <v>0.4089799486072955</v>
+        <v>0.5928431081116189</v>
       </c>
       <c r="I12">
-        <v>11.52665105167557</v>
+        <v>16.70863243751581</v>
       </c>
       <c r="J12">
-        <v>1.334506556761563</v>
+        <v>1.934454287062196</v>
       </c>
       <c r="K12">
-        <v>6.721066342701451</v>
+        <v>9.742623994159409</v>
       </c>
       <c r="L12">
-        <v>0.5866287657940743</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M12">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="N12">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O12">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P12">
-        <v>95.1099072061632</v>
+        <v>137.8680133153688</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.431967788885992</v>
+        <v>2.075730699193869</v>
       </c>
       <c r="C13">
-        <v>41.54314506462821</v>
+        <v>60.21949810672629</v>
       </c>
       <c r="D13">
-        <v>0.00541354965456019</v>
+        <v>0.007847293281871164</v>
       </c>
       <c r="E13">
-        <v>1.958088112493905</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="F13">
-        <v>1.279927364667022</v>
+        <v>1.85533818860863</v>
       </c>
       <c r="G13">
-        <v>9.618134519889891</v>
+        <v>13.942113256223</v>
       </c>
       <c r="H13">
-        <v>0.5453065981430607</v>
+        <v>0.7904574774821586</v>
       </c>
       <c r="I13">
-        <v>15.36886806890076</v>
+        <v>22.2781765833544</v>
       </c>
       <c r="J13">
-        <v>0.8360763970072442</v>
+        <v>1.211947264183544</v>
       </c>
       <c r="K13">
-        <v>4.210788552053922</v>
+        <v>6.103812622846859</v>
       </c>
       <c r="L13">
-        <v>0.9599379803903033</v>
+        <v>1.39149270722664</v>
       </c>
       <c r="M13">
-        <v>5.846792332996723</v>
+        <v>8.475306799222206</v>
       </c>
       <c r="N13">
-        <v>0.05026821641212882</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O13">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P13">
-        <v>84.44915881205418</v>
+        <v>122.4145632519081</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.134473705613554</v>
+        <v>1.64449362370243</v>
       </c>
       <c r="C14">
-        <v>32.91247616748065</v>
+        <v>47.70878067060021</v>
       </c>
       <c r="D14">
-        <v>0.004675338338029256</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E14">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F14">
-        <v>1.318713042384205</v>
+        <v>1.911560557960408</v>
       </c>
       <c r="G14">
-        <v>9.909593141704738</v>
+        <v>14.36460153671461</v>
       </c>
       <c r="H14">
-        <v>0.3460599565138654</v>
+        <v>0.5016364760944468</v>
       </c>
       <c r="I14">
-        <v>9.75332012064856</v>
+        <v>14.13807360097491</v>
       </c>
       <c r="J14">
-        <v>0.562743728754876</v>
+        <v>0.8157337355081548</v>
       </c>
       <c r="K14">
-        <v>2.834184602343986</v>
+        <v>4.108335419223847</v>
       </c>
       <c r="L14">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M14">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N14">
-        <v>0.05026821641212882</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O14">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P14">
-        <v>66.60615196035768</v>
+        <v>96.5499611460141</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,43 +1130,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.8014579407563457</v>
+        <v>1.161765554122459</v>
       </c>
       <c r="C15">
-        <v>23.25127964082293</v>
+        <v>33.70424622717552</v>
       </c>
       <c r="D15">
-        <v>0.006643901848778416</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E15">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F15">
-        <v>0.8532849097780146</v>
+        <v>1.236892125739087</v>
       </c>
       <c r="G15">
-        <v>6.412089679926596</v>
+        <v>9.294742170815336</v>
       </c>
       <c r="H15">
-        <v>0.1992466416291952</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I15">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J15">
-        <v>0.4823517675041794</v>
+        <v>0.6992003447212753</v>
       </c>
       <c r="K15">
-        <v>2.429301087723417</v>
+        <v>3.521430359334726</v>
       </c>
       <c r="L15">
-        <v>0.6399586535935357</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M15">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="P15">
-        <v>46.99213186522704</v>
+        <v>68.11815984289869</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,43 +1174,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.4928633319886672</v>
+        <v>0.7144375429783547</v>
       </c>
       <c r="C16">
-        <v>14.29857085945343</v>
+        <v>20.72671097626859</v>
       </c>
       <c r="D16">
-        <v>0.00541354965456019</v>
+        <v>0.007847293281871164</v>
       </c>
       <c r="E16">
-        <v>1.958088112493905</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="F16">
-        <v>0.5817851657577373</v>
+        <v>0.8433355402766504</v>
       </c>
       <c r="G16">
-        <v>4.371879327222679</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="H16">
-        <v>0.1048666534890501</v>
+        <v>0.1520110533619535</v>
       </c>
       <c r="I16">
-        <v>2.955551551711684</v>
+        <v>4.284264727568154</v>
       </c>
       <c r="J16">
-        <v>0.3698030217532042</v>
+        <v>0.5360535976196447</v>
       </c>
       <c r="K16">
-        <v>1.862464167254619</v>
+        <v>2.699763275489957</v>
       </c>
       <c r="L16">
-        <v>0.5866287657940743</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M16">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="P16">
-        <v>31.16095426562715</v>
+        <v>45.16983544417434</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,43 +1218,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.3829681295857887</v>
+        <v>0.5551372800169647</v>
       </c>
       <c r="C17">
-        <v>11.11037600565638</v>
+        <v>16.10521460993842</v>
       </c>
       <c r="D17">
-        <v>0.007628183604152998</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E17">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F17">
-        <v>0.1939283885859124</v>
+        <v>0.2811118467588837</v>
       </c>
       <c r="G17">
-        <v>1.457293109074226</v>
+        <v>2.11244140245803</v>
       </c>
       <c r="H17">
-        <v>0.02097333069781003</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I17">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J17">
-        <v>0.2090190992518111</v>
+        <v>0.3029868160458861</v>
       </c>
       <c r="K17">
-        <v>1.05269713801348</v>
+        <v>1.525953155711715</v>
       </c>
       <c r="L17">
-        <v>0.6932885413929969</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M17">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="P17">
-        <v>22.70108974632778</v>
+        <v>32.90671009315513</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,43 +1262,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.2497618236429056</v>
+        <v>0.3620460521849771</v>
       </c>
       <c r="C18">
-        <v>7.245897394993293</v>
+        <v>10.50340083256854</v>
       </c>
       <c r="D18">
-        <v>0.006889972287622062</v>
+        <v>0.009987464176926936</v>
       </c>
       <c r="E18">
-        <v>2.492112143174061</v>
+        <v>3.612479080583618</v>
       </c>
       <c r="F18">
-        <v>0.3490710994546422</v>
+        <v>0.5060013241659904</v>
       </c>
       <c r="G18">
-        <v>2.623127596333607</v>
+        <v>3.802394524424455</v>
       </c>
       <c r="H18">
-        <v>0.04194666139562005</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I18">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J18">
-        <v>0.3858814140033436</v>
+        <v>0.5593602757770205</v>
       </c>
       <c r="K18">
-        <v>1.943440870178733</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="L18">
-        <v>0.4266391023956901</v>
+        <v>0.6184412032118403</v>
       </c>
       <c r="M18">
-        <v>2.598574370220766</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="P18">
-        <v>19.54556306876496</v>
+        <v>28.33256837880973</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1487470416362194</v>
+        <v>0.2156185377457197</v>
       </c>
       <c r="C19">
-        <v>4.315334448573783</v>
+        <v>6.255358718063042</v>
       </c>
       <c r="D19">
-        <v>0.006151760971091127</v>
+        <v>0.00891737872939905</v>
       </c>
       <c r="E19">
-        <v>2.225100127833983</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="F19">
-        <v>0.4654281326061898</v>
+        <v>0.6746684322213202</v>
       </c>
       <c r="G19">
-        <v>3.497503461778142</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="H19">
-        <v>0.01048666534890501</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I19">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J19">
-        <v>0.1768623147515324</v>
+        <v>0.2563734597311345</v>
       </c>
       <c r="K19">
-        <v>0.8907437321652527</v>
+        <v>1.291191131756066</v>
       </c>
       <c r="L19">
-        <v>0.9066080925908417</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M19">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N19">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O19">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P19">
-        <v>18.62943396661475</v>
+        <v>27.00457949769286</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1798285130228921</v>
+        <v>0.2606731575731835</v>
       </c>
       <c r="C20">
-        <v>5.217046124395169</v>
+        <v>7.562448599449348</v>
       </c>
       <c r="D20">
-        <v>0.004675338338029256</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E20">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F20">
-        <v>0.5817851657577373</v>
+        <v>0.8433355402766504</v>
       </c>
       <c r="G20">
-        <v>4.371879327222679</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="H20">
-        <v>0.03145999604671504</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I20">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J20">
-        <v>0.3537246295030648</v>
+        <v>0.5127469194622689</v>
       </c>
       <c r="K20">
-        <v>1.781487464330505</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="L20">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M20">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N20">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O20">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P20">
-        <v>20.56269419483144</v>
+        <v>29.80696628068174</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,43 +1406,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.3085946087676789</v>
+        <v>0.447328011144105</v>
       </c>
       <c r="C21">
-        <v>8.952708781369488</v>
+        <v>12.9775352509069</v>
       </c>
       <c r="D21">
-        <v>0.002214633949592805</v>
+        <v>0.00321025634258366</v>
       </c>
       <c r="E21">
-        <v>0.8010360460202338</v>
+        <v>1.161153990187591</v>
       </c>
       <c r="F21">
-        <v>0.8144992320608321</v>
+        <v>1.18066975638731</v>
       </c>
       <c r="G21">
-        <v>6.120631058111751</v>
+        <v>8.872253890323726</v>
       </c>
       <c r="H21">
-        <v>0.0734066574423351</v>
+        <v>0.1064077373533675</v>
       </c>
       <c r="I21">
-        <v>2.068886086198179</v>
+        <v>2.998985309297708</v>
       </c>
       <c r="J21">
-        <v>0.6270572977554331</v>
+        <v>0.9089604481376584</v>
       </c>
       <c r="K21">
-        <v>3.158091414040441</v>
+        <v>4.577859467135145</v>
       </c>
       <c r="L21">
-        <v>1.226587419387609</v>
+        <v>1.77801845923404</v>
       </c>
       <c r="M21">
-        <v>7.4709013143847</v>
+        <v>10.82955868789504</v>
       </c>
       <c r="P21">
-        <v>31.62461454948828</v>
+        <v>45.84194126434517</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.62051937518393</v>
+        <v>0.8994833029840097</v>
       </c>
       <c r="C22">
-        <v>18.00202952800556</v>
+        <v>26.09511584624807</v>
       </c>
       <c r="D22">
-        <v>0.00196856351074916</v>
+        <v>0.002853561193407696</v>
       </c>
       <c r="E22">
-        <v>0.7120320409068744</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="F22">
-        <v>1.202356009232657</v>
+        <v>1.742893449905077</v>
       </c>
       <c r="G22">
-        <v>9.035217276260202</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="H22">
-        <v>0.3041132951182454</v>
+        <v>0.4408320547496653</v>
       </c>
       <c r="I22">
-        <v>8.57109949996388</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="J22">
-        <v>1.768623147515324</v>
+        <v>2.563734597311344</v>
       </c>
       <c r="K22">
-        <v>8.907437321652527</v>
+        <v>12.91191131756067</v>
       </c>
       <c r="L22">
-        <v>2.239855287577374</v>
+        <v>3.246816316862161</v>
       </c>
       <c r="M22">
-        <v>13.64251544365902</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="N22">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O22">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P22">
-        <v>65.34565178152337</v>
+        <v>94.72278393026043</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.178875807594515</v>
+        <v>1.708857366313092</v>
       </c>
       <c r="C23">
-        <v>34.20063570436835</v>
+        <v>49.57605192972351</v>
       </c>
       <c r="D23">
-        <v>0.00442926789918561</v>
+        <v>0.00642051268516732</v>
       </c>
       <c r="E23">
-        <v>1.602072092040468</v>
+        <v>2.322307980375183</v>
       </c>
       <c r="F23">
-        <v>2.055640919010671</v>
+        <v>2.979785575644165</v>
       </c>
       <c r="G23">
-        <v>15.44730695618679</v>
+        <v>22.39187886605512</v>
       </c>
       <c r="H23">
-        <v>0.8808798893080211</v>
+        <v>1.27689284824041</v>
       </c>
       <c r="I23">
-        <v>24.82663303437815</v>
+        <v>35.9878237115725</v>
       </c>
       <c r="J23">
-        <v>2.604699544522568</v>
+        <v>3.775681861494887</v>
       </c>
       <c r="K23">
-        <v>13.11822587370645</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="L23">
-        <v>3.146463380168216</v>
+        <v>4.561003873687317</v>
       </c>
       <c r="M23">
-        <v>19.16448598037814</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="N23">
-        <v>0.1206437193891092</v>
+        <v>0.1748809393231696</v>
       </c>
       <c r="O23">
-        <v>1.906666238233077</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="P23">
-        <v>120.2576584071837</v>
+        <v>174.3213187519785</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.69616029567271</v>
+        <v>2.458694967727312</v>
       </c>
       <c r="C24">
-        <v>49.20769430911</v>
+        <v>71.3297620985099</v>
       </c>
       <c r="D24">
-        <v>0.006643901848778416</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E24">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F24">
-        <v>2.171997952162219</v>
+        <v>3.148452683699494</v>
       </c>
       <c r="G24">
-        <v>16.32168282163133</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="H24">
-        <v>0.9542865467503561</v>
+        <v>1.383300585593777</v>
       </c>
       <c r="I24">
-        <v>26.89551912057632</v>
+        <v>38.9868090208702</v>
       </c>
       <c r="J24">
-        <v>2.749405074773823</v>
+        <v>3.98544196491127</v>
       </c>
       <c r="K24">
-        <v>13.84701620002348</v>
+        <v>20.07215304820794</v>
       </c>
       <c r="L24">
-        <v>3.999741584959597</v>
+        <v>5.797886280111</v>
       </c>
       <c r="M24">
-        <v>24.36163472081968</v>
+        <v>35.31377833009252</v>
       </c>
       <c r="N24">
-        <v>0.1809655790836638</v>
+        <v>0.2623214089847543</v>
       </c>
       <c r="O24">
-        <v>2.859999357349615</v>
+        <v>4.145755590175487</v>
       </c>
       <c r="P24">
-        <v>147.6558556028223</v>
+        <v>214.0367924260042</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.843797284759406</v>
+        <v>2.672704411907766</v>
       </c>
       <c r="C25">
-        <v>53.49082476926157</v>
+        <v>77.53843903509487</v>
       </c>
       <c r="D25">
-        <v>0.01131924018680767</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E25">
-        <v>4.094184235214528</v>
+        <v>5.9347870609588</v>
       </c>
       <c r="F25">
-        <v>2.714997440202774</v>
+        <v>3.935565854624369</v>
       </c>
       <c r="G25">
-        <v>20.40210352703916</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="H25">
-        <v>0.4509266100029157</v>
+        <v>0.6536475294564005</v>
       </c>
       <c r="I25">
-        <v>12.70887167236024</v>
+        <v>18.42233832854306</v>
       </c>
       <c r="J25">
-        <v>2.79764025152424</v>
+        <v>4.0553619993834</v>
       </c>
       <c r="K25">
-        <v>14.08994630879581</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="L25">
-        <v>2.719824277772526</v>
+        <v>3.942562670475479</v>
       </c>
       <c r="M25">
-        <v>16.56591161015737</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="N25">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O25">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P25">
-        <v>133.2418871990255</v>
+        <v>193.1428051832831</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.728351819608907</v>
+        <v>2.505358681120043</v>
       </c>
       <c r="C26">
-        <v>50.1416099733536</v>
+        <v>72.68353376137429</v>
       </c>
       <c r="D26">
-        <v>0.01205745150333861</v>
+        <v>0.01747806230962214</v>
       </c>
       <c r="E26">
-        <v>4.361196250554606</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="F26">
-        <v>2.63742608476841</v>
+        <v>3.823121115920816</v>
       </c>
       <c r="G26">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H26">
-        <v>0.3670332872116754</v>
+        <v>0.5320386867668376</v>
       </c>
       <c r="I26">
-        <v>10.3444304309909</v>
+        <v>14.99492654648854</v>
       </c>
       <c r="J26">
-        <v>2.958424174025633</v>
+        <v>4.288428780957157</v>
       </c>
       <c r="K26">
-        <v>14.89971333803696</v>
+        <v>21.59810620391966</v>
       </c>
       <c r="L26">
-        <v>2.986473716769831</v>
+        <v>4.329088422482879</v>
       </c>
       <c r="M26">
-        <v>18.19002059154536</v>
+        <v>26.36762115313575</v>
       </c>
       <c r="N26">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O26">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P26">
-        <v>129.7974633735268</v>
+        <v>188.1498882118862</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.628447090151745</v>
+        <v>2.360540260246051</v>
       </c>
       <c r="C27">
-        <v>47.24325101535628</v>
+        <v>68.48217342834684</v>
       </c>
       <c r="D27">
-        <v>0.01550243764714964</v>
+        <v>0.02247179439808561</v>
       </c>
       <c r="E27">
-        <v>5.607252322141636</v>
+        <v>8.128077931313136</v>
       </c>
       <c r="F27">
-        <v>3.219211250526147</v>
+        <v>4.666456656197466</v>
       </c>
       <c r="G27">
-        <v>24.19106561063216</v>
+        <v>35.06652728080331</v>
       </c>
       <c r="H27">
-        <v>0.1468133148846702</v>
+        <v>0.212815474706735</v>
       </c>
       <c r="I27">
-        <v>4.137772172396358</v>
+        <v>5.997970618595416</v>
       </c>
       <c r="J27">
-        <v>3.247835234528141</v>
+        <v>4.707948987789922</v>
       </c>
       <c r="K27">
-        <v>16.357293990671</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="L27">
-        <v>2.613164502173603</v>
+        <v>3.787952369672521</v>
       </c>
       <c r="M27">
-        <v>15.91626801760219</v>
+        <v>23.07166850899378</v>
       </c>
       <c r="N27">
-        <v>0.2111265089309411</v>
+        <v>0.3060416438155468</v>
       </c>
       <c r="O27">
-        <v>3.336665916907886</v>
+        <v>4.836714855204734</v>
       </c>
       <c r="P27">
-        <v>127.8716693845499</v>
+        <v>185.3583242296041</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.650648141142226</v>
+        <v>2.392722131551382</v>
       </c>
       <c r="C28">
-        <v>47.88733078380011</v>
+        <v>69.41580905790849</v>
       </c>
       <c r="D28">
-        <v>0.01427208545293141</v>
+        <v>0.0206883186522058</v>
       </c>
       <c r="E28">
-        <v>5.162232296574839</v>
+        <v>7.482992381208921</v>
       </c>
       <c r="F28">
-        <v>2.521069051616862</v>
+        <v>3.654454007865486</v>
       </c>
       <c r="G28">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H28">
-        <v>0.1468133148846702</v>
+        <v>0.212815474706735</v>
       </c>
       <c r="I28">
-        <v>4.137772172396358</v>
+        <v>5.997970618595416</v>
       </c>
       <c r="J28">
-        <v>2.910188997275215</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K28">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L28">
-        <v>2.773154165571988</v>
+        <v>4.019867820876961</v>
       </c>
       <c r="M28">
-        <v>16.89073340643497</v>
+        <v>24.48421964219748</v>
       </c>
       <c r="N28">
-        <v>0.1306973626715349</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O28">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P28">
-        <v>119.8920605164704</v>
+        <v>173.7913607660489</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.722801556861287</v>
+        <v>2.497313213293708</v>
       </c>
       <c r="C29">
-        <v>49.98059003124262</v>
+        <v>72.45012485398388</v>
       </c>
       <c r="D29">
-        <v>0.015256367208306</v>
+        <v>0.02211509924890965</v>
       </c>
       <c r="E29">
-        <v>5.518248317028276</v>
+        <v>7.999060821292296</v>
       </c>
       <c r="F29">
-        <v>2.133212274445035</v>
+        <v>3.09223031434772</v>
       </c>
       <c r="G29">
-        <v>16.03022419981649</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="H29">
-        <v>0.1572999802335752</v>
+        <v>0.2280165800429303</v>
       </c>
       <c r="I29">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J29">
-        <v>2.910188997275215</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K29">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L29">
-        <v>2.239855287577374</v>
+        <v>3.246816316862161</v>
       </c>
       <c r="M29">
-        <v>13.64251544365902</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="N29">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O29">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P29">
-        <v>114.7918429839275</v>
+        <v>166.3982628297453</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.788294657283204</v>
+        <v>2.592249733644436</v>
       </c>
       <c r="C30">
-        <v>51.88062534815198</v>
+        <v>75.20434996119073</v>
       </c>
       <c r="D30">
-        <v>0.01328780369755683</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E30">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F30">
-        <v>1.784141174990394</v>
+        <v>2.586228990181727</v>
       </c>
       <c r="G30">
-        <v>13.40709660348288</v>
+        <v>19.43446090261388</v>
       </c>
       <c r="H30">
-        <v>0.1782733109313852</v>
+        <v>0.258418790715321</v>
       </c>
       <c r="I30">
-        <v>5.024437637909862</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="J30">
-        <v>3.617638256281345</v>
+        <v>5.244002585409567</v>
       </c>
       <c r="K30">
-        <v>18.21975815792562</v>
+        <v>26.41072769501044</v>
       </c>
       <c r="L30">
-        <v>2.506504726574681</v>
+        <v>3.633342068869561</v>
       </c>
       <c r="M30">
-        <v>15.266624425047</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="N30">
-        <v>0.1206437193891092</v>
+        <v>0.1748809393231696</v>
       </c>
       <c r="O30">
-        <v>1.906666238233077</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="P30">
-        <v>120.5202083360195</v>
+        <v>174.7019019966474</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.607356091710788</v>
+        <v>2.329967482505986</v>
       </c>
       <c r="C31">
-        <v>46.63137523533459</v>
+        <v>67.59521958026333</v>
       </c>
       <c r="D31">
-        <v>0.01328780369755683</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E31">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F31">
-        <v>2.365926340748131</v>
+        <v>3.429564530458379</v>
       </c>
       <c r="G31">
-        <v>17.77897593070555</v>
+        <v>25.77178510998798</v>
       </c>
       <c r="H31">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I31">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J31">
-        <v>2.829797036024519</v>
+        <v>4.101975355698151</v>
       </c>
       <c r="K31">
-        <v>14.25189971464404</v>
+        <v>20.65905810809706</v>
       </c>
       <c r="L31">
-        <v>1.759886297382223</v>
+        <v>2.551069963248839</v>
       </c>
       <c r="M31">
-        <v>10.71911927716066</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="N31">
-        <v>0.06032185969455459</v>
+        <v>0.08744046966158478</v>
       </c>
       <c r="O31">
-        <v>0.9533331191165386</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="P31">
-        <v>109.2862477517019</v>
+        <v>158.4175434800758</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.790514762382252</v>
+        <v>2.59546792077497</v>
       </c>
       <c r="C32">
-        <v>51.94503332499635</v>
+        <v>75.29771352414687</v>
       </c>
       <c r="D32">
-        <v>0.01181138106449496</v>
+        <v>0.01712136716044618</v>
       </c>
       <c r="E32">
-        <v>4.272192245441247</v>
+        <v>6.192821281000486</v>
       </c>
       <c r="F32">
-        <v>3.568282349980789</v>
+        <v>5.172457980363454</v>
       </c>
       <c r="G32">
-        <v>26.81419320696575</v>
+        <v>38.86892180522776</v>
       </c>
       <c r="H32">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I32">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J32">
-        <v>3.247835234528141</v>
+        <v>4.707948987789922</v>
       </c>
       <c r="K32">
-        <v>16.357293990671</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="L32">
-        <v>1.6532265217833</v>
+        <v>2.39645966244588</v>
       </c>
       <c r="M32">
-        <v>10.06947568460547</v>
+        <v>14.59636170977158</v>
       </c>
       <c r="N32">
-        <v>0.1407510059539607</v>
+        <v>0.2040277625436978</v>
       </c>
       <c r="O32">
-        <v>2.224443944605257</v>
+        <v>3.22447657013649</v>
       </c>
       <c r="P32">
-        <v>127.6038064223393</v>
+        <v>184.9700393965563</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.799395182778445</v>
+        <v>2.608340669297101</v>
       </c>
       <c r="C33">
-        <v>52.2026652323739</v>
+        <v>75.67116777597153</v>
       </c>
       <c r="D33">
-        <v>0.01230352194218225</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E33">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F33">
-        <v>3.025282861940233</v>
+        <v>4.385344809438582</v>
       </c>
       <c r="G33">
-        <v>22.73377250155793</v>
+        <v>32.95408587834527</v>
       </c>
       <c r="H33">
-        <v>0.2726532990715304</v>
+        <v>0.3952287387410793</v>
       </c>
       <c r="I33">
-        <v>7.684434034450379</v>
+        <v>11.1390882916772</v>
       </c>
       <c r="J33">
-        <v>3.006659350776051</v>
+        <v>4.358348815429284</v>
       </c>
       <c r="K33">
-        <v>15.1426434468093</v>
+        <v>21.95024923985313</v>
       </c>
       <c r="L33">
-        <v>2.07986562417899</v>
+        <v>3.014900865657719</v>
       </c>
       <c r="M33">
-        <v>12.66805005482624</v>
+        <v>18.36316473164811</v>
       </c>
       <c r="N33">
-        <v>0.1306973626715349</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O33">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P33">
-        <v>127.2741778204638</v>
+        <v>184.4922212406202</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2.147951683328988</v>
+        <v>3.113596048790804</v>
       </c>
       <c r="C34">
-        <v>62.3147175969423</v>
+        <v>90.32924716008941</v>
       </c>
       <c r="D34">
-        <v>0.01058102887027674</v>
+        <v>0.01533789141456637</v>
       </c>
       <c r="E34">
-        <v>3.82717221987445</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="F34">
-        <v>2.63742608476841</v>
+        <v>3.823121115920816</v>
       </c>
       <c r="G34">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H34">
-        <v>0.5557932634919657</v>
+        <v>0.8056585828183536</v>
       </c>
       <c r="I34">
-        <v>15.66442322407192</v>
+        <v>22.70660305611122</v>
       </c>
       <c r="J34">
-        <v>2.508229191021732</v>
+        <v>3.635841792550634</v>
       </c>
       <c r="K34">
-        <v>12.63236565616176</v>
+        <v>18.31143786854058</v>
       </c>
       <c r="L34">
-        <v>1.173257531588149</v>
+        <v>1.700713308832559</v>
       </c>
       <c r="M34">
-        <v>7.146079518107104</v>
+        <v>10.35870831016047</v>
       </c>
       <c r="N34">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O34">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P34">
-        <v>132.1266082463217</v>
+        <v>191.526135605755</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.24230615003853</v>
+        <v>3.25036900183846</v>
       </c>
       <c r="C35">
-        <v>65.05205661282868</v>
+        <v>94.29719858572642</v>
       </c>
       <c r="D35">
-        <v>0.008120324481840285</v>
+        <v>0.01177093992280675</v>
       </c>
       <c r="E35">
-        <v>2.937132168740858</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="F35">
-        <v>2.171997952162219</v>
+        <v>3.148452683699494</v>
       </c>
       <c r="G35">
-        <v>16.32168282163133</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="H35">
-        <v>0.6187132555853958</v>
+        <v>0.8968652148355259</v>
       </c>
       <c r="I35">
-        <v>17.43775415509894</v>
+        <v>25.27716189265211</v>
       </c>
       <c r="J35">
-        <v>1.945485462266856</v>
+        <v>2.820108057042479</v>
       </c>
       <c r="K35">
-        <v>9.798181053817778</v>
+        <v>14.20310244931673</v>
       </c>
       <c r="L35">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M35">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N35">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O35">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P35">
-        <v>125.1790935054793</v>
+        <v>181.4552598901166</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.687279875276517</v>
+        <v>2.445822219205179</v>
       </c>
       <c r="C36">
-        <v>48.95006240173247</v>
+        <v>70.95630784668526</v>
       </c>
       <c r="D36">
-        <v>0.006643901848778416</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E36">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F36">
-        <v>2.210783629879401</v>
+        <v>3.204675053051272</v>
       </c>
       <c r="G36">
-        <v>16.61314144344617</v>
+        <v>24.08183198802155</v>
       </c>
       <c r="H36">
-        <v>0.6501732516321108</v>
+        <v>0.9424685308441119</v>
       </c>
       <c r="I36">
-        <v>18.32441962061244</v>
+        <v>26.56244131092256</v>
       </c>
       <c r="J36">
-        <v>1.205879418760448</v>
+        <v>1.748000861803189</v>
       </c>
       <c r="K36">
-        <v>6.073252719308542</v>
+        <v>8.803575898336817</v>
       </c>
       <c r="L36">
-        <v>0.6932885413929969</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M36">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N36">
-        <v>0.05026821641212882</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O36">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P36">
-        <v>103.8854287759019</v>
+        <v>150.5887041473291</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.566284147378399</v>
+        <v>2.270431020591123</v>
       </c>
       <c r="C37">
-        <v>45.43982766371348</v>
+        <v>65.8679936655743</v>
       </c>
       <c r="D37">
-        <v>0.006151760971091127</v>
+        <v>0.00891737872939905</v>
       </c>
       <c r="E37">
-        <v>2.225100127833983</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="F37">
-        <v>1.279927364667022</v>
+        <v>1.85533818860863</v>
       </c>
       <c r="G37">
-        <v>9.618134519889891</v>
+        <v>13.942113256223</v>
       </c>
       <c r="H37">
-        <v>0.6396865862832058</v>
+        <v>0.9272674255079169</v>
       </c>
       <c r="I37">
-        <v>18.02886446544127</v>
+        <v>26.13401483816574</v>
       </c>
       <c r="J37">
-        <v>1.045095496259055</v>
+        <v>1.514934080229431</v>
       </c>
       <c r="K37">
-        <v>5.263485690067402</v>
+        <v>7.629765778558575</v>
       </c>
       <c r="L37">
-        <v>0.9066080925908417</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M37">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N37">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O37">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P37">
-        <v>91.8790214447518</v>
+        <v>133.184633694262</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.245478960565955</v>
+        <v>1.805402980229086</v>
       </c>
       <c r="C38">
-        <v>36.13287500969991</v>
+        <v>52.37695881840842</v>
       </c>
       <c r="D38">
-        <v>0.003691056582654675</v>
+        <v>0.00535042723763943</v>
       </c>
       <c r="E38">
-        <v>1.33506007670039</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="F38">
-        <v>1.047213298363927</v>
+        <v>1.518003972497971</v>
       </c>
       <c r="G38">
-        <v>7.869382789000821</v>
+        <v>11.40718357327336</v>
       </c>
       <c r="H38">
-        <v>0.4404399446540105</v>
+        <v>0.6384464241202048</v>
       </c>
       <c r="I38">
-        <v>12.41331651718907</v>
+        <v>17.99391185578625</v>
       </c>
       <c r="J38">
-        <v>0.6752924745058509</v>
+        <v>0.9788804826097858</v>
       </c>
       <c r="K38">
-        <v>3.401021522812784</v>
+        <v>4.930002503068617</v>
       </c>
       <c r="L38">
-        <v>0.9066080925908417</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M38">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N38">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O38">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P38">
-        <v>71.33023527232238</v>
+        <v>103.3978279990968</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.8913721972677918</v>
+        <v>1.292102132909052</v>
       </c>
       <c r="C39">
-        <v>25.8598027030205</v>
+        <v>37.48547052690017</v>
       </c>
       <c r="D39">
-        <v>0.005167479215716545</v>
+        <v>0.007490598132695203</v>
       </c>
       <c r="E39">
-        <v>1.869084107380546</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="F39">
-        <v>0.5042138103233722</v>
+        <v>0.730890801573097</v>
       </c>
       <c r="G39">
-        <v>3.788962083592987</v>
+        <v>5.492347646390878</v>
       </c>
       <c r="H39">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I39">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J39">
-        <v>0.4823517675041794</v>
+        <v>0.6992003447212753</v>
       </c>
       <c r="K39">
-        <v>2.429301087723417</v>
+        <v>3.521430359334726</v>
       </c>
       <c r="L39">
-        <v>0.5332988779946127</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M39">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N39">
-        <v>0.0301609298472773</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O39">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P39">
-        <v>45.62735233556594</v>
+        <v>66.1398229072943</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,43 +2350,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.5250548559248638</v>
+        <v>0.7611012563710854</v>
       </c>
       <c r="C40">
-        <v>15.23248652369701</v>
+        <v>22.08048263913297</v>
       </c>
       <c r="D40">
-        <v>0.005905690532247481</v>
+        <v>0.008560683580223088</v>
       </c>
       <c r="E40">
-        <v>2.136096122720624</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="F40">
-        <v>0.5429994880405548</v>
+        <v>0.7871131709248735</v>
       </c>
       <c r="G40">
-        <v>4.080420705407833</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="H40">
-        <v>0.08389332279124011</v>
+        <v>0.1216088426895628</v>
       </c>
       <c r="I40">
-        <v>2.364441241369347</v>
+        <v>3.427411782054524</v>
       </c>
       <c r="J40">
-        <v>0.3858814140033436</v>
+        <v>0.5593602757770205</v>
       </c>
       <c r="K40">
-        <v>1.943440870178733</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="L40">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M40">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="P40">
-        <v>32.59474381174459</v>
+        <v>47.24820689928544</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2394,43 +2394,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.4051691805762692</v>
+        <v>0.5873191513222962</v>
       </c>
       <c r="C41">
-        <v>11.75445577410023</v>
+        <v>17.03885023950007</v>
       </c>
       <c r="D41">
-        <v>0.006151760971091127</v>
+        <v>0.00891737872939905</v>
       </c>
       <c r="E41">
-        <v>2.225100127833983</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="F41">
-        <v>0.1939283885859124</v>
+        <v>0.2811118467588837</v>
       </c>
       <c r="G41">
-        <v>1.457293109074226</v>
+        <v>2.11244140245803</v>
       </c>
       <c r="H41">
-        <v>0.04194666139562005</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I41">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J41">
-        <v>0.3054894527526469</v>
+        <v>0.4428268849901412</v>
       </c>
       <c r="K41">
-        <v>1.538557355558164</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="L41">
-        <v>0.9066080925908417</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M41">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="P41">
-        <v>25.53889106084279</v>
+        <v>37.02028817254342</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,43 +2438,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.263082454237194</v>
+        <v>0.3813551749681762</v>
       </c>
       <c r="C42">
-        <v>7.6323452560596</v>
+        <v>11.06358221030552</v>
       </c>
       <c r="D42">
-        <v>0.006889972287622062</v>
+        <v>0.009987464176926936</v>
       </c>
       <c r="E42">
-        <v>2.492112143174061</v>
+        <v>3.612479080583618</v>
       </c>
       <c r="F42">
-        <v>0.3102854217374599</v>
+        <v>0.4497789548142136</v>
       </c>
       <c r="G42">
-        <v>2.331668974518761</v>
+        <v>3.379906243932849</v>
       </c>
       <c r="H42">
-        <v>0.05243332674452506</v>
+        <v>0.07600552668097676</v>
       </c>
       <c r="I42">
-        <v>1.477775775855842</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="J42">
-        <v>0.3215678450027861</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K42">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L42">
-        <v>0.7999483169919194</v>
+        <v>1.159577256022199</v>
       </c>
       <c r="M42">
-        <v>4.872326944163936</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="P42">
-        <v>22.17997048925599</v>
+        <v>32.15131374399107</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,49 +2482,49 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.1842687232209881</v>
+        <v>0.2671095318342498</v>
       </c>
       <c r="C43">
-        <v>5.345862078083941</v>
+        <v>7.749175725361678</v>
       </c>
       <c r="D43">
-        <v>0.007628183604152998</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E43">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F43">
-        <v>0.5817851657577373</v>
+        <v>0.8433355402766504</v>
       </c>
       <c r="G43">
-        <v>4.371879327222679</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="H43">
-        <v>0.02097333069781003</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I43">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J43">
-        <v>0.2572542760022289</v>
+        <v>0.3729068505180137</v>
       </c>
       <c r="K43">
-        <v>1.295627246785822</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="L43">
-        <v>0.5332988779946127</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M43">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N43">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O43">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P43">
-        <v>19.36597213747092</v>
+        <v>28.07223961144697</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2532,43 +2532,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.2042496691124205</v>
+        <v>0.296073216009048</v>
       </c>
       <c r="C44">
-        <v>5.925533869683405</v>
+        <v>8.589447791967157</v>
       </c>
       <c r="D44">
-        <v>0.007628183604152998</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E44">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F44">
-        <v>0.3878567771718249</v>
+        <v>0.5622236935177675</v>
       </c>
       <c r="G44">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H44">
-        <v>0.04194666139562005</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I44">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J44">
-        <v>0.3537246295030648</v>
+        <v>0.5127469194622689</v>
       </c>
       <c r="K44">
-        <v>1.781487464330505</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="L44">
-        <v>0.3199793267967678</v>
+        <v>0.4638309024088798</v>
       </c>
       <c r="M44">
-        <v>1.948930777665574</v>
+        <v>2.825102266407402</v>
       </c>
       <c r="P44">
-        <v>17.8272683566106</v>
+        <v>25.84178813084337</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2576,49 +2576,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2752930322819582</v>
+        <v>0.399055204186108</v>
       </c>
       <c r="C45">
-        <v>7.986589128703721</v>
+        <v>11.57708180656444</v>
       </c>
       <c r="D45">
-        <v>0.002460704388436451</v>
+        <v>0.003566951491759621</v>
       </c>
       <c r="E45">
-        <v>0.8900400511335933</v>
+        <v>1.290171100208435</v>
       </c>
       <c r="F45">
-        <v>0.7369278766264675</v>
+        <v>1.068225017683758</v>
       </c>
       <c r="G45">
-        <v>5.537713814482057</v>
+        <v>8.027277329340514</v>
       </c>
       <c r="H45">
-        <v>0.06291999209343008</v>
+        <v>0.09120663201717216</v>
       </c>
       <c r="I45">
-        <v>1.77333093102701</v>
+        <v>2.570558836540892</v>
       </c>
       <c r="J45">
-        <v>0.5949005132551545</v>
+        <v>0.8623470918229067</v>
       </c>
       <c r="K45">
-        <v>2.996138008192214</v>
+        <v>4.343097443179496</v>
       </c>
       <c r="L45">
-        <v>0.6932885413929969</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M45">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N45">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O45">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P45">
-        <v>26.44805593105985</v>
+        <v>38.33818194528414</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2626,49 +2626,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.6393902685258385</v>
+        <v>0.9268378935935417</v>
       </c>
       <c r="C46">
-        <v>18.54949733118283</v>
+        <v>26.88870613137546</v>
       </c>
       <c r="D46">
-        <v>0.00196856351074916</v>
+        <v>0.002853561193407696</v>
       </c>
       <c r="E46">
-        <v>0.7120320409068744</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="F46">
-        <v>1.163570331515475</v>
+        <v>1.686671080553301</v>
       </c>
       <c r="G46">
-        <v>8.743758654445358</v>
+        <v>12.67464841474818</v>
       </c>
       <c r="H46">
-        <v>0.3145999604671503</v>
+        <v>0.4560331600858605</v>
       </c>
       <c r="I46">
-        <v>8.866654655135051</v>
+        <v>12.85279418270446</v>
       </c>
       <c r="J46">
-        <v>1.832936716515881</v>
+        <v>2.656961309940848</v>
       </c>
       <c r="K46">
-        <v>9.231344133348982</v>
+        <v>13.38143536547196</v>
       </c>
       <c r="L46">
-        <v>2.346515063176297</v>
+        <v>3.401426617665118</v>
       </c>
       <c r="M46">
-        <v>14.29215903621421</v>
+        <v>20.71741662032094</v>
       </c>
       <c r="N46">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O46">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P46">
-        <v>67.03231174788174</v>
+        <v>97.16770755105986</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2676,49 +2676,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.215507541728807</v>
+        <v>1.761957453966889</v>
       </c>
       <c r="C47">
-        <v>35.2633673223007</v>
+        <v>51.11655071850021</v>
       </c>
       <c r="D47">
-        <v>0.004183197460341966</v>
+        <v>0.006063817535991355</v>
       </c>
       <c r="E47">
-        <v>1.513068086927108</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="F47">
-        <v>1.978069563576307</v>
+        <v>2.867340836940612</v>
       </c>
       <c r="G47">
-        <v>14.86438971255711</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="H47">
-        <v>0.912339885354736</v>
+        <v>1.322496164248996</v>
       </c>
       <c r="I47">
-        <v>25.71329849989165</v>
+        <v>37.27310312984293</v>
       </c>
       <c r="J47">
-        <v>2.701169898023404</v>
+        <v>3.915521930439143</v>
       </c>
       <c r="K47">
-        <v>13.60408609125114</v>
+        <v>19.72001001227447</v>
       </c>
       <c r="L47">
-        <v>3.3064530435666</v>
+        <v>4.792919324891759</v>
       </c>
       <c r="M47">
-        <v>20.13895136921094</v>
+        <v>29.19272341954316</v>
       </c>
       <c r="N47">
-        <v>0.1105900761066834</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O47">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P47">
-        <v>123.0732516730025</v>
+        <v>178.4027048164305</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2726,49 +2726,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.748332765500339</v>
+        <v>2.534322365294839</v>
       </c>
       <c r="C48">
-        <v>50.72128176495305</v>
+        <v>73.52380582797976</v>
       </c>
       <c r="D48">
-        <v>0.00639783140993477</v>
+        <v>0.009274073878575014</v>
       </c>
       <c r="E48">
-        <v>2.314104132947342</v>
+        <v>3.354444860541931</v>
       </c>
       <c r="F48">
-        <v>2.094426596727855</v>
+        <v>3.036007944995942</v>
       </c>
       <c r="G48">
-        <v>15.73876557800164</v>
+        <v>22.81436714654673</v>
       </c>
       <c r="H48">
-        <v>0.9962332081459764</v>
+        <v>1.444105006938558</v>
       </c>
       <c r="I48">
-        <v>28.07773974126101</v>
+        <v>40.70051491189746</v>
       </c>
       <c r="J48">
-        <v>2.845875428274658</v>
+        <v>4.125282033855526</v>
       </c>
       <c r="K48">
-        <v>14.33287641756816</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="L48">
-        <v>4.21306113615744</v>
+        <v>6.107106881716917</v>
       </c>
       <c r="M48">
-        <v>25.66092190593006</v>
+        <v>37.19717984103079</v>
       </c>
       <c r="N48">
-        <v>0.1709119358012379</v>
+        <v>0.2477479973744902</v>
       </c>
       <c r="O48">
-        <v>2.701110504163525</v>
+        <v>3.915435835165739</v>
       </c>
       <c r="P48">
-        <v>151.6220389468422</v>
+        <v>219.7860338472921</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2776,49 +2776,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.901520017334655</v>
+        <v>2.756377277301627</v>
       </c>
       <c r="C49">
-        <v>55.16543216721559</v>
+        <v>79.96589167195515</v>
       </c>
       <c r="D49">
-        <v>0.01107316974796402</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E49">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F49">
-        <v>2.63742608476841</v>
+        <v>3.823121115920816</v>
       </c>
       <c r="G49">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H49">
-        <v>0.4718999407007257</v>
+        <v>0.6840497401287911</v>
       </c>
       <c r="I49">
-        <v>13.29998198270258</v>
+        <v>19.27919127405669</v>
       </c>
       <c r="J49">
-        <v>2.910188997275215</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K49">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L49">
-        <v>2.87981394117091</v>
+        <v>4.174478121679919</v>
       </c>
       <c r="M49">
-        <v>17.54037699899016</v>
+        <v>25.42592039766662</v>
       </c>
       <c r="N49">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O49">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P49">
-        <v>136.4814605179611</v>
+        <v>197.838777985601</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2.429731283552513</v>
+        <v>1.651401046349728</v>
       </c>
       <c r="C2">
-        <v>70.48949003190441</v>
+        <v>47.90917348899084</v>
       </c>
       <c r="D2">
-        <v>0.01819145260797406</v>
+        <v>0.01236407666756725</v>
       </c>
       <c r="E2">
-        <v>6.579872611063017</v>
+        <v>4.472102980404557</v>
       </c>
       <c r="F2">
-        <v>3.935565854624369</v>
+        <v>2.674862695434558</v>
       </c>
       <c r="G2">
-        <v>29.57417963441242</v>
+        <v>20.10050721403076</v>
       </c>
       <c r="H2">
-        <v>0.5168375814306421</v>
+        <v>0.3512759326700164</v>
       </c>
       <c r="I2">
-        <v>14.56650007373172</v>
+        <v>9.900326684785869</v>
       </c>
       <c r="J2">
-        <v>4.125282033855526</v>
+        <v>2.803805965421902</v>
       </c>
       <c r="K2">
-        <v>20.77643912007489</v>
+        <v>14.12099911400411</v>
       </c>
       <c r="L2">
-        <v>4.097172971278439</v>
+        <v>2.784701245625958</v>
       </c>
       <c r="M2">
-        <v>24.95507001993205</v>
+        <v>16.96106438667247</v>
       </c>
       <c r="N2">
-        <v>0.1311607044923771</v>
+        <v>0.08914521787034392</v>
       </c>
       <c r="O2">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="P2">
-        <v>184.2683711680481</v>
+        <v>125.2405906019187</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2.289740143374322</v>
+        <v>1.556254098646135</v>
       </c>
       <c r="C3">
-        <v>66.42817504331127</v>
+        <v>45.14884362571786</v>
       </c>
       <c r="D3">
-        <v>0.02318518469643753</v>
+        <v>0.01575813692925239</v>
       </c>
       <c r="E3">
-        <v>8.386112151354824</v>
+        <v>5.699739092672475</v>
       </c>
       <c r="F3">
-        <v>4.835123764252796</v>
+        <v>3.286259882962459</v>
       </c>
       <c r="G3">
-        <v>36.33399212227813</v>
+        <v>24.69490886295207</v>
       </c>
       <c r="H3">
-        <v>0.1976143693705396</v>
+        <v>0.1343113860208887</v>
       </c>
       <c r="I3">
-        <v>5.5695441458386</v>
+        <v>3.785419026535775</v>
       </c>
       <c r="J3">
-        <v>4.544802240688292</v>
+        <v>3.088938775464808</v>
       </c>
       <c r="K3">
-        <v>22.88929733567572</v>
+        <v>15.55703292220791</v>
       </c>
       <c r="L3">
-        <v>3.633342068869561</v>
+        <v>2.469452048007924</v>
       </c>
       <c r="M3">
-        <v>22.12996775352465</v>
+        <v>15.04094389006804</v>
       </c>
       <c r="N3">
-        <v>0.335188467036075</v>
+        <v>0.2278155567797679</v>
       </c>
       <c r="O3">
-        <v>5.297354365224233</v>
+        <v>3.600421413196795</v>
       </c>
       <c r="P3">
-        <v>182.8934391554954</v>
+        <v>124.3060987181622</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2.140094441804532</v>
+        <v>1.454545292480224</v>
       </c>
       <c r="C4">
-        <v>62.08676936584961</v>
+        <v>42.19814618566745</v>
       </c>
       <c r="D4">
-        <v>0.01819145260797406</v>
+        <v>0.01236407666756725</v>
       </c>
       <c r="E4">
-        <v>6.579872611063017</v>
+        <v>4.472102980404557</v>
       </c>
       <c r="F4">
-        <v>2.417561882126398</v>
+        <v>1.643129941481229</v>
       </c>
       <c r="G4">
-        <v>18.16699606113906</v>
+        <v>12.34745443147603</v>
       </c>
       <c r="H4">
-        <v>0.1824132640343443</v>
+        <v>0.1239797409423588</v>
       </c>
       <c r="I4">
-        <v>5.141117673081784</v>
+        <v>3.494232947571485</v>
       </c>
       <c r="J4">
-        <v>3.612535114393257</v>
+        <v>2.455310308702796</v>
       </c>
       <c r="K4">
-        <v>18.19405685656275</v>
+        <v>12.36584668175501</v>
       </c>
       <c r="L4">
-        <v>3.478731768066599</v>
+        <v>2.364368982135248</v>
       </c>
       <c r="M4">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="N4">
-        <v>0.2914682322052826</v>
+        <v>0.1981004841563199</v>
       </c>
       <c r="O4">
-        <v>4.606395100194987</v>
+        <v>3.130801228866778</v>
       </c>
       <c r="P4">
-        <v>148.1044708211851</v>
+        <v>100.6612870068403</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2.482831371206308</v>
+        <v>1.687491267892471</v>
       </c>
       <c r="C5">
-        <v>72.0299888206811</v>
+        <v>48.95619516126679</v>
       </c>
       <c r="D5">
-        <v>0.01961823320467792</v>
+        <v>0.01333380817090586</v>
       </c>
       <c r="E5">
-        <v>7.09594105114639</v>
+        <v>4.822856155338249</v>
       </c>
       <c r="F5">
-        <v>3.260897422403049</v>
+        <v>2.216314804788634</v>
       </c>
       <c r="G5">
-        <v>24.50432026851315</v>
+        <v>16.65470597733977</v>
       </c>
       <c r="H5">
-        <v>0.3192232120601024</v>
+        <v>0.2169645466491278</v>
       </c>
       <c r="I5">
-        <v>8.996955927893124</v>
+        <v>6.114907658250096</v>
       </c>
       <c r="J5">
-        <v>4.358348815429284</v>
+        <v>2.962213082112406</v>
       </c>
       <c r="K5">
-        <v>21.95024923985313</v>
+        <v>14.91879567411733</v>
       </c>
       <c r="L5">
-        <v>2.86029056485476</v>
+        <v>1.944036718644537</v>
       </c>
       <c r="M5">
-        <v>17.42146397617897</v>
+        <v>11.84074306239399</v>
       </c>
       <c r="N5">
-        <v>0.2477479973744902</v>
+        <v>0.1683854115328718</v>
       </c>
       <c r="O5">
-        <v>3.915435835165739</v>
+        <v>2.661181044536761</v>
       </c>
       <c r="P5">
-        <v>169.4633127359643</v>
+        <v>115.178124373034</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2.309049266157521</v>
+        <v>1.569377815570768</v>
       </c>
       <c r="C6">
-        <v>66.98835642104825</v>
+        <v>45.52957877927273</v>
       </c>
       <c r="D6">
-        <v>0.02033162350302984</v>
+        <v>0.01381867392257517</v>
       </c>
       <c r="E6">
-        <v>7.353975271188077</v>
+        <v>4.998232742805094</v>
       </c>
       <c r="F6">
-        <v>3.991788223976146</v>
+        <v>2.713075019655053</v>
       </c>
       <c r="G6">
-        <v>29.99666791490403</v>
+        <v>20.38765731708834</v>
       </c>
       <c r="H6">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I6">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J6">
-        <v>4.661335631475172</v>
+        <v>3.168142333810059</v>
       </c>
       <c r="K6">
-        <v>23.47620239556485</v>
+        <v>15.95593120226453</v>
       </c>
       <c r="L6">
-        <v>2.937595715256239</v>
+        <v>1.996578251580874</v>
       </c>
       <c r="M6">
-        <v>17.89231435391355</v>
+        <v>12.1607631451614</v>
       </c>
       <c r="N6">
-        <v>0.218601174153962</v>
+        <v>0.1485753631172399</v>
       </c>
       <c r="O6">
-        <v>3.45479632514624</v>
+        <v>2.348100921650083</v>
       </c>
       <c r="P6">
-        <v>171.2863107219613</v>
+        <v>116.4171505986695</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2.476394996945244</v>
+        <v>1.683116695584261</v>
       </c>
       <c r="C7">
-        <v>71.84326169476883</v>
+        <v>48.82928344341516</v>
       </c>
       <c r="D7">
-        <v>0.02104501380138176</v>
+        <v>0.01430353967424447</v>
       </c>
       <c r="E7">
-        <v>7.612009491229764</v>
+        <v>5.173609330271939</v>
       </c>
       <c r="F7">
-        <v>4.61023428684569</v>
+        <v>3.133410586080483</v>
       </c>
       <c r="G7">
-        <v>34.6440390003117</v>
+        <v>23.54630845072175</v>
       </c>
       <c r="H7">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I7">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J7">
-        <v>4.894402413048931</v>
+        <v>3.326549450500563</v>
       </c>
       <c r="K7">
-        <v>24.65001251534309</v>
+        <v>16.75372776237775</v>
       </c>
       <c r="L7">
-        <v>2.78298541445328</v>
+        <v>1.891495185708197</v>
       </c>
       <c r="M7">
-        <v>16.95061359844441</v>
+        <v>11.52072297962659</v>
       </c>
       <c r="N7">
-        <v>0.1894543509334337</v>
+        <v>0.1287653147016079</v>
       </c>
       <c r="O7">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="P7">
-        <v>181.6539059969267</v>
+        <v>123.4636325701967</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2.531104178164306</v>
+        <v>1.720300560204054</v>
       </c>
       <c r="C8">
-        <v>73.4304422650236</v>
+        <v>49.90803304515401</v>
       </c>
       <c r="D8">
-        <v>0.01926153805550195</v>
+        <v>0.01309137529507121</v>
       </c>
       <c r="E8">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="F8">
-        <v>4.49778954814214</v>
+        <v>3.056985937639496</v>
       </c>
       <c r="G8">
-        <v>33.79906243932849</v>
+        <v>22.97200824460658</v>
       </c>
       <c r="H8">
-        <v>0.3040221067239071</v>
+        <v>0.2066329015705979</v>
       </c>
       <c r="I8">
-        <v>8.568529455136309</v>
+        <v>5.823721579285804</v>
       </c>
       <c r="J8">
-        <v>4.568108918845668</v>
+        <v>3.104779487133858</v>
       </c>
       <c r="K8">
-        <v>23.00667834765355</v>
+        <v>15.63681257821924</v>
       </c>
       <c r="L8">
-        <v>2.39645966244588</v>
+        <v>1.628787521026504</v>
       </c>
       <c r="M8">
-        <v>14.59636170977158</v>
+        <v>9.920622565789561</v>
       </c>
       <c r="N8">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O8">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P8">
-        <v>176.3989962767566</v>
+        <v>119.8920592570877</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2.830395581303887</v>
+        <v>1.923718172535876</v>
       </c>
       <c r="C9">
-        <v>82.11325361994696</v>
+        <v>55.80942792525485</v>
       </c>
       <c r="D9">
-        <v>0.0178347574587981</v>
+        <v>0.0121216437917326</v>
       </c>
       <c r="E9">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="F9">
-        <v>3.935565854624369</v>
+        <v>2.674862695434558</v>
       </c>
       <c r="G9">
-        <v>29.57417963441242</v>
+        <v>20.10050721403076</v>
       </c>
       <c r="H9">
-        <v>0.4864353707582514</v>
+        <v>0.3306126425129567</v>
       </c>
       <c r="I9">
-        <v>13.7096471282181</v>
+        <v>9.317954526857289</v>
       </c>
       <c r="J9">
-        <v>4.0553619993834</v>
+        <v>2.756283830414751</v>
       </c>
       <c r="K9">
-        <v>20.42429608414142</v>
+        <v>13.88166014597014</v>
       </c>
       <c r="L9">
-        <v>2.551069963248839</v>
+        <v>1.733870586899182</v>
       </c>
       <c r="M9">
-        <v>15.5380624652407</v>
+        <v>10.56066273132437</v>
       </c>
       <c r="N9">
-        <v>0.1603075277129054</v>
+        <v>0.1089552662859759</v>
       </c>
       <c r="O9">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="P9">
-        <v>184.3807827925995</v>
+        <v>125.3169927438603</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3.073368709659141</v>
+        <v>2.088858277170849</v>
       </c>
       <c r="C10">
-        <v>89.1622026231374</v>
+        <v>60.60034527415399</v>
       </c>
       <c r="D10">
-        <v>0.02175840409973369</v>
+        <v>0.01478840542591378</v>
       </c>
       <c r="E10">
-        <v>7.870043711271451</v>
+        <v>5.348985917738784</v>
       </c>
       <c r="F10">
-        <v>3.598231638513709</v>
+        <v>2.445588750111597</v>
       </c>
       <c r="G10">
-        <v>27.03924995146279</v>
+        <v>18.37760659568527</v>
       </c>
       <c r="H10">
-        <v>0.9120663201717211</v>
+        <v>0.6198987047117938</v>
       </c>
       <c r="I10">
-        <v>25.70558836540892</v>
+        <v>17.47116473785742</v>
       </c>
       <c r="J10">
-        <v>3.892215252281768</v>
+        <v>2.6453988487314</v>
       </c>
       <c r="K10">
-        <v>19.60262900029664</v>
+        <v>13.32320255389088</v>
       </c>
       <c r="L10">
-        <v>1.932628760036998</v>
+        <v>1.31353832340847</v>
       </c>
       <c r="M10">
-        <v>11.77125944336418</v>
+        <v>8.00050206918513</v>
       </c>
       <c r="N10">
-        <v>0.08744046966158478</v>
+        <v>0.05943014524689595</v>
       </c>
       <c r="O10">
-        <v>1.381918530058495</v>
+        <v>0.9392403686600335</v>
       </c>
       <c r="P10">
-        <v>196.0506011794245</v>
+        <v>133.2485489719784</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3.266459937491127</v>
+        <v>2.220095446417187</v>
       </c>
       <c r="C11">
-        <v>94.76401640050727</v>
+        <v>64.40769680970293</v>
       </c>
       <c r="D11">
-        <v>0.01355441566868656</v>
+        <v>0.009212449281716778</v>
       </c>
       <c r="E11">
-        <v>4.902650180792051</v>
+        <v>3.332155161870062</v>
       </c>
       <c r="F11">
-        <v>3.09223031434772</v>
+        <v>2.101677832127153</v>
       </c>
       <c r="G11">
-        <v>23.23685542703833</v>
+        <v>15.79325566816703</v>
       </c>
       <c r="H11">
-        <v>0.9728707415165028</v>
+        <v>0.6612252850259135</v>
       </c>
       <c r="I11">
-        <v>27.41929425643619</v>
+        <v>18.63590905371458</v>
       </c>
       <c r="J11">
-        <v>2.167521068635955</v>
+        <v>1.473186185221678</v>
       </c>
       <c r="K11">
-        <v>10.91643411393765</v>
+        <v>7.419508009053006</v>
       </c>
       <c r="L11">
-        <v>0.3865257520073999</v>
+        <v>0.2627076646816942</v>
       </c>
       <c r="M11">
-        <v>2.354251888672835</v>
+        <v>1.600100413837026</v>
       </c>
       <c r="N11">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O11">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P11">
-        <v>175.2069166633918</v>
+        <v>119.0818455786581</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2.37984938302925</v>
+        <v>1.617498110961092</v>
       </c>
       <c r="C12">
-        <v>69.04235480608391</v>
+        <v>46.92560767564069</v>
       </c>
       <c r="D12">
-        <v>0.01141424477363078</v>
+        <v>0.007757852026708865</v>
       </c>
       <c r="E12">
-        <v>4.12854752066699</v>
+        <v>2.806025399469526</v>
       </c>
       <c r="F12">
-        <v>3.148452683699494</v>
+        <v>2.139890156347648</v>
       </c>
       <c r="G12">
-        <v>23.65934370752994</v>
+        <v>16.08040577122461</v>
       </c>
       <c r="H12">
-        <v>0.5928431081116189</v>
+        <v>0.4029341580626659</v>
       </c>
       <c r="I12">
-        <v>16.70863243751581</v>
+        <v>11.35625707960732</v>
       </c>
       <c r="J12">
-        <v>1.934454287062196</v>
+        <v>1.314779068531175</v>
       </c>
       <c r="K12">
-        <v>9.742623994159409</v>
+        <v>6.621711448939779</v>
       </c>
       <c r="L12">
-        <v>0.8503566544162796</v>
+        <v>0.5779568622997272</v>
       </c>
       <c r="M12">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="N12">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O12">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P12">
-        <v>137.8680133153688</v>
+        <v>93.70393466485469</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>2.075730699193869</v>
+        <v>1.410799569398112</v>
       </c>
       <c r="C13">
-        <v>60.21949810672629</v>
+        <v>40.92902900715108</v>
       </c>
       <c r="D13">
-        <v>0.007847293281871164</v>
+        <v>0.005333523268362346</v>
       </c>
       <c r="E13">
-        <v>2.838376420458556</v>
+        <v>1.9291424621353</v>
       </c>
       <c r="F13">
-        <v>1.85533818860863</v>
+        <v>1.261006699276292</v>
       </c>
       <c r="G13">
-        <v>13.942113256223</v>
+        <v>9.475953400900215</v>
       </c>
       <c r="H13">
-        <v>0.7904574774821586</v>
+        <v>0.5372455440835547</v>
       </c>
       <c r="I13">
-        <v>22.2781765833544</v>
+        <v>15.1416761061431</v>
       </c>
       <c r="J13">
-        <v>1.211947264183544</v>
+        <v>0.8237170067906155</v>
       </c>
       <c r="K13">
-        <v>6.103812622846859</v>
+        <v>4.148542112588776</v>
       </c>
       <c r="L13">
-        <v>1.39149270722664</v>
+        <v>0.9457475928540987</v>
       </c>
       <c r="M13">
-        <v>8.475306799222206</v>
+        <v>5.760361489813294</v>
       </c>
       <c r="N13">
-        <v>0.07286705805132064</v>
+        <v>0.04952512103907997</v>
       </c>
       <c r="O13">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="P13">
-        <v>122.4145632519081</v>
+        <v>83.20077994265858</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.64449362370243</v>
+        <v>1.117703224747962</v>
       </c>
       <c r="C14">
-        <v>47.70878067060021</v>
+        <v>32.42594391109181</v>
       </c>
       <c r="D14">
-        <v>0.006777207834343279</v>
+        <v>0.004606224640858389</v>
       </c>
       <c r="E14">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="F14">
-        <v>1.911560557960408</v>
+        <v>1.299219023496786</v>
       </c>
       <c r="G14">
-        <v>14.36460153671461</v>
+        <v>9.763103503957799</v>
       </c>
       <c r="H14">
-        <v>0.5016364760944468</v>
+        <v>0.3409442875914866</v>
       </c>
       <c r="I14">
-        <v>14.13807360097491</v>
+        <v>9.609140605821581</v>
       </c>
       <c r="J14">
-        <v>0.8157337355081548</v>
+        <v>0.5544249084167604</v>
       </c>
       <c r="K14">
-        <v>4.108335419223847</v>
+        <v>2.792287960396292</v>
       </c>
       <c r="L14">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M14">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="N14">
-        <v>0.07286705805132064</v>
+        <v>0.04952512103907997</v>
       </c>
       <c r="O14">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="P14">
-        <v>96.5499611460141</v>
+        <v>65.62153927920457</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,43 +1130,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1.161765554122459</v>
+        <v>0.7896103016321218</v>
       </c>
       <c r="C15">
-        <v>33.70424622717552</v>
+        <v>22.90756507221946</v>
       </c>
       <c r="D15">
-        <v>0.009630769027750976</v>
+        <v>0.006545687647535606</v>
       </c>
       <c r="E15">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="F15">
-        <v>1.236892125739087</v>
+        <v>0.8406711328508613</v>
       </c>
       <c r="G15">
-        <v>9.294742170815336</v>
+        <v>6.317302267266809</v>
       </c>
       <c r="H15">
-        <v>0.2888210013877117</v>
+        <v>0.1963012564920681</v>
       </c>
       <c r="I15">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="J15">
-        <v>0.6992003447212753</v>
+        <v>0.4752213500715088</v>
       </c>
       <c r="K15">
-        <v>3.521430359334726</v>
+        <v>2.393389680339679</v>
       </c>
       <c r="L15">
-        <v>0.9276618048177596</v>
+        <v>0.6304983952360658</v>
       </c>
       <c r="M15">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="P15">
-        <v>68.11815984289869</v>
+        <v>46.2974655680889</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,43 +1174,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.7144375429783547</v>
+        <v>0.4855775262114432</v>
       </c>
       <c r="C16">
-        <v>20.72671097626859</v>
+        <v>14.08720068153108</v>
       </c>
       <c r="D16">
-        <v>0.007847293281871164</v>
+        <v>0.005333523268362346</v>
       </c>
       <c r="E16">
-        <v>2.838376420458556</v>
+        <v>1.9291424621353</v>
       </c>
       <c r="F16">
-        <v>0.8433355402766504</v>
+        <v>0.5731848633074054</v>
       </c>
       <c r="G16">
-        <v>6.33732420737409</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="H16">
-        <v>0.1520110533619535</v>
+        <v>0.103316450785299</v>
       </c>
       <c r="I16">
-        <v>4.284264727568154</v>
+        <v>2.911860789642902</v>
       </c>
       <c r="J16">
-        <v>0.5360535976196447</v>
+        <v>0.3643363683881568</v>
       </c>
       <c r="K16">
-        <v>2.699763275489957</v>
+        <v>1.834932088260421</v>
       </c>
       <c r="L16">
-        <v>0.8503566544162796</v>
+        <v>0.5779568622997272</v>
       </c>
       <c r="M16">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="P16">
-        <v>45.16983544417434</v>
+        <v>30.70031407213529</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,43 +1218,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.5551372800169647</v>
+        <v>0.377306861583216</v>
       </c>
       <c r="C17">
-        <v>16.10521460993842</v>
+        <v>10.9461356647032</v>
       </c>
       <c r="D17">
-        <v>0.01105754962445482</v>
+        <v>0.007515419150874214</v>
       </c>
       <c r="E17">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="F17">
-        <v>0.2811118467588837</v>
+        <v>0.1910616211024685</v>
       </c>
       <c r="G17">
-        <v>2.11244140245803</v>
+        <v>1.435750515287911</v>
       </c>
       <c r="H17">
-        <v>0.03040221067239071</v>
+        <v>0.0206632901570598</v>
       </c>
       <c r="I17">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="J17">
-        <v>0.3029868160458861</v>
+        <v>0.2059292516976539</v>
       </c>
       <c r="K17">
-        <v>1.525953155711715</v>
+        <v>1.037135528147194</v>
       </c>
       <c r="L17">
-        <v>1.00496695521924</v>
+        <v>0.6830399281724047</v>
       </c>
       <c r="M17">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="P17">
-        <v>32.90671009315513</v>
+        <v>22.36550841964294</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,43 +1262,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.3620460521849771</v>
+        <v>0.24606969233688</v>
       </c>
       <c r="C18">
-        <v>10.50340083256854</v>
+        <v>7.138784129154263</v>
       </c>
       <c r="D18">
-        <v>0.009987464176926936</v>
+        <v>0.006788120523370258</v>
       </c>
       <c r="E18">
-        <v>3.612479080583618</v>
+        <v>2.455272224535836</v>
       </c>
       <c r="F18">
-        <v>0.5060013241659904</v>
+        <v>0.3439109179844433</v>
       </c>
       <c r="G18">
-        <v>3.802394524424455</v>
+        <v>2.58435092751824</v>
       </c>
       <c r="H18">
-        <v>0.06080442134478142</v>
+        <v>0.04132658031411959</v>
       </c>
       <c r="I18">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="J18">
-        <v>0.5593602757770205</v>
+        <v>0.3801770800572071</v>
       </c>
       <c r="K18">
-        <v>2.817144287467781</v>
+        <v>1.914711744271744</v>
       </c>
       <c r="L18">
-        <v>0.6184412032118403</v>
+        <v>0.4203322634907105</v>
       </c>
       <c r="M18">
-        <v>3.766803021876536</v>
+        <v>2.560160662139241</v>
       </c>
       <c r="P18">
-        <v>28.33256837880973</v>
+        <v>19.25662865818322</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.2156185377457197</v>
+        <v>0.1465481723250752</v>
       </c>
       <c r="C19">
-        <v>6.255358718063042</v>
+        <v>4.251542548029649</v>
       </c>
       <c r="D19">
-        <v>0.00891737872939905</v>
+        <v>0.006060821895866301</v>
       </c>
       <c r="E19">
-        <v>3.225427750521087</v>
+        <v>2.192207343335567</v>
       </c>
       <c r="F19">
-        <v>0.6746684322213202</v>
+        <v>0.4585478906459244</v>
       </c>
       <c r="G19">
-        <v>5.069859365899274</v>
+        <v>3.445801236690987</v>
       </c>
       <c r="H19">
-        <v>0.01520110533619536</v>
+        <v>0.0103316450785299</v>
       </c>
       <c r="I19">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="J19">
-        <v>0.2563734597311345</v>
+        <v>0.1742478283595533</v>
       </c>
       <c r="K19">
-        <v>1.291191131756066</v>
+        <v>0.8775762161245491</v>
       </c>
       <c r="L19">
-        <v>1.314187556825159</v>
+        <v>0.89320605991776</v>
       </c>
       <c r="M19">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="N19">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O19">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P19">
-        <v>27.00457949769286</v>
+        <v>18.35404233406479</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.2606731575731835</v>
+        <v>0.1771701784825537</v>
       </c>
       <c r="C20">
-        <v>7.562448599449348</v>
+        <v>5.139924572991067</v>
       </c>
       <c r="D20">
-        <v>0.006777207834343279</v>
+        <v>0.004606224640858389</v>
       </c>
       <c r="E20">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="F20">
-        <v>0.8433355402766504</v>
+        <v>0.5731848633074054</v>
       </c>
       <c r="G20">
-        <v>6.33732420737409</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="H20">
-        <v>0.04560331600858608</v>
+        <v>0.03099493523558969</v>
       </c>
       <c r="I20">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="J20">
-        <v>0.5127469194622689</v>
+        <v>0.3484956567191065</v>
       </c>
       <c r="K20">
-        <v>2.582382263512133</v>
+        <v>1.755152432249098</v>
       </c>
       <c r="L20">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M20">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="N20">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O20">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P20">
-        <v>29.80696628068174</v>
+        <v>20.25872393282088</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,43 +1406,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.447328011144105</v>
+        <v>0.3040327754206785</v>
       </c>
       <c r="C21">
-        <v>12.9775352509069</v>
+        <v>8.820364390688374</v>
       </c>
       <c r="D21">
-        <v>0.00321025634258366</v>
+        <v>0.002181895882511868</v>
       </c>
       <c r="E21">
-        <v>1.161153990187591</v>
+        <v>0.7891946436008044</v>
       </c>
       <c r="F21">
-        <v>1.18066975638731</v>
+        <v>0.8024588086303674</v>
       </c>
       <c r="G21">
-        <v>8.872253890323726</v>
+        <v>6.030152164209228</v>
       </c>
       <c r="H21">
-        <v>0.1064077373533675</v>
+        <v>0.07232151554970928</v>
       </c>
       <c r="I21">
-        <v>2.998985309297708</v>
+        <v>2.038302552750032</v>
       </c>
       <c r="J21">
-        <v>0.9089604481376584</v>
+        <v>0.6177877550929614</v>
       </c>
       <c r="K21">
-        <v>4.577859467135145</v>
+        <v>3.111406584441583</v>
       </c>
       <c r="L21">
-        <v>1.77801845923404</v>
+        <v>1.208455257535793</v>
       </c>
       <c r="M21">
-        <v>10.82955868789504</v>
+        <v>7.360461903650317</v>
       </c>
       <c r="P21">
-        <v>45.84194126434517</v>
+        <v>31.15712024745236</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.8994833029840097</v>
+        <v>0.6113464800725158</v>
       </c>
       <c r="C22">
-        <v>26.09511584624807</v>
+        <v>17.73591256976547</v>
       </c>
       <c r="D22">
-        <v>0.002853561193407696</v>
+        <v>0.001939463006677216</v>
       </c>
       <c r="E22">
-        <v>1.032136880166747</v>
+        <v>0.7015063498673816</v>
       </c>
       <c r="F22">
-        <v>1.742893449905077</v>
+        <v>1.184582050835304</v>
       </c>
       <c r="G22">
-        <v>13.09713669523979</v>
+        <v>8.90165319478505</v>
       </c>
       <c r="H22">
-        <v>0.4408320547496653</v>
+        <v>0.299617707277367</v>
       </c>
       <c r="I22">
-        <v>12.42436770994765</v>
+        <v>8.444396289964418</v>
       </c>
       <c r="J22">
-        <v>2.563734597311344</v>
+        <v>1.742478283595533</v>
       </c>
       <c r="K22">
-        <v>12.91191131756067</v>
+        <v>8.775762161245488</v>
       </c>
       <c r="L22">
-        <v>3.246816316862161</v>
+        <v>2.206744383326231</v>
       </c>
       <c r="M22">
-        <v>19.7757158648518</v>
+        <v>13.44084347623101</v>
       </c>
       <c r="N22">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O22">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P22">
-        <v>94.72278393026043</v>
+        <v>64.37967258127476</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.708857366313092</v>
+        <v>1.161448947830074</v>
       </c>
       <c r="C23">
-        <v>49.57605192972351</v>
+        <v>33.69506108960811</v>
       </c>
       <c r="D23">
-        <v>0.00642051268516732</v>
+        <v>0.004363791765023737</v>
       </c>
       <c r="E23">
-        <v>2.322307980375183</v>
+        <v>1.578389287201609</v>
       </c>
       <c r="F23">
-        <v>2.979785575644165</v>
+        <v>2.025253183686166</v>
       </c>
       <c r="G23">
-        <v>22.39187886605512</v>
+        <v>15.21895546205186</v>
       </c>
       <c r="H23">
-        <v>1.27689284824041</v>
+        <v>0.8678581865965113</v>
       </c>
       <c r="I23">
-        <v>35.9878237115725</v>
+        <v>24.45963063300038</v>
       </c>
       <c r="J23">
-        <v>3.775681861494887</v>
+        <v>2.566195290386148</v>
       </c>
       <c r="K23">
-        <v>19.01572394040753</v>
+        <v>12.92430427383427</v>
       </c>
       <c r="L23">
-        <v>4.561003873687317</v>
+        <v>3.09995044324399</v>
       </c>
       <c r="M23">
-        <v>27.78017228633945</v>
+        <v>18.88118488327691</v>
       </c>
       <c r="N23">
-        <v>0.1748809393231696</v>
+        <v>0.1188602904937919</v>
       </c>
       <c r="O23">
-        <v>2.763837060116991</v>
+        <v>1.878480737320067</v>
       </c>
       <c r="P23">
-        <v>174.3213187519785</v>
+        <v>118.4799365002949</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2.458694967727312</v>
+        <v>1.671086621736677</v>
       </c>
       <c r="C24">
-        <v>71.3297620985099</v>
+        <v>48.48027621932317</v>
       </c>
       <c r="D24">
-        <v>0.009630769027750976</v>
+        <v>0.006545687647535606</v>
       </c>
       <c r="E24">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="F24">
-        <v>3.148452683699494</v>
+        <v>2.139890156347648</v>
       </c>
       <c r="G24">
-        <v>23.65934370752994</v>
+        <v>16.08040577122461</v>
       </c>
       <c r="H24">
-        <v>1.383300585593777</v>
+        <v>0.9401797021462207</v>
       </c>
       <c r="I24">
-        <v>38.9868090208702</v>
+        <v>26.49793318575041</v>
       </c>
       <c r="J24">
-        <v>3.98544196491127</v>
+        <v>2.7087616954076</v>
       </c>
       <c r="K24">
-        <v>20.07215304820794</v>
+        <v>13.64232117793617</v>
       </c>
       <c r="L24">
-        <v>5.797886280111</v>
+        <v>3.940614970225413</v>
       </c>
       <c r="M24">
-        <v>35.31377833009252</v>
+        <v>24.00150620755538</v>
       </c>
       <c r="N24">
-        <v>0.2623214089847543</v>
+        <v>0.1782904357406878</v>
       </c>
       <c r="O24">
-        <v>4.145755590175487</v>
+        <v>2.817721105980099</v>
       </c>
       <c r="P24">
-        <v>214.0367924260042</v>
+        <v>145.473116867824</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2.672704411907766</v>
+        <v>1.8165411509847</v>
       </c>
       <c r="C25">
-        <v>77.53843903509487</v>
+        <v>52.7000908378899</v>
       </c>
       <c r="D25">
-        <v>0.01640797686209425</v>
+        <v>0.01115191228839399</v>
       </c>
       <c r="E25">
-        <v>5.9347870609588</v>
+        <v>4.033661511737444</v>
       </c>
       <c r="F25">
-        <v>3.935565854624369</v>
+        <v>2.674862695434558</v>
       </c>
       <c r="G25">
-        <v>29.57417963441242</v>
+        <v>20.10050721403076</v>
       </c>
       <c r="H25">
-        <v>0.6536475294564005</v>
+        <v>0.4442607383767854</v>
       </c>
       <c r="I25">
-        <v>18.42233832854306</v>
+        <v>12.52100139546448</v>
       </c>
       <c r="J25">
-        <v>4.0553619993834</v>
+        <v>2.756283830414751</v>
       </c>
       <c r="K25">
-        <v>20.42429608414142</v>
+        <v>13.88166014597014</v>
       </c>
       <c r="L25">
-        <v>3.942562670475479</v>
+        <v>2.67961817975328</v>
       </c>
       <c r="M25">
-        <v>24.01336926446291</v>
+        <v>16.32102422113767</v>
       </c>
       <c r="N25">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O25">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P25">
-        <v>193.1428051832831</v>
+        <v>131.2722245186921</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2.505358681120043</v>
+        <v>1.70280227097121</v>
       </c>
       <c r="C26">
-        <v>72.68353376137429</v>
+        <v>49.40038617374748</v>
       </c>
       <c r="D26">
-        <v>0.01747806230962214</v>
+        <v>0.01187921091589795</v>
       </c>
       <c r="E26">
-        <v>6.321838391021331</v>
+        <v>4.296726392937712</v>
       </c>
       <c r="F26">
-        <v>3.823121115920816</v>
+        <v>2.598438046993572</v>
       </c>
       <c r="G26">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="H26">
-        <v>0.5320386867668376</v>
+        <v>0.3616075777485465</v>
       </c>
       <c r="I26">
-        <v>14.99492654648854</v>
+        <v>10.19151276375016</v>
       </c>
       <c r="J26">
-        <v>4.288428780957157</v>
+        <v>2.914690947105254</v>
       </c>
       <c r="K26">
-        <v>21.59810620391966</v>
+        <v>14.67945670608337</v>
       </c>
       <c r="L26">
-        <v>4.329088422482879</v>
+        <v>2.942325844434974</v>
       </c>
       <c r="M26">
-        <v>26.36762115313575</v>
+        <v>17.92112463497468</v>
       </c>
       <c r="N26">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O26">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P26">
-        <v>188.1498882118862</v>
+        <v>127.8787182627877</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.360540260246051</v>
+        <v>1.604374394036458</v>
       </c>
       <c r="C27">
-        <v>68.48217342834684</v>
+        <v>46.54487252208579</v>
       </c>
       <c r="D27">
-        <v>0.02247179439808561</v>
+        <v>0.01527327117758308</v>
       </c>
       <c r="E27">
-        <v>8.128077931313136</v>
+        <v>5.52436250520563</v>
       </c>
       <c r="F27">
-        <v>4.666456656197466</v>
+        <v>3.171622910300977</v>
       </c>
       <c r="G27">
-        <v>35.06652728080331</v>
+        <v>23.83345855377934</v>
       </c>
       <c r="H27">
-        <v>0.212815474706735</v>
+        <v>0.1446430310994186</v>
       </c>
       <c r="I27">
-        <v>5.997970618595416</v>
+        <v>4.076605105500064</v>
       </c>
       <c r="J27">
-        <v>4.707948987789922</v>
+        <v>3.19982375714816</v>
       </c>
       <c r="K27">
-        <v>23.7109644195205</v>
+        <v>16.11549051428717</v>
       </c>
       <c r="L27">
-        <v>3.787952369672521</v>
+        <v>2.574535113880603</v>
       </c>
       <c r="M27">
-        <v>23.07166850899378</v>
+        <v>15.68098405560285</v>
       </c>
       <c r="N27">
-        <v>0.3060416438155468</v>
+        <v>0.2080055083641358</v>
       </c>
       <c r="O27">
-        <v>4.836714855204734</v>
+        <v>3.287341290310116</v>
       </c>
       <c r="P27">
-        <v>185.3583242296041</v>
+        <v>125.9813925327783</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.392722131551382</v>
+        <v>1.626247255577513</v>
       </c>
       <c r="C28">
-        <v>69.41580905790849</v>
+        <v>47.17943111134397</v>
       </c>
       <c r="D28">
-        <v>0.0206883186522058</v>
+        <v>0.01406110679840982</v>
       </c>
       <c r="E28">
-        <v>7.482992381208921</v>
+        <v>5.085921036538516</v>
       </c>
       <c r="F28">
-        <v>3.654454007865486</v>
+        <v>2.483801074332091</v>
       </c>
       <c r="G28">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="H28">
-        <v>0.212815474706735</v>
+        <v>0.1446430310994186</v>
       </c>
       <c r="I28">
-        <v>5.997970618595416</v>
+        <v>4.076605105500064</v>
       </c>
       <c r="J28">
-        <v>4.21850874648503</v>
+        <v>2.867168812098103</v>
       </c>
       <c r="K28">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="L28">
-        <v>4.019867820876961</v>
+        <v>2.732159712689619</v>
       </c>
       <c r="M28">
-        <v>24.48421964219748</v>
+        <v>16.64104430390507</v>
       </c>
       <c r="N28">
-        <v>0.1894543509334337</v>
+        <v>0.1287653147016079</v>
       </c>
       <c r="O28">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="P28">
-        <v>173.7913607660489</v>
+        <v>118.11974310014</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2.497313213293708</v>
+        <v>1.697334055585947</v>
       </c>
       <c r="C29">
-        <v>72.45012485398388</v>
+        <v>49.24174652643294</v>
       </c>
       <c r="D29">
-        <v>0.02211509924890965</v>
+        <v>0.01503083830174843</v>
       </c>
       <c r="E29">
-        <v>7.999060821292296</v>
+        <v>5.436674211472208</v>
       </c>
       <c r="F29">
-        <v>3.09223031434772</v>
+        <v>2.101677832127153</v>
       </c>
       <c r="G29">
-        <v>23.23685542703833</v>
+        <v>15.79325566816703</v>
       </c>
       <c r="H29">
-        <v>0.2280165800429303</v>
+        <v>0.1549746761779484</v>
       </c>
       <c r="I29">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="J29">
-        <v>4.21850874648503</v>
+        <v>2.867168812098103</v>
       </c>
       <c r="K29">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="L29">
-        <v>3.246816316862161</v>
+        <v>2.206744383326231</v>
       </c>
       <c r="M29">
-        <v>19.7757158648518</v>
+        <v>13.44084347623101</v>
       </c>
       <c r="N29">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O29">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P29">
-        <v>166.3982628297453</v>
+        <v>113.0949200876433</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2.592249733644436</v>
+        <v>1.761858997132062</v>
       </c>
       <c r="C30">
-        <v>75.20434996119073</v>
+        <v>51.1136943647445</v>
       </c>
       <c r="D30">
-        <v>0.01926153805550195</v>
+        <v>0.01309137529507121</v>
       </c>
       <c r="E30">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="F30">
-        <v>2.586228990181727</v>
+        <v>1.75776691414271</v>
       </c>
       <c r="G30">
-        <v>19.43446090261388</v>
+        <v>13.20890474064879</v>
       </c>
       <c r="H30">
-        <v>0.258418790715321</v>
+        <v>0.1756379663350082</v>
       </c>
       <c r="I30">
-        <v>7.283250036865859</v>
+        <v>4.950163342392934</v>
       </c>
       <c r="J30">
-        <v>5.244002585409567</v>
+        <v>3.564160125536317</v>
       </c>
       <c r="K30">
-        <v>26.41072769501044</v>
+        <v>17.95042260254759</v>
       </c>
       <c r="L30">
-        <v>3.633342068869561</v>
+        <v>2.469452048007924</v>
       </c>
       <c r="M30">
-        <v>22.12996775352465</v>
+        <v>15.04094389006804</v>
       </c>
       <c r="N30">
-        <v>0.1748809393231696</v>
+        <v>0.1188602904937919</v>
       </c>
       <c r="O30">
-        <v>2.763837060116991</v>
+        <v>1.878480737320067</v>
       </c>
       <c r="P30">
-        <v>174.7019019966474</v>
+        <v>118.7386052562697</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2.329967482505986</v>
+        <v>1.583595175572454</v>
       </c>
       <c r="C31">
-        <v>67.59521958026333</v>
+        <v>45.94204186229051</v>
       </c>
       <c r="D31">
-        <v>0.01926153805550195</v>
+        <v>0.01309137529507121</v>
       </c>
       <c r="E31">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="F31">
-        <v>3.429564530458379</v>
+        <v>2.330951777450116</v>
       </c>
       <c r="G31">
-        <v>25.77178510998798</v>
+        <v>17.51615628651252</v>
       </c>
       <c r="H31">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I31">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J31">
-        <v>4.101975355698151</v>
+        <v>2.787965253752852</v>
       </c>
       <c r="K31">
-        <v>20.65905810809706</v>
+        <v>14.04121945799278</v>
       </c>
       <c r="L31">
-        <v>2.551069963248839</v>
+        <v>1.733870586899182</v>
       </c>
       <c r="M31">
-        <v>15.5380624652407</v>
+        <v>10.56066273132437</v>
       </c>
       <c r="N31">
-        <v>0.08744046966158478</v>
+        <v>0.05943014524689595</v>
       </c>
       <c r="O31">
-        <v>1.381918530058495</v>
+        <v>0.9392403686600335</v>
       </c>
       <c r="P31">
-        <v>158.4175434800758</v>
+        <v>107.6707119153724</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2.59546792077497</v>
+        <v>1.764046283286168</v>
       </c>
       <c r="C32">
-        <v>75.29771352414687</v>
+        <v>51.17715022367032</v>
       </c>
       <c r="D32">
-        <v>0.01712136716044618</v>
+        <v>0.0116367780400633</v>
       </c>
       <c r="E32">
-        <v>6.192821281000486</v>
+        <v>4.209038099204289</v>
       </c>
       <c r="F32">
-        <v>5.172457980363454</v>
+        <v>3.515533828285421</v>
       </c>
       <c r="G32">
-        <v>38.86892180522776</v>
+        <v>26.41780948129757</v>
       </c>
       <c r="H32">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I32">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J32">
-        <v>4.707948987789922</v>
+        <v>3.19982375714816</v>
       </c>
       <c r="K32">
-        <v>23.7109644195205</v>
+        <v>16.11549051428717</v>
       </c>
       <c r="L32">
-        <v>2.39645966244588</v>
+        <v>1.628787521026504</v>
       </c>
       <c r="M32">
-        <v>14.59636170977158</v>
+        <v>9.920622565789561</v>
       </c>
       <c r="N32">
-        <v>0.2040277625436978</v>
+        <v>0.1386703389094239</v>
       </c>
       <c r="O32">
-        <v>3.22447657013649</v>
+        <v>2.191560860206744</v>
       </c>
       <c r="P32">
-        <v>184.9700393965563</v>
+        <v>125.7174892839222</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2.608340669297101</v>
+        <v>1.772795427902589</v>
       </c>
       <c r="C33">
-        <v>75.67116777597153</v>
+        <v>51.43097365937358</v>
       </c>
       <c r="D33">
-        <v>0.0178347574587981</v>
+        <v>0.0121216437917326</v>
       </c>
       <c r="E33">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="F33">
-        <v>4.385344809438582</v>
+        <v>2.980561289198508</v>
       </c>
       <c r="G33">
-        <v>32.95408587834527</v>
+        <v>22.39770803849141</v>
       </c>
       <c r="H33">
-        <v>0.3952287387410793</v>
+        <v>0.2686227720417774</v>
       </c>
       <c r="I33">
-        <v>11.1390882916772</v>
+        <v>7.570838053071549</v>
       </c>
       <c r="J33">
-        <v>4.358348815429284</v>
+        <v>2.962213082112406</v>
       </c>
       <c r="K33">
-        <v>21.95024923985313</v>
+        <v>14.91879567411733</v>
       </c>
       <c r="L33">
-        <v>3.014900865657719</v>
+        <v>2.049119784517214</v>
       </c>
       <c r="M33">
-        <v>18.36316473164811</v>
+        <v>12.4807832279288</v>
       </c>
       <c r="N33">
-        <v>0.1894543509334337</v>
+        <v>0.1287653147016079</v>
       </c>
       <c r="O33">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="P33">
-        <v>184.4922212406202</v>
+        <v>125.3927334526831</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3.113596048790804</v>
+        <v>2.116199354097168</v>
       </c>
       <c r="C34">
-        <v>90.32924716008941</v>
+        <v>61.39354351072664</v>
       </c>
       <c r="D34">
-        <v>0.01533789141456637</v>
+        <v>0.01042461366089004</v>
       </c>
       <c r="E34">
-        <v>5.547735730896268</v>
+        <v>3.770596630537177</v>
       </c>
       <c r="F34">
-        <v>3.823121115920816</v>
+        <v>2.598438046993572</v>
       </c>
       <c r="G34">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="H34">
-        <v>0.8056585828183536</v>
+        <v>0.5475771891620845</v>
       </c>
       <c r="I34">
-        <v>22.70660305611122</v>
+        <v>15.43286218510738</v>
       </c>
       <c r="J34">
-        <v>3.635841792550634</v>
+        <v>2.471151020371845</v>
       </c>
       <c r="K34">
-        <v>18.31143786854058</v>
+        <v>12.44562633776633</v>
       </c>
       <c r="L34">
-        <v>1.700713308832559</v>
+        <v>1.155913724599454</v>
       </c>
       <c r="M34">
-        <v>10.35870831016047</v>
+        <v>7.040441820882911</v>
       </c>
       <c r="N34">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O34">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P34">
-        <v>191.526135605755</v>
+        <v>130.1734322983326</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3.25036900183846</v>
+        <v>2.209159015646657</v>
       </c>
       <c r="C35">
-        <v>94.29719858572642</v>
+        <v>64.09041751507382</v>
       </c>
       <c r="D35">
-        <v>0.01177093992280675</v>
+        <v>0.008000284902543519</v>
       </c>
       <c r="E35">
-        <v>4.257564630687835</v>
+        <v>2.89371369320295</v>
       </c>
       <c r="F35">
-        <v>3.148452683699494</v>
+        <v>2.139890156347648</v>
       </c>
       <c r="G35">
-        <v>23.65934370752994</v>
+        <v>16.08040577122461</v>
       </c>
       <c r="H35">
-        <v>0.8968652148355259</v>
+        <v>0.609567059633264</v>
       </c>
       <c r="I35">
-        <v>25.27716189265211</v>
+        <v>17.17997865889312</v>
       </c>
       <c r="J35">
-        <v>2.820108057042479</v>
+        <v>1.916726111955086</v>
       </c>
       <c r="K35">
-        <v>14.20310244931673</v>
+        <v>9.653338377370041</v>
       </c>
       <c r="L35">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M35">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="N35">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O35">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P35">
-        <v>181.4552598901166</v>
+        <v>123.3286199493114</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2.445822219205179</v>
+        <v>1.662337477120257</v>
       </c>
       <c r="C36">
-        <v>70.95630784668526</v>
+        <v>48.22645278361991</v>
       </c>
       <c r="D36">
-        <v>0.009630769027750976</v>
+        <v>0.006545687647535606</v>
       </c>
       <c r="E36">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="F36">
-        <v>3.204675053051272</v>
+        <v>2.17810248056814</v>
       </c>
       <c r="G36">
-        <v>24.08183198802155</v>
+        <v>16.36755587428219</v>
       </c>
       <c r="H36">
-        <v>0.9424685308441119</v>
+        <v>0.6405619948688535</v>
       </c>
       <c r="I36">
-        <v>26.56244131092256</v>
+        <v>18.05353689578599</v>
       </c>
       <c r="J36">
-        <v>1.748000861803189</v>
+        <v>1.188053375178773</v>
       </c>
       <c r="K36">
-        <v>8.803575898336817</v>
+        <v>5.983474200849197</v>
       </c>
       <c r="L36">
-        <v>1.00496695521924</v>
+        <v>0.6830399281724047</v>
       </c>
       <c r="M36">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="N36">
-        <v>0.07286705805132064</v>
+        <v>0.04952512103907997</v>
       </c>
       <c r="O36">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="P36">
-        <v>150.5887041473291</v>
+        <v>102.3497311331277</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2.270431020591123</v>
+        <v>1.543130381721501</v>
       </c>
       <c r="C37">
-        <v>65.8679936655743</v>
+        <v>44.76810847216294</v>
       </c>
       <c r="D37">
-        <v>0.00891737872939905</v>
+        <v>0.006060821895866301</v>
       </c>
       <c r="E37">
-        <v>3.225427750521087</v>
+        <v>2.192207343335567</v>
       </c>
       <c r="F37">
-        <v>1.85533818860863</v>
+        <v>1.261006699276292</v>
       </c>
       <c r="G37">
-        <v>13.942113256223</v>
+        <v>9.475953400900215</v>
       </c>
       <c r="H37">
-        <v>0.9272674255079169</v>
+        <v>0.6302303497903237</v>
       </c>
       <c r="I37">
-        <v>26.13401483816574</v>
+        <v>17.76235081682171</v>
       </c>
       <c r="J37">
-        <v>1.514934080229431</v>
+        <v>1.029646258488269</v>
       </c>
       <c r="K37">
-        <v>7.629765778558575</v>
+        <v>5.185677640735972</v>
       </c>
       <c r="L37">
-        <v>1.314187556825159</v>
+        <v>0.89320605991776</v>
       </c>
       <c r="M37">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="N37">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O37">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P37">
-        <v>133.184633694262</v>
+        <v>90.52080982339463</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.805402980229086</v>
+        <v>1.227067532453242</v>
       </c>
       <c r="C38">
-        <v>52.37695881840842</v>
+        <v>35.59873685738258</v>
       </c>
       <c r="D38">
-        <v>0.00535042723763943</v>
+        <v>0.003636493137519781</v>
       </c>
       <c r="E38">
-        <v>1.935256650312652</v>
+        <v>1.31532440600134</v>
       </c>
       <c r="F38">
-        <v>1.518003972497971</v>
+        <v>1.03173275395333</v>
       </c>
       <c r="G38">
-        <v>11.40718357327336</v>
+        <v>7.75305278255472</v>
       </c>
       <c r="H38">
-        <v>0.6384464241202048</v>
+        <v>0.4339290932982556</v>
       </c>
       <c r="I38">
-        <v>17.99391185578625</v>
+        <v>12.22981531650019</v>
       </c>
       <c r="J38">
-        <v>0.9788804826097858</v>
+        <v>0.6653098901001124</v>
       </c>
       <c r="K38">
-        <v>4.930002503068617</v>
+        <v>3.350745552475551</v>
       </c>
       <c r="L38">
-        <v>1.314187556825159</v>
+        <v>0.89320605991776</v>
       </c>
       <c r="M38">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="N38">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O38">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P38">
-        <v>103.3978279990968</v>
+        <v>70.27578831612279</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1.292102132909052</v>
+        <v>0.8781953908733984</v>
       </c>
       <c r="C39">
-        <v>37.48547052690017</v>
+        <v>25.47752735871498</v>
       </c>
       <c r="D39">
-        <v>0.007490598132695203</v>
+        <v>0.005091090392527693</v>
       </c>
       <c r="E39">
-        <v>2.709359310437713</v>
+        <v>1.841454168401877</v>
       </c>
       <c r="F39">
-        <v>0.730890801573097</v>
+        <v>0.4967602148664181</v>
       </c>
       <c r="G39">
-        <v>5.492347646390878</v>
+        <v>3.73295133974857</v>
       </c>
       <c r="H39">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I39">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J39">
-        <v>0.6992003447212753</v>
+        <v>0.4752213500715088</v>
       </c>
       <c r="K39">
-        <v>3.521430359334726</v>
+        <v>2.393389680339679</v>
       </c>
       <c r="L39">
-        <v>0.7730515040147998</v>
+        <v>0.5254153293633883</v>
       </c>
       <c r="M39">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="N39">
-        <v>0.04372023483079239</v>
+        <v>0.02971507262344798</v>
       </c>
       <c r="O39">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="P39">
-        <v>66.1398229072943</v>
+        <v>44.95286104017062</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,43 +2350,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.7611012563710854</v>
+        <v>0.5172931754459744</v>
       </c>
       <c r="C40">
-        <v>22.08048263913297</v>
+        <v>15.0073106359554</v>
       </c>
       <c r="D40">
-        <v>0.008560683580223088</v>
+        <v>0.005818389020031649</v>
       </c>
       <c r="E40">
-        <v>3.096410640500243</v>
+        <v>2.104519049602144</v>
       </c>
       <c r="F40">
-        <v>0.7871131709248735</v>
+        <v>0.5349725390869119</v>
       </c>
       <c r="G40">
-        <v>5.914835926882485</v>
+        <v>4.020101442806152</v>
       </c>
       <c r="H40">
-        <v>0.1216088426895628</v>
+        <v>0.08265316062823919</v>
       </c>
       <c r="I40">
-        <v>3.427411782054524</v>
+        <v>2.329488631714322</v>
       </c>
       <c r="J40">
-        <v>0.5593602757770205</v>
+        <v>0.3801770800572071</v>
       </c>
       <c r="K40">
-        <v>2.817144287467781</v>
+        <v>1.914711744271744</v>
       </c>
       <c r="L40">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M40">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="P40">
-        <v>47.24820689928544</v>
+        <v>32.11290846844054</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2394,43 +2394,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.5873191513222962</v>
+        <v>0.399179723124272</v>
       </c>
       <c r="C41">
-        <v>17.03885023950007</v>
+        <v>11.58069425396135</v>
       </c>
       <c r="D41">
-        <v>0.00891737872939905</v>
+        <v>0.006060821895866301</v>
       </c>
       <c r="E41">
-        <v>3.225427750521087</v>
+        <v>2.192207343335567</v>
       </c>
       <c r="F41">
-        <v>0.2811118467588837</v>
+        <v>0.1910616211024685</v>
       </c>
       <c r="G41">
-        <v>2.11244140245803</v>
+        <v>1.435750515287911</v>
       </c>
       <c r="H41">
-        <v>0.06080442134478142</v>
+        <v>0.04132658031411959</v>
       </c>
       <c r="I41">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="J41">
-        <v>0.4428268849901412</v>
+        <v>0.3009735217119556</v>
       </c>
       <c r="K41">
-        <v>2.23023922757866</v>
+        <v>1.51581346421513</v>
       </c>
       <c r="L41">
-        <v>1.314187556825159</v>
+        <v>0.89320605991776</v>
       </c>
       <c r="M41">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="P41">
-        <v>37.02028817254342</v>
+        <v>25.16135962776945</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,43 +2438,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.3813551749681762</v>
+        <v>0.2591934092615137</v>
       </c>
       <c r="C42">
-        <v>11.06358221030552</v>
+        <v>7.519519282709153</v>
       </c>
       <c r="D42">
-        <v>0.009987464176926936</v>
+        <v>0.006788120523370258</v>
       </c>
       <c r="E42">
-        <v>3.612479080583618</v>
+        <v>2.455272224535836</v>
       </c>
       <c r="F42">
-        <v>0.4497789548142136</v>
+        <v>0.3056985937639496</v>
       </c>
       <c r="G42">
-        <v>3.379906243932849</v>
+        <v>2.297200824460659</v>
       </c>
       <c r="H42">
-        <v>0.07600552668097676</v>
+        <v>0.05165822539264948</v>
       </c>
       <c r="I42">
-        <v>2.142132363784077</v>
+        <v>1.455930394821451</v>
       </c>
       <c r="J42">
-        <v>0.4661335631475171</v>
+        <v>0.3168142333810059</v>
       </c>
       <c r="K42">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="L42">
-        <v>1.159577256022199</v>
+        <v>0.7881229940450823</v>
       </c>
       <c r="M42">
-        <v>7.062755666018505</v>
+        <v>4.800301241511079</v>
       </c>
       <c r="P42">
-        <v>32.15131374399107</v>
+        <v>21.8520926646322</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,49 +2482,49 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.2671095318342498</v>
+        <v>0.1815447507907648</v>
       </c>
       <c r="C43">
-        <v>7.749175725361678</v>
+        <v>5.266836290842699</v>
       </c>
       <c r="D43">
-        <v>0.01105754962445482</v>
+        <v>0.007515419150874214</v>
       </c>
       <c r="E43">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="F43">
-        <v>0.8433355402766504</v>
+        <v>0.5731848633074054</v>
       </c>
       <c r="G43">
-        <v>6.33732420737409</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="H43">
-        <v>0.03040221067239071</v>
+        <v>0.0206632901570598</v>
       </c>
       <c r="I43">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="J43">
-        <v>0.3729068505180137</v>
+        <v>0.2534513867048047</v>
       </c>
       <c r="K43">
-        <v>1.878096191645188</v>
+        <v>1.276474496181162</v>
       </c>
       <c r="L43">
-        <v>0.7730515040147998</v>
+        <v>0.5254153293633883</v>
       </c>
       <c r="M43">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="N43">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O43">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P43">
-        <v>28.07223961144697</v>
+        <v>19.07969254935178</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2532,43 +2532,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.296073216009048</v>
+        <v>0.2012303261777152</v>
       </c>
       <c r="C44">
-        <v>8.589447791967157</v>
+        <v>5.837939021175037</v>
       </c>
       <c r="D44">
-        <v>0.01105754962445482</v>
+        <v>0.007515419150874214</v>
       </c>
       <c r="E44">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="F44">
-        <v>0.5622236935177675</v>
+        <v>0.382123242204937</v>
       </c>
       <c r="G44">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="H44">
-        <v>0.06080442134478142</v>
+        <v>0.04132658031411959</v>
       </c>
       <c r="I44">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="J44">
-        <v>0.5127469194622689</v>
+        <v>0.3484956567191065</v>
       </c>
       <c r="K44">
-        <v>2.582382263512133</v>
+        <v>1.755152432249098</v>
       </c>
       <c r="L44">
-        <v>0.4638309024088798</v>
+        <v>0.3152491976180329</v>
       </c>
       <c r="M44">
-        <v>2.825102266407402</v>
+        <v>1.920120496604431</v>
       </c>
       <c r="P44">
-        <v>25.84178813084337</v>
+        <v>17.56373482438244</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2576,49 +2576,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.399055204186108</v>
+        <v>0.2712234831090945</v>
       </c>
       <c r="C45">
-        <v>11.57708180656444</v>
+        <v>7.868526506801143</v>
       </c>
       <c r="D45">
-        <v>0.003566951491759621</v>
+        <v>0.00242432875834652</v>
       </c>
       <c r="E45">
-        <v>1.290171100208435</v>
+        <v>0.8768829373342271</v>
       </c>
       <c r="F45">
-        <v>1.068225017683758</v>
+        <v>0.7260341601893804</v>
       </c>
       <c r="G45">
-        <v>8.027277329340514</v>
+        <v>5.455851958094063</v>
       </c>
       <c r="H45">
-        <v>0.09120663201717216</v>
+        <v>0.06198987047117938</v>
       </c>
       <c r="I45">
-        <v>2.570558836540892</v>
+        <v>1.747116473785742</v>
       </c>
       <c r="J45">
-        <v>0.8623470918229067</v>
+        <v>0.5861063317548612</v>
       </c>
       <c r="K45">
-        <v>4.343097443179496</v>
+        <v>2.951847272418938</v>
       </c>
       <c r="L45">
-        <v>1.00496695521924</v>
+        <v>0.6830399281724047</v>
       </c>
       <c r="M45">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="N45">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O45">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P45">
-        <v>38.33818194528414</v>
+        <v>26.05708466947026</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2626,49 +2626,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.9268378935935417</v>
+        <v>0.6299384123824129</v>
       </c>
       <c r="C46">
-        <v>26.88870613137546</v>
+        <v>18.2752873706349</v>
       </c>
       <c r="D46">
-        <v>0.002853561193407696</v>
+        <v>0.001939463006677216</v>
       </c>
       <c r="E46">
-        <v>1.032136880166747</v>
+        <v>0.7015063498673816</v>
       </c>
       <c r="F46">
-        <v>1.686671080553301</v>
+        <v>1.146369726614811</v>
       </c>
       <c r="G46">
-        <v>12.67464841474818</v>
+        <v>8.614503091727469</v>
       </c>
       <c r="H46">
-        <v>0.4560331600858605</v>
+        <v>0.3099493523558969</v>
       </c>
       <c r="I46">
-        <v>12.85279418270446</v>
+        <v>8.735582368928709</v>
       </c>
       <c r="J46">
-        <v>2.656961309940848</v>
+        <v>1.805841130271733</v>
       </c>
       <c r="K46">
-        <v>13.38143536547196</v>
+        <v>9.094880785290782</v>
       </c>
       <c r="L46">
-        <v>3.401426617665118</v>
+        <v>2.311827449198909</v>
       </c>
       <c r="M46">
-        <v>20.71741662032094</v>
+        <v>14.08088364176582</v>
       </c>
       <c r="N46">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O46">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P46">
-        <v>97.16770755105986</v>
+        <v>66.04139931334782</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2676,49 +2676,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.761957453966889</v>
+        <v>1.197539169372816</v>
       </c>
       <c r="C47">
-        <v>51.11655071850021</v>
+        <v>34.74208276188407</v>
       </c>
       <c r="D47">
-        <v>0.006063817535991355</v>
+        <v>0.004121358889189086</v>
       </c>
       <c r="E47">
-        <v>2.193290870354339</v>
+        <v>1.490700993468186</v>
       </c>
       <c r="F47">
-        <v>2.867340836940612</v>
+        <v>1.948828535245179</v>
       </c>
       <c r="G47">
-        <v>21.5469023050719</v>
+        <v>14.64465525593669</v>
       </c>
       <c r="H47">
-        <v>1.322496164248996</v>
+        <v>0.8988531218321011</v>
       </c>
       <c r="I47">
-        <v>37.27310312984293</v>
+        <v>25.33318886989325</v>
       </c>
       <c r="J47">
-        <v>3.915521930439143</v>
+        <v>2.66123956040045</v>
       </c>
       <c r="K47">
-        <v>19.72001001227447</v>
+        <v>13.40298220990221</v>
       </c>
       <c r="L47">
-        <v>4.792919324891759</v>
+        <v>3.257575042053007</v>
       </c>
       <c r="M47">
-        <v>29.19272341954316</v>
+        <v>19.84124513157912</v>
       </c>
       <c r="N47">
-        <v>0.1603075277129054</v>
+        <v>0.1089552662859759</v>
       </c>
       <c r="O47">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="P47">
-        <v>178.4027048164305</v>
+        <v>121.253907952619</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2726,49 +2726,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2.534322365294839</v>
+        <v>1.722487846358161</v>
       </c>
       <c r="C48">
-        <v>73.52380582797976</v>
+        <v>49.97148890407984</v>
       </c>
       <c r="D48">
-        <v>0.009274073878575014</v>
+        <v>0.006303254771700953</v>
       </c>
       <c r="E48">
-        <v>3.354444860541931</v>
+        <v>2.27989563706899</v>
       </c>
       <c r="F48">
-        <v>3.036007944995942</v>
+        <v>2.06346550790666</v>
       </c>
       <c r="G48">
-        <v>22.81436714654673</v>
+        <v>15.50610556510944</v>
       </c>
       <c r="H48">
-        <v>1.444105006938558</v>
+        <v>0.9815062824603403</v>
       </c>
       <c r="I48">
-        <v>40.70051491189746</v>
+        <v>27.66267750160758</v>
       </c>
       <c r="J48">
-        <v>4.125282033855526</v>
+        <v>2.803805965421902</v>
       </c>
       <c r="K48">
-        <v>20.77643912007489</v>
+        <v>14.12099911400411</v>
       </c>
       <c r="L48">
-        <v>6.107106881716917</v>
+        <v>4.150781101970765</v>
       </c>
       <c r="M48">
-        <v>37.19717984103079</v>
+        <v>25.28158653862501</v>
       </c>
       <c r="N48">
-        <v>0.2477479973744902</v>
+        <v>0.1683854115328718</v>
       </c>
       <c r="O48">
-        <v>3.915435835165739</v>
+        <v>2.661181044536761</v>
       </c>
       <c r="P48">
-        <v>219.7860338472921</v>
+        <v>149.3806696754541</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2776,49 +2776,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2.756377277301627</v>
+        <v>1.873410590991447</v>
       </c>
       <c r="C49">
-        <v>79.96589167195515</v>
+        <v>54.34994316996112</v>
       </c>
       <c r="D49">
-        <v>0.01605128171291829</v>
+        <v>0.01090947941255934</v>
       </c>
       <c r="E49">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="F49">
-        <v>3.823121115920816</v>
+        <v>2.598438046993572</v>
       </c>
       <c r="G49">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="H49">
-        <v>0.6840497401287911</v>
+        <v>0.4649240285338453</v>
       </c>
       <c r="I49">
-        <v>19.27919127405669</v>
+        <v>13.10337355339306</v>
       </c>
       <c r="J49">
-        <v>4.21850874648503</v>
+        <v>2.867168812098103</v>
       </c>
       <c r="K49">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="L49">
-        <v>4.174478121679919</v>
+        <v>2.837242778562296</v>
       </c>
       <c r="M49">
-        <v>25.42592039766662</v>
+        <v>17.28108446943988</v>
       </c>
       <c r="N49">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O49">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P49">
-        <v>197.838777985601</v>
+        <v>134.463908492913</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.651401046349728</v>
+        <v>2.429731283552513</v>
       </c>
       <c r="C2">
-        <v>47.90917348899084</v>
+        <v>70.48949003190441</v>
       </c>
       <c r="D2">
-        <v>0.01236407666756725</v>
+        <v>0.01819145260797406</v>
       </c>
       <c r="E2">
-        <v>4.472102980404557</v>
+        <v>6.579872611063017</v>
       </c>
       <c r="F2">
-        <v>2.674862695434558</v>
+        <v>3.935565854624369</v>
       </c>
       <c r="G2">
-        <v>20.10050721403076</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="H2">
-        <v>0.3512759326700164</v>
+        <v>0.5168375814306421</v>
       </c>
       <c r="I2">
-        <v>9.900326684785869</v>
+        <v>14.56650007373172</v>
       </c>
       <c r="J2">
-        <v>2.803805965421902</v>
+        <v>4.125282033855526</v>
       </c>
       <c r="K2">
-        <v>14.12099911400411</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="L2">
-        <v>2.784701245625958</v>
+        <v>4.097172971278439</v>
       </c>
       <c r="M2">
-        <v>16.96106438667247</v>
+        <v>24.95507001993205</v>
       </c>
       <c r="N2">
-        <v>0.08914521787034392</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O2">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P2">
-        <v>125.2405906019187</v>
+        <v>184.2683711680481</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.556254098646135</v>
+        <v>2.289740143374322</v>
       </c>
       <c r="C3">
-        <v>45.14884362571786</v>
+        <v>66.42817504331127</v>
       </c>
       <c r="D3">
-        <v>0.01575813692925239</v>
+        <v>0.02318518469643753</v>
       </c>
       <c r="E3">
-        <v>5.699739092672475</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="F3">
-        <v>3.286259882962459</v>
+        <v>4.835123764252796</v>
       </c>
       <c r="G3">
-        <v>24.69490886295207</v>
+        <v>36.33399212227813</v>
       </c>
       <c r="H3">
-        <v>0.1343113860208887</v>
+        <v>0.1976143693705396</v>
       </c>
       <c r="I3">
-        <v>3.785419026535775</v>
+        <v>5.5695441458386</v>
       </c>
       <c r="J3">
-        <v>3.088938775464808</v>
+        <v>4.544802240688292</v>
       </c>
       <c r="K3">
-        <v>15.55703292220791</v>
+        <v>22.88929733567572</v>
       </c>
       <c r="L3">
-        <v>2.469452048007924</v>
+        <v>3.633342068869561</v>
       </c>
       <c r="M3">
-        <v>15.04094389006804</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="N3">
-        <v>0.2278155567797679</v>
+        <v>0.335188467036075</v>
       </c>
       <c r="O3">
-        <v>3.600421413196795</v>
+        <v>5.297354365224233</v>
       </c>
       <c r="P3">
-        <v>124.3060987181622</v>
+        <v>182.8934391554954</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.454545292480224</v>
+        <v>2.140094441804532</v>
       </c>
       <c r="C4">
-        <v>42.19814618566745</v>
+        <v>62.08676936584961</v>
       </c>
       <c r="D4">
-        <v>0.01236407666756725</v>
+        <v>0.01819145260797406</v>
       </c>
       <c r="E4">
-        <v>4.472102980404557</v>
+        <v>6.579872611063017</v>
       </c>
       <c r="F4">
-        <v>1.643129941481229</v>
+        <v>2.417561882126398</v>
       </c>
       <c r="G4">
-        <v>12.34745443147603</v>
+        <v>18.16699606113906</v>
       </c>
       <c r="H4">
-        <v>0.1239797409423588</v>
+        <v>0.1824132640343443</v>
       </c>
       <c r="I4">
-        <v>3.494232947571485</v>
+        <v>5.141117673081784</v>
       </c>
       <c r="J4">
-        <v>2.455310308702796</v>
+        <v>3.612535114393257</v>
       </c>
       <c r="K4">
-        <v>12.36584668175501</v>
+        <v>18.19405685656275</v>
       </c>
       <c r="L4">
-        <v>2.364368982135248</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M4">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N4">
-        <v>0.1981004841563199</v>
+        <v>0.2914682322052826</v>
       </c>
       <c r="O4">
-        <v>3.130801228866778</v>
+        <v>4.606395100194987</v>
       </c>
       <c r="P4">
-        <v>100.6612870068403</v>
+        <v>148.1044708211851</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.687491267892471</v>
+        <v>2.482831371206308</v>
       </c>
       <c r="C5">
-        <v>48.95619516126679</v>
+        <v>72.0299888206811</v>
       </c>
       <c r="D5">
-        <v>0.01333380817090586</v>
+        <v>0.01961823320467792</v>
       </c>
       <c r="E5">
-        <v>4.822856155338249</v>
+        <v>7.09594105114639</v>
       </c>
       <c r="F5">
-        <v>2.216314804788634</v>
+        <v>3.260897422403049</v>
       </c>
       <c r="G5">
-        <v>16.65470597733977</v>
+        <v>24.50432026851315</v>
       </c>
       <c r="H5">
-        <v>0.2169645466491278</v>
+        <v>0.3192232120601024</v>
       </c>
       <c r="I5">
-        <v>6.114907658250096</v>
+        <v>8.996955927893124</v>
       </c>
       <c r="J5">
-        <v>2.962213082112406</v>
+        <v>4.358348815429284</v>
       </c>
       <c r="K5">
-        <v>14.91879567411733</v>
+        <v>21.95024923985313</v>
       </c>
       <c r="L5">
-        <v>1.944036718644537</v>
+        <v>2.86029056485476</v>
       </c>
       <c r="M5">
-        <v>11.84074306239399</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="N5">
-        <v>0.1683854115328718</v>
+        <v>0.2477479973744902</v>
       </c>
       <c r="O5">
-        <v>2.661181044536761</v>
+        <v>3.915435835165739</v>
       </c>
       <c r="P5">
-        <v>115.178124373034</v>
+        <v>169.4633127359643</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.569377815570768</v>
+        <v>2.309049266157521</v>
       </c>
       <c r="C6">
-        <v>45.52957877927273</v>
+        <v>66.98835642104825</v>
       </c>
       <c r="D6">
-        <v>0.01381867392257517</v>
+        <v>0.02033162350302984</v>
       </c>
       <c r="E6">
-        <v>4.998232742805094</v>
+        <v>7.353975271188077</v>
       </c>
       <c r="F6">
-        <v>2.713075019655053</v>
+        <v>3.991788223976146</v>
       </c>
       <c r="G6">
-        <v>20.38765731708834</v>
+        <v>29.99666791490403</v>
       </c>
       <c r="H6">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I6">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J6">
-        <v>3.168142333810059</v>
+        <v>4.661335631475172</v>
       </c>
       <c r="K6">
-        <v>15.95593120226453</v>
+        <v>23.47620239556485</v>
       </c>
       <c r="L6">
-        <v>1.996578251580874</v>
+        <v>2.937595715256239</v>
       </c>
       <c r="M6">
-        <v>12.1607631451614</v>
+        <v>17.89231435391355</v>
       </c>
       <c r="N6">
-        <v>0.1485753631172399</v>
+        <v>0.218601174153962</v>
       </c>
       <c r="O6">
-        <v>2.348100921650083</v>
+        <v>3.45479632514624</v>
       </c>
       <c r="P6">
-        <v>116.4171505986695</v>
+        <v>171.2863107219613</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.683116695584261</v>
+        <v>2.476394996945244</v>
       </c>
       <c r="C7">
-        <v>48.82928344341516</v>
+        <v>71.84326169476883</v>
       </c>
       <c r="D7">
-        <v>0.01430353967424447</v>
+        <v>0.02104501380138176</v>
       </c>
       <c r="E7">
-        <v>5.173609330271939</v>
+        <v>7.612009491229764</v>
       </c>
       <c r="F7">
-        <v>3.133410586080483</v>
+        <v>4.61023428684569</v>
       </c>
       <c r="G7">
-        <v>23.54630845072175</v>
+        <v>34.6440390003117</v>
       </c>
       <c r="H7">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I7">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J7">
-        <v>3.326549450500563</v>
+        <v>4.894402413048931</v>
       </c>
       <c r="K7">
-        <v>16.75372776237775</v>
+        <v>24.65001251534309</v>
       </c>
       <c r="L7">
-        <v>1.891495185708197</v>
+        <v>2.78298541445328</v>
       </c>
       <c r="M7">
-        <v>11.52072297962659</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="N7">
-        <v>0.1287653147016079</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O7">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P7">
-        <v>123.4636325701967</v>
+        <v>181.6539059969267</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.720300560204054</v>
+        <v>2.531104178164306</v>
       </c>
       <c r="C8">
-        <v>49.90803304515401</v>
+        <v>73.4304422650236</v>
       </c>
       <c r="D8">
-        <v>0.01309137529507121</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E8">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F8">
-        <v>3.056985937639496</v>
+        <v>4.49778954814214</v>
       </c>
       <c r="G8">
-        <v>22.97200824460658</v>
+        <v>33.79906243932849</v>
       </c>
       <c r="H8">
-        <v>0.2066329015705979</v>
+        <v>0.3040221067239071</v>
       </c>
       <c r="I8">
-        <v>5.823721579285804</v>
+        <v>8.568529455136309</v>
       </c>
       <c r="J8">
-        <v>3.104779487133858</v>
+        <v>4.568108918845668</v>
       </c>
       <c r="K8">
-        <v>15.63681257821924</v>
+        <v>23.00667834765355</v>
       </c>
       <c r="L8">
-        <v>1.628787521026504</v>
+        <v>2.39645966244588</v>
       </c>
       <c r="M8">
-        <v>9.920622565789561</v>
+        <v>14.59636170977158</v>
       </c>
       <c r="N8">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O8">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P8">
-        <v>119.8920592570877</v>
+        <v>176.3989962767566</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.923718172535876</v>
+        <v>2.830395581303887</v>
       </c>
       <c r="C9">
-        <v>55.80942792525485</v>
+        <v>82.11325361994696</v>
       </c>
       <c r="D9">
-        <v>0.0121216437917326</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E9">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F9">
-        <v>2.674862695434558</v>
+        <v>3.935565854624369</v>
       </c>
       <c r="G9">
-        <v>20.10050721403076</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="H9">
-        <v>0.3306126425129567</v>
+        <v>0.4864353707582514</v>
       </c>
       <c r="I9">
-        <v>9.317954526857289</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="J9">
-        <v>2.756283830414751</v>
+        <v>4.0553619993834</v>
       </c>
       <c r="K9">
-        <v>13.88166014597014</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="L9">
-        <v>1.733870586899182</v>
+        <v>2.551069963248839</v>
       </c>
       <c r="M9">
-        <v>10.56066273132437</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="N9">
-        <v>0.1089552662859759</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O9">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P9">
-        <v>125.3169927438603</v>
+        <v>184.3807827925995</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2.088858277170849</v>
+        <v>3.073368709659141</v>
       </c>
       <c r="C10">
-        <v>60.60034527415399</v>
+        <v>89.1622026231374</v>
       </c>
       <c r="D10">
-        <v>0.01478840542591378</v>
+        <v>0.02175840409973369</v>
       </c>
       <c r="E10">
-        <v>5.348985917738784</v>
+        <v>7.870043711271451</v>
       </c>
       <c r="F10">
-        <v>2.445588750111597</v>
+        <v>3.598231638513709</v>
       </c>
       <c r="G10">
-        <v>18.37760659568527</v>
+        <v>27.03924995146279</v>
       </c>
       <c r="H10">
-        <v>0.6198987047117938</v>
+        <v>0.9120663201717211</v>
       </c>
       <c r="I10">
-        <v>17.47116473785742</v>
+        <v>25.70558836540892</v>
       </c>
       <c r="J10">
-        <v>2.6453988487314</v>
+        <v>3.892215252281768</v>
       </c>
       <c r="K10">
-        <v>13.32320255389088</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="L10">
-        <v>1.31353832340847</v>
+        <v>1.932628760036998</v>
       </c>
       <c r="M10">
-        <v>8.00050206918513</v>
+        <v>11.77125944336418</v>
       </c>
       <c r="N10">
-        <v>0.05943014524689595</v>
+        <v>0.08744046966158478</v>
       </c>
       <c r="O10">
-        <v>0.9392403686600335</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="P10">
-        <v>133.2485489719784</v>
+        <v>196.0506011794245</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.220095446417187</v>
+        <v>3.266459937491127</v>
       </c>
       <c r="C11">
-        <v>64.40769680970293</v>
+        <v>94.76401640050727</v>
       </c>
       <c r="D11">
-        <v>0.009212449281716778</v>
+        <v>0.01355441566868656</v>
       </c>
       <c r="E11">
-        <v>3.332155161870062</v>
+        <v>4.902650180792051</v>
       </c>
       <c r="F11">
-        <v>2.101677832127153</v>
+        <v>3.09223031434772</v>
       </c>
       <c r="G11">
-        <v>15.79325566816703</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="H11">
-        <v>0.6612252850259135</v>
+        <v>0.9728707415165028</v>
       </c>
       <c r="I11">
-        <v>18.63590905371458</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="J11">
-        <v>1.473186185221678</v>
+        <v>2.167521068635955</v>
       </c>
       <c r="K11">
-        <v>7.419508009053006</v>
+        <v>10.91643411393765</v>
       </c>
       <c r="L11">
-        <v>0.2627076646816942</v>
+        <v>0.3865257520073999</v>
       </c>
       <c r="M11">
-        <v>1.600100413837026</v>
+        <v>2.354251888672835</v>
       </c>
       <c r="N11">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O11">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P11">
-        <v>119.0818455786581</v>
+        <v>175.2069166633918</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.617498110961092</v>
+        <v>2.37984938302925</v>
       </c>
       <c r="C12">
-        <v>46.92560767564069</v>
+        <v>69.04235480608391</v>
       </c>
       <c r="D12">
-        <v>0.007757852026708865</v>
+        <v>0.01141424477363078</v>
       </c>
       <c r="E12">
-        <v>2.806025399469526</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="F12">
-        <v>2.139890156347648</v>
+        <v>3.148452683699494</v>
       </c>
       <c r="G12">
-        <v>16.08040577122461</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="H12">
-        <v>0.4029341580626659</v>
+        <v>0.5928431081116189</v>
       </c>
       <c r="I12">
-        <v>11.35625707960732</v>
+        <v>16.70863243751581</v>
       </c>
       <c r="J12">
-        <v>1.314779068531175</v>
+        <v>1.934454287062196</v>
       </c>
       <c r="K12">
-        <v>6.621711448939779</v>
+        <v>9.742623994159409</v>
       </c>
       <c r="L12">
-        <v>0.5779568622997272</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M12">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="N12">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O12">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P12">
-        <v>93.70393466485469</v>
+        <v>137.8680133153688</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.410799569398112</v>
+        <v>2.075730699193869</v>
       </c>
       <c r="C13">
-        <v>40.92902900715108</v>
+        <v>60.21949810672629</v>
       </c>
       <c r="D13">
-        <v>0.005333523268362346</v>
+        <v>0.007847293281871164</v>
       </c>
       <c r="E13">
-        <v>1.9291424621353</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="F13">
-        <v>1.261006699276292</v>
+        <v>1.85533818860863</v>
       </c>
       <c r="G13">
-        <v>9.475953400900215</v>
+        <v>13.942113256223</v>
       </c>
       <c r="H13">
-        <v>0.5372455440835547</v>
+        <v>0.7904574774821586</v>
       </c>
       <c r="I13">
-        <v>15.1416761061431</v>
+        <v>22.2781765833544</v>
       </c>
       <c r="J13">
-        <v>0.8237170067906155</v>
+        <v>1.211947264183544</v>
       </c>
       <c r="K13">
-        <v>4.148542112588776</v>
+        <v>6.103812622846859</v>
       </c>
       <c r="L13">
-        <v>0.9457475928540987</v>
+        <v>1.39149270722664</v>
       </c>
       <c r="M13">
-        <v>5.760361489813294</v>
+        <v>8.475306799222206</v>
       </c>
       <c r="N13">
-        <v>0.04952512103907997</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O13">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P13">
-        <v>83.20077994265858</v>
+        <v>122.4145632519081</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.117703224747962</v>
+        <v>1.64449362370243</v>
       </c>
       <c r="C14">
-        <v>32.42594391109181</v>
+        <v>47.70878067060021</v>
       </c>
       <c r="D14">
-        <v>0.004606224640858389</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E14">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F14">
-        <v>1.299219023496786</v>
+        <v>1.911560557960408</v>
       </c>
       <c r="G14">
-        <v>9.763103503957799</v>
+        <v>14.36460153671461</v>
       </c>
       <c r="H14">
-        <v>0.3409442875914866</v>
+        <v>0.5016364760944468</v>
       </c>
       <c r="I14">
-        <v>9.609140605821581</v>
+        <v>14.13807360097491</v>
       </c>
       <c r="J14">
-        <v>0.5544249084167604</v>
+        <v>0.8157337355081548</v>
       </c>
       <c r="K14">
-        <v>2.792287960396292</v>
+        <v>4.108335419223847</v>
       </c>
       <c r="L14">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M14">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N14">
-        <v>0.04952512103907997</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O14">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P14">
-        <v>65.62153927920457</v>
+        <v>96.5499611460141</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,43 +1130,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.7896103016321218</v>
+        <v>1.161765554122459</v>
       </c>
       <c r="C15">
-        <v>22.90756507221946</v>
+        <v>33.70424622717552</v>
       </c>
       <c r="D15">
-        <v>0.006545687647535606</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E15">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F15">
-        <v>0.8406711328508613</v>
+        <v>1.236892125739087</v>
       </c>
       <c r="G15">
-        <v>6.317302267266809</v>
+        <v>9.294742170815336</v>
       </c>
       <c r="H15">
-        <v>0.1963012564920681</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I15">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J15">
-        <v>0.4752213500715088</v>
+        <v>0.6992003447212753</v>
       </c>
       <c r="K15">
-        <v>2.393389680339679</v>
+        <v>3.521430359334726</v>
       </c>
       <c r="L15">
-        <v>0.6304983952360658</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M15">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="P15">
-        <v>46.2974655680889</v>
+        <v>68.11815984289869</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,43 +1174,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.4855775262114432</v>
+        <v>0.7144375429783547</v>
       </c>
       <c r="C16">
-        <v>14.08720068153108</v>
+        <v>20.72671097626859</v>
       </c>
       <c r="D16">
-        <v>0.005333523268362346</v>
+        <v>0.007847293281871164</v>
       </c>
       <c r="E16">
-        <v>1.9291424621353</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="F16">
-        <v>0.5731848633074054</v>
+        <v>0.8433355402766504</v>
       </c>
       <c r="G16">
-        <v>4.307251545863735</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="H16">
-        <v>0.103316450785299</v>
+        <v>0.1520110533619535</v>
       </c>
       <c r="I16">
-        <v>2.911860789642902</v>
+        <v>4.284264727568154</v>
       </c>
       <c r="J16">
-        <v>0.3643363683881568</v>
+        <v>0.5360535976196447</v>
       </c>
       <c r="K16">
-        <v>1.834932088260421</v>
+        <v>2.699763275489957</v>
       </c>
       <c r="L16">
-        <v>0.5779568622997272</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M16">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="P16">
-        <v>30.70031407213529</v>
+        <v>45.16983544417434</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,43 +1218,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.377306861583216</v>
+        <v>0.5551372800169647</v>
       </c>
       <c r="C17">
-        <v>10.9461356647032</v>
+        <v>16.10521460993842</v>
       </c>
       <c r="D17">
-        <v>0.007515419150874214</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E17">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F17">
-        <v>0.1910616211024685</v>
+        <v>0.2811118467588837</v>
       </c>
       <c r="G17">
-        <v>1.435750515287911</v>
+        <v>2.11244140245803</v>
       </c>
       <c r="H17">
-        <v>0.0206632901570598</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I17">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J17">
-        <v>0.2059292516976539</v>
+        <v>0.3029868160458861</v>
       </c>
       <c r="K17">
-        <v>1.037135528147194</v>
+        <v>1.525953155711715</v>
       </c>
       <c r="L17">
-        <v>0.6830399281724047</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M17">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="P17">
-        <v>22.36550841964294</v>
+        <v>32.90671009315513</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,43 +1262,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.24606969233688</v>
+        <v>0.3620460521849771</v>
       </c>
       <c r="C18">
-        <v>7.138784129154263</v>
+        <v>10.50340083256854</v>
       </c>
       <c r="D18">
-        <v>0.006788120523370258</v>
+        <v>0.009987464176926936</v>
       </c>
       <c r="E18">
-        <v>2.455272224535836</v>
+        <v>3.612479080583618</v>
       </c>
       <c r="F18">
-        <v>0.3439109179844433</v>
+        <v>0.5060013241659904</v>
       </c>
       <c r="G18">
-        <v>2.58435092751824</v>
+        <v>3.802394524424455</v>
       </c>
       <c r="H18">
-        <v>0.04132658031411959</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I18">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J18">
-        <v>0.3801770800572071</v>
+        <v>0.5593602757770205</v>
       </c>
       <c r="K18">
-        <v>1.914711744271744</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="L18">
-        <v>0.4203322634907105</v>
+        <v>0.6184412032118403</v>
       </c>
       <c r="M18">
-        <v>2.560160662139241</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="P18">
-        <v>19.25662865818322</v>
+        <v>28.33256837880973</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1465481723250752</v>
+        <v>0.2156185377457197</v>
       </c>
       <c r="C19">
-        <v>4.251542548029649</v>
+        <v>6.255358718063042</v>
       </c>
       <c r="D19">
-        <v>0.006060821895866301</v>
+        <v>0.00891737872939905</v>
       </c>
       <c r="E19">
-        <v>2.192207343335567</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="F19">
-        <v>0.4585478906459244</v>
+        <v>0.6746684322213202</v>
       </c>
       <c r="G19">
-        <v>3.445801236690987</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="H19">
-        <v>0.0103316450785299</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I19">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J19">
-        <v>0.1742478283595533</v>
+        <v>0.2563734597311345</v>
       </c>
       <c r="K19">
-        <v>0.8775762161245491</v>
+        <v>1.291191131756066</v>
       </c>
       <c r="L19">
-        <v>0.89320605991776</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M19">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N19">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O19">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P19">
-        <v>18.35404233406479</v>
+        <v>27.00457949769286</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1771701784825537</v>
+        <v>0.2606731575731835</v>
       </c>
       <c r="C20">
-        <v>5.139924572991067</v>
+        <v>7.562448599449348</v>
       </c>
       <c r="D20">
-        <v>0.004606224640858389</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E20">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F20">
-        <v>0.5731848633074054</v>
+        <v>0.8433355402766504</v>
       </c>
       <c r="G20">
-        <v>4.307251545863735</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="H20">
-        <v>0.03099493523558969</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I20">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J20">
-        <v>0.3484956567191065</v>
+        <v>0.5127469194622689</v>
       </c>
       <c r="K20">
-        <v>1.755152432249098</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="L20">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M20">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N20">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O20">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P20">
-        <v>20.25872393282088</v>
+        <v>29.80696628068174</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,43 +1406,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.3040327754206785</v>
+        <v>0.447328011144105</v>
       </c>
       <c r="C21">
-        <v>8.820364390688374</v>
+        <v>12.9775352509069</v>
       </c>
       <c r="D21">
-        <v>0.002181895882511868</v>
+        <v>0.00321025634258366</v>
       </c>
       <c r="E21">
-        <v>0.7891946436008044</v>
+        <v>1.161153990187591</v>
       </c>
       <c r="F21">
-        <v>0.8024588086303674</v>
+        <v>1.18066975638731</v>
       </c>
       <c r="G21">
-        <v>6.030152164209228</v>
+        <v>8.872253890323726</v>
       </c>
       <c r="H21">
-        <v>0.07232151554970928</v>
+        <v>0.1064077373533675</v>
       </c>
       <c r="I21">
-        <v>2.038302552750032</v>
+        <v>2.998985309297708</v>
       </c>
       <c r="J21">
-        <v>0.6177877550929614</v>
+        <v>0.9089604481376584</v>
       </c>
       <c r="K21">
-        <v>3.111406584441583</v>
+        <v>4.577859467135145</v>
       </c>
       <c r="L21">
-        <v>1.208455257535793</v>
+        <v>1.77801845923404</v>
       </c>
       <c r="M21">
-        <v>7.360461903650317</v>
+        <v>10.82955868789504</v>
       </c>
       <c r="P21">
-        <v>31.15712024745236</v>
+        <v>45.84194126434517</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.6113464800725158</v>
+        <v>0.8994833029840097</v>
       </c>
       <c r="C22">
-        <v>17.73591256976547</v>
+        <v>26.09511584624807</v>
       </c>
       <c r="D22">
-        <v>0.001939463006677216</v>
+        <v>0.002853561193407696</v>
       </c>
       <c r="E22">
-        <v>0.7015063498673816</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="F22">
-        <v>1.184582050835304</v>
+        <v>1.742893449905077</v>
       </c>
       <c r="G22">
-        <v>8.90165319478505</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="H22">
-        <v>0.299617707277367</v>
+        <v>0.4408320547496653</v>
       </c>
       <c r="I22">
-        <v>8.444396289964418</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="J22">
-        <v>1.742478283595533</v>
+        <v>2.563734597311344</v>
       </c>
       <c r="K22">
-        <v>8.775762161245488</v>
+        <v>12.91191131756067</v>
       </c>
       <c r="L22">
-        <v>2.206744383326231</v>
+        <v>3.246816316862161</v>
       </c>
       <c r="M22">
-        <v>13.44084347623101</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="N22">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O22">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P22">
-        <v>64.37967258127476</v>
+        <v>94.72278393026043</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.161448947830074</v>
+        <v>1.708857366313092</v>
       </c>
       <c r="C23">
-        <v>33.69506108960811</v>
+        <v>49.57605192972351</v>
       </c>
       <c r="D23">
-        <v>0.004363791765023737</v>
+        <v>0.00642051268516732</v>
       </c>
       <c r="E23">
-        <v>1.578389287201609</v>
+        <v>2.322307980375183</v>
       </c>
       <c r="F23">
-        <v>2.025253183686166</v>
+        <v>2.979785575644165</v>
       </c>
       <c r="G23">
-        <v>15.21895546205186</v>
+        <v>22.39187886605512</v>
       </c>
       <c r="H23">
-        <v>0.8678581865965113</v>
+        <v>1.27689284824041</v>
       </c>
       <c r="I23">
-        <v>24.45963063300038</v>
+        <v>35.9878237115725</v>
       </c>
       <c r="J23">
-        <v>2.566195290386148</v>
+        <v>3.775681861494887</v>
       </c>
       <c r="K23">
-        <v>12.92430427383427</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="L23">
-        <v>3.09995044324399</v>
+        <v>4.561003873687317</v>
       </c>
       <c r="M23">
-        <v>18.88118488327691</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="N23">
-        <v>0.1188602904937919</v>
+        <v>0.1748809393231696</v>
       </c>
       <c r="O23">
-        <v>1.878480737320067</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="P23">
-        <v>118.4799365002949</v>
+        <v>174.3213187519785</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.671086621736677</v>
+        <v>2.458694967727312</v>
       </c>
       <c r="C24">
-        <v>48.48027621932317</v>
+        <v>71.3297620985099</v>
       </c>
       <c r="D24">
-        <v>0.006545687647535606</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E24">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F24">
-        <v>2.139890156347648</v>
+        <v>3.148452683699494</v>
       </c>
       <c r="G24">
-        <v>16.08040577122461</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="H24">
-        <v>0.9401797021462207</v>
+        <v>1.383300585593777</v>
       </c>
       <c r="I24">
-        <v>26.49793318575041</v>
+        <v>38.9868090208702</v>
       </c>
       <c r="J24">
-        <v>2.7087616954076</v>
+        <v>3.98544196491127</v>
       </c>
       <c r="K24">
-        <v>13.64232117793617</v>
+        <v>20.07215304820794</v>
       </c>
       <c r="L24">
-        <v>3.940614970225413</v>
+        <v>5.797886280111</v>
       </c>
       <c r="M24">
-        <v>24.00150620755538</v>
+        <v>35.31377833009252</v>
       </c>
       <c r="N24">
-        <v>0.1782904357406878</v>
+        <v>0.2623214089847543</v>
       </c>
       <c r="O24">
-        <v>2.817721105980099</v>
+        <v>4.145755590175487</v>
       </c>
       <c r="P24">
-        <v>145.473116867824</v>
+        <v>214.0367924260042</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.8165411509847</v>
+        <v>2.672704411907766</v>
       </c>
       <c r="C25">
-        <v>52.7000908378899</v>
+        <v>77.53843903509487</v>
       </c>
       <c r="D25">
-        <v>0.01115191228839399</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E25">
-        <v>4.033661511737444</v>
+        <v>5.9347870609588</v>
       </c>
       <c r="F25">
-        <v>2.674862695434558</v>
+        <v>3.935565854624369</v>
       </c>
       <c r="G25">
-        <v>20.10050721403076</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="H25">
-        <v>0.4442607383767854</v>
+        <v>0.6536475294564005</v>
       </c>
       <c r="I25">
-        <v>12.52100139546448</v>
+        <v>18.42233832854306</v>
       </c>
       <c r="J25">
-        <v>2.756283830414751</v>
+        <v>4.0553619993834</v>
       </c>
       <c r="K25">
-        <v>13.88166014597014</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="L25">
-        <v>2.67961817975328</v>
+        <v>3.942562670475479</v>
       </c>
       <c r="M25">
-        <v>16.32102422113767</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="N25">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O25">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P25">
-        <v>131.2722245186921</v>
+        <v>193.1428051832831</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.70280227097121</v>
+        <v>2.505358681120043</v>
       </c>
       <c r="C26">
-        <v>49.40038617374748</v>
+        <v>72.68353376137429</v>
       </c>
       <c r="D26">
-        <v>0.01187921091589795</v>
+        <v>0.01747806230962214</v>
       </c>
       <c r="E26">
-        <v>4.296726392937712</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="F26">
-        <v>2.598438046993572</v>
+        <v>3.823121115920816</v>
       </c>
       <c r="G26">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H26">
-        <v>0.3616075777485465</v>
+        <v>0.5320386867668376</v>
       </c>
       <c r="I26">
-        <v>10.19151276375016</v>
+        <v>14.99492654648854</v>
       </c>
       <c r="J26">
-        <v>2.914690947105254</v>
+        <v>4.288428780957157</v>
       </c>
       <c r="K26">
-        <v>14.67945670608337</v>
+        <v>21.59810620391966</v>
       </c>
       <c r="L26">
-        <v>2.942325844434974</v>
+        <v>4.329088422482879</v>
       </c>
       <c r="M26">
-        <v>17.92112463497468</v>
+        <v>26.36762115313575</v>
       </c>
       <c r="N26">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O26">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P26">
-        <v>127.8787182627877</v>
+        <v>188.1498882118862</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.604374394036458</v>
+        <v>2.360540260246051</v>
       </c>
       <c r="C27">
-        <v>46.54487252208579</v>
+        <v>68.48217342834684</v>
       </c>
       <c r="D27">
-        <v>0.01527327117758308</v>
+        <v>0.02247179439808561</v>
       </c>
       <c r="E27">
-        <v>5.52436250520563</v>
+        <v>8.128077931313136</v>
       </c>
       <c r="F27">
-        <v>3.171622910300977</v>
+        <v>4.666456656197466</v>
       </c>
       <c r="G27">
-        <v>23.83345855377934</v>
+        <v>35.06652728080331</v>
       </c>
       <c r="H27">
-        <v>0.1446430310994186</v>
+        <v>0.212815474706735</v>
       </c>
       <c r="I27">
-        <v>4.076605105500064</v>
+        <v>5.997970618595416</v>
       </c>
       <c r="J27">
-        <v>3.19982375714816</v>
+        <v>4.707948987789922</v>
       </c>
       <c r="K27">
-        <v>16.11549051428717</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="L27">
-        <v>2.574535113880603</v>
+        <v>3.787952369672521</v>
       </c>
       <c r="M27">
-        <v>15.68098405560285</v>
+        <v>23.07166850899378</v>
       </c>
       <c r="N27">
-        <v>0.2080055083641358</v>
+        <v>0.3060416438155468</v>
       </c>
       <c r="O27">
-        <v>3.287341290310116</v>
+        <v>4.836714855204734</v>
       </c>
       <c r="P27">
-        <v>125.9813925327783</v>
+        <v>185.3583242296041</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.626247255577513</v>
+        <v>2.392722131551382</v>
       </c>
       <c r="C28">
-        <v>47.17943111134397</v>
+        <v>69.41580905790849</v>
       </c>
       <c r="D28">
-        <v>0.01406110679840982</v>
+        <v>0.0206883186522058</v>
       </c>
       <c r="E28">
-        <v>5.085921036538516</v>
+        <v>7.482992381208921</v>
       </c>
       <c r="F28">
-        <v>2.483801074332091</v>
+        <v>3.654454007865486</v>
       </c>
       <c r="G28">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H28">
-        <v>0.1446430310994186</v>
+        <v>0.212815474706735</v>
       </c>
       <c r="I28">
-        <v>4.076605105500064</v>
+        <v>5.997970618595416</v>
       </c>
       <c r="J28">
-        <v>2.867168812098103</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K28">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L28">
-        <v>2.732159712689619</v>
+        <v>4.019867820876961</v>
       </c>
       <c r="M28">
-        <v>16.64104430390507</v>
+        <v>24.48421964219748</v>
       </c>
       <c r="N28">
-        <v>0.1287653147016079</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O28">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P28">
-        <v>118.11974310014</v>
+        <v>173.7913607660489</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.697334055585947</v>
+        <v>2.497313213293708</v>
       </c>
       <c r="C29">
-        <v>49.24174652643294</v>
+        <v>72.45012485398388</v>
       </c>
       <c r="D29">
-        <v>0.01503083830174843</v>
+        <v>0.02211509924890965</v>
       </c>
       <c r="E29">
-        <v>5.436674211472208</v>
+        <v>7.999060821292296</v>
       </c>
       <c r="F29">
-        <v>2.101677832127153</v>
+        <v>3.09223031434772</v>
       </c>
       <c r="G29">
-        <v>15.79325566816703</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="H29">
-        <v>0.1549746761779484</v>
+        <v>0.2280165800429303</v>
       </c>
       <c r="I29">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J29">
-        <v>2.867168812098103</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K29">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L29">
-        <v>2.206744383326231</v>
+        <v>3.246816316862161</v>
       </c>
       <c r="M29">
-        <v>13.44084347623101</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="N29">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O29">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P29">
-        <v>113.0949200876433</v>
+        <v>166.3982628297453</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.761858997132062</v>
+        <v>2.592249733644436</v>
       </c>
       <c r="C30">
-        <v>51.1136943647445</v>
+        <v>75.20434996119073</v>
       </c>
       <c r="D30">
-        <v>0.01309137529507121</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E30">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F30">
-        <v>1.75776691414271</v>
+        <v>2.586228990181727</v>
       </c>
       <c r="G30">
-        <v>13.20890474064879</v>
+        <v>19.43446090261388</v>
       </c>
       <c r="H30">
-        <v>0.1756379663350082</v>
+        <v>0.258418790715321</v>
       </c>
       <c r="I30">
-        <v>4.950163342392934</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="J30">
-        <v>3.564160125536317</v>
+        <v>5.244002585409567</v>
       </c>
       <c r="K30">
-        <v>17.95042260254759</v>
+        <v>26.41072769501044</v>
       </c>
       <c r="L30">
-        <v>2.469452048007924</v>
+        <v>3.633342068869561</v>
       </c>
       <c r="M30">
-        <v>15.04094389006804</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="N30">
-        <v>0.1188602904937919</v>
+        <v>0.1748809393231696</v>
       </c>
       <c r="O30">
-        <v>1.878480737320067</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="P30">
-        <v>118.7386052562697</v>
+        <v>174.7019019966474</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.583595175572454</v>
+        <v>2.329967482505986</v>
       </c>
       <c r="C31">
-        <v>45.94204186229051</v>
+        <v>67.59521958026333</v>
       </c>
       <c r="D31">
-        <v>0.01309137529507121</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E31">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F31">
-        <v>2.330951777450116</v>
+        <v>3.429564530458379</v>
       </c>
       <c r="G31">
-        <v>17.51615628651252</v>
+        <v>25.77178510998798</v>
       </c>
       <c r="H31">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I31">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J31">
-        <v>2.787965253752852</v>
+        <v>4.101975355698151</v>
       </c>
       <c r="K31">
-        <v>14.04121945799278</v>
+        <v>20.65905810809706</v>
       </c>
       <c r="L31">
-        <v>1.733870586899182</v>
+        <v>2.551069963248839</v>
       </c>
       <c r="M31">
-        <v>10.56066273132437</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="N31">
-        <v>0.05943014524689595</v>
+        <v>0.08744046966158478</v>
       </c>
       <c r="O31">
-        <v>0.9392403686600335</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="P31">
-        <v>107.6707119153724</v>
+        <v>158.4175434800758</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.764046283286168</v>
+        <v>2.59546792077497</v>
       </c>
       <c r="C32">
-        <v>51.17715022367032</v>
+        <v>75.29771352414687</v>
       </c>
       <c r="D32">
-        <v>0.0116367780400633</v>
+        <v>0.01712136716044618</v>
       </c>
       <c r="E32">
-        <v>4.209038099204289</v>
+        <v>6.192821281000486</v>
       </c>
       <c r="F32">
-        <v>3.515533828285421</v>
+        <v>5.172457980363454</v>
       </c>
       <c r="G32">
-        <v>26.41780948129757</v>
+        <v>38.86892180522776</v>
       </c>
       <c r="H32">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I32">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J32">
-        <v>3.19982375714816</v>
+        <v>4.707948987789922</v>
       </c>
       <c r="K32">
-        <v>16.11549051428717</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="L32">
-        <v>1.628787521026504</v>
+        <v>2.39645966244588</v>
       </c>
       <c r="M32">
-        <v>9.920622565789561</v>
+        <v>14.59636170977158</v>
       </c>
       <c r="N32">
-        <v>0.1386703389094239</v>
+        <v>0.2040277625436978</v>
       </c>
       <c r="O32">
-        <v>2.191560860206744</v>
+        <v>3.22447657013649</v>
       </c>
       <c r="P32">
-        <v>125.7174892839222</v>
+        <v>184.9700393965563</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.772795427902589</v>
+        <v>2.608340669297101</v>
       </c>
       <c r="C33">
-        <v>51.43097365937358</v>
+        <v>75.67116777597153</v>
       </c>
       <c r="D33">
-        <v>0.0121216437917326</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E33">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F33">
-        <v>2.980561289198508</v>
+        <v>4.385344809438582</v>
       </c>
       <c r="G33">
-        <v>22.39770803849141</v>
+        <v>32.95408587834527</v>
       </c>
       <c r="H33">
-        <v>0.2686227720417774</v>
+        <v>0.3952287387410793</v>
       </c>
       <c r="I33">
-        <v>7.570838053071549</v>
+        <v>11.1390882916772</v>
       </c>
       <c r="J33">
-        <v>2.962213082112406</v>
+        <v>4.358348815429284</v>
       </c>
       <c r="K33">
-        <v>14.91879567411733</v>
+        <v>21.95024923985313</v>
       </c>
       <c r="L33">
-        <v>2.049119784517214</v>
+        <v>3.014900865657719</v>
       </c>
       <c r="M33">
-        <v>12.4807832279288</v>
+        <v>18.36316473164811</v>
       </c>
       <c r="N33">
-        <v>0.1287653147016079</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O33">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P33">
-        <v>125.3927334526831</v>
+        <v>184.4922212406202</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2.116199354097168</v>
+        <v>3.113596048790804</v>
       </c>
       <c r="C34">
-        <v>61.39354351072664</v>
+        <v>90.32924716008941</v>
       </c>
       <c r="D34">
-        <v>0.01042461366089004</v>
+        <v>0.01533789141456637</v>
       </c>
       <c r="E34">
-        <v>3.770596630537177</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="F34">
-        <v>2.598438046993572</v>
+        <v>3.823121115920816</v>
       </c>
       <c r="G34">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H34">
-        <v>0.5475771891620845</v>
+        <v>0.8056585828183536</v>
       </c>
       <c r="I34">
-        <v>15.43286218510738</v>
+        <v>22.70660305611122</v>
       </c>
       <c r="J34">
-        <v>2.471151020371845</v>
+        <v>3.635841792550634</v>
       </c>
       <c r="K34">
-        <v>12.44562633776633</v>
+        <v>18.31143786854058</v>
       </c>
       <c r="L34">
-        <v>1.155913724599454</v>
+        <v>1.700713308832559</v>
       </c>
       <c r="M34">
-        <v>7.040441820882911</v>
+        <v>10.35870831016047</v>
       </c>
       <c r="N34">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O34">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P34">
-        <v>130.1734322983326</v>
+        <v>191.526135605755</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.209159015646657</v>
+        <v>3.25036900183846</v>
       </c>
       <c r="C35">
-        <v>64.09041751507382</v>
+        <v>94.29719858572642</v>
       </c>
       <c r="D35">
-        <v>0.008000284902543519</v>
+        <v>0.01177093992280675</v>
       </c>
       <c r="E35">
-        <v>2.89371369320295</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="F35">
-        <v>2.139890156347648</v>
+        <v>3.148452683699494</v>
       </c>
       <c r="G35">
-        <v>16.08040577122461</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="H35">
-        <v>0.609567059633264</v>
+        <v>0.8968652148355259</v>
       </c>
       <c r="I35">
-        <v>17.17997865889312</v>
+        <v>25.27716189265211</v>
       </c>
       <c r="J35">
-        <v>1.916726111955086</v>
+        <v>2.820108057042479</v>
       </c>
       <c r="K35">
-        <v>9.653338377370041</v>
+        <v>14.20310244931673</v>
       </c>
       <c r="L35">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M35">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N35">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O35">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P35">
-        <v>123.3286199493114</v>
+        <v>181.4552598901166</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.662337477120257</v>
+        <v>2.445822219205179</v>
       </c>
       <c r="C36">
-        <v>48.22645278361991</v>
+        <v>70.95630784668526</v>
       </c>
       <c r="D36">
-        <v>0.006545687647535606</v>
+        <v>0.009630769027750976</v>
       </c>
       <c r="E36">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="F36">
-        <v>2.17810248056814</v>
+        <v>3.204675053051272</v>
       </c>
       <c r="G36">
-        <v>16.36755587428219</v>
+        <v>24.08183198802155</v>
       </c>
       <c r="H36">
-        <v>0.6405619948688535</v>
+        <v>0.9424685308441119</v>
       </c>
       <c r="I36">
-        <v>18.05353689578599</v>
+        <v>26.56244131092256</v>
       </c>
       <c r="J36">
-        <v>1.188053375178773</v>
+        <v>1.748000861803189</v>
       </c>
       <c r="K36">
-        <v>5.983474200849197</v>
+        <v>8.803575898336817</v>
       </c>
       <c r="L36">
-        <v>0.6830399281724047</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M36">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N36">
-        <v>0.04952512103907997</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O36">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P36">
-        <v>102.3497311331277</v>
+        <v>150.5887041473291</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.543130381721501</v>
+        <v>2.270431020591123</v>
       </c>
       <c r="C37">
-        <v>44.76810847216294</v>
+        <v>65.8679936655743</v>
       </c>
       <c r="D37">
-        <v>0.006060821895866301</v>
+        <v>0.00891737872939905</v>
       </c>
       <c r="E37">
-        <v>2.192207343335567</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="F37">
-        <v>1.261006699276292</v>
+        <v>1.85533818860863</v>
       </c>
       <c r="G37">
-        <v>9.475953400900215</v>
+        <v>13.942113256223</v>
       </c>
       <c r="H37">
-        <v>0.6302303497903237</v>
+        <v>0.9272674255079169</v>
       </c>
       <c r="I37">
-        <v>17.76235081682171</v>
+        <v>26.13401483816574</v>
       </c>
       <c r="J37">
-        <v>1.029646258488269</v>
+        <v>1.514934080229431</v>
       </c>
       <c r="K37">
-        <v>5.185677640735972</v>
+        <v>7.629765778558575</v>
       </c>
       <c r="L37">
-        <v>0.89320605991776</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M37">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N37">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O37">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P37">
-        <v>90.52080982339463</v>
+        <v>133.184633694262</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.227067532453242</v>
+        <v>1.805402980229086</v>
       </c>
       <c r="C38">
-        <v>35.59873685738258</v>
+        <v>52.37695881840842</v>
       </c>
       <c r="D38">
-        <v>0.003636493137519781</v>
+        <v>0.00535042723763943</v>
       </c>
       <c r="E38">
-        <v>1.31532440600134</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="F38">
-        <v>1.03173275395333</v>
+        <v>1.518003972497971</v>
       </c>
       <c r="G38">
-        <v>7.75305278255472</v>
+        <v>11.40718357327336</v>
       </c>
       <c r="H38">
-        <v>0.4339290932982556</v>
+        <v>0.6384464241202048</v>
       </c>
       <c r="I38">
-        <v>12.22981531650019</v>
+        <v>17.99391185578625</v>
       </c>
       <c r="J38">
-        <v>0.6653098901001124</v>
+        <v>0.9788804826097858</v>
       </c>
       <c r="K38">
-        <v>3.350745552475551</v>
+        <v>4.930002503068617</v>
       </c>
       <c r="L38">
-        <v>0.89320605991776</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M38">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N38">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O38">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P38">
-        <v>70.27578831612279</v>
+        <v>103.3978279990968</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.8781953908733984</v>
+        <v>1.292102132909052</v>
       </c>
       <c r="C39">
-        <v>25.47752735871498</v>
+        <v>37.48547052690017</v>
       </c>
       <c r="D39">
-        <v>0.005091090392527693</v>
+        <v>0.007490598132695203</v>
       </c>
       <c r="E39">
-        <v>1.841454168401877</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="F39">
-        <v>0.4967602148664181</v>
+        <v>0.730890801573097</v>
       </c>
       <c r="G39">
-        <v>3.73295133974857</v>
+        <v>5.492347646390878</v>
       </c>
       <c r="H39">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I39">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J39">
-        <v>0.4752213500715088</v>
+        <v>0.6992003447212753</v>
       </c>
       <c r="K39">
-        <v>2.393389680339679</v>
+        <v>3.521430359334726</v>
       </c>
       <c r="L39">
-        <v>0.5254153293633883</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M39">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N39">
-        <v>0.02971507262344798</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O39">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P39">
-        <v>44.95286104017062</v>
+        <v>66.1398229072943</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,43 +2350,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.5172931754459744</v>
+        <v>0.7611012563710854</v>
       </c>
       <c r="C40">
-        <v>15.0073106359554</v>
+        <v>22.08048263913297</v>
       </c>
       <c r="D40">
-        <v>0.005818389020031649</v>
+        <v>0.008560683580223088</v>
       </c>
       <c r="E40">
-        <v>2.104519049602144</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="F40">
-        <v>0.5349725390869119</v>
+        <v>0.7871131709248735</v>
       </c>
       <c r="G40">
-        <v>4.020101442806152</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="H40">
-        <v>0.08265316062823919</v>
+        <v>0.1216088426895628</v>
       </c>
       <c r="I40">
-        <v>2.329488631714322</v>
+        <v>3.427411782054524</v>
       </c>
       <c r="J40">
-        <v>0.3801770800572071</v>
+        <v>0.5593602757770205</v>
       </c>
       <c r="K40">
-        <v>1.914711744271744</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="L40">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M40">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="P40">
-        <v>32.11290846844054</v>
+        <v>47.24820689928544</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2394,43 +2394,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.399179723124272</v>
+        <v>0.5873191513222962</v>
       </c>
       <c r="C41">
-        <v>11.58069425396135</v>
+        <v>17.03885023950007</v>
       </c>
       <c r="D41">
-        <v>0.006060821895866301</v>
+        <v>0.00891737872939905</v>
       </c>
       <c r="E41">
-        <v>2.192207343335567</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="F41">
-        <v>0.1910616211024685</v>
+        <v>0.2811118467588837</v>
       </c>
       <c r="G41">
-        <v>1.435750515287911</v>
+        <v>2.11244140245803</v>
       </c>
       <c r="H41">
-        <v>0.04132658031411959</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I41">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J41">
-        <v>0.3009735217119556</v>
+        <v>0.4428268849901412</v>
       </c>
       <c r="K41">
-        <v>1.51581346421513</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="L41">
-        <v>0.89320605991776</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M41">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="P41">
-        <v>25.16135962776945</v>
+        <v>37.02028817254342</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,43 +2438,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.2591934092615137</v>
+        <v>0.3813551749681762</v>
       </c>
       <c r="C42">
-        <v>7.519519282709153</v>
+        <v>11.06358221030552</v>
       </c>
       <c r="D42">
-        <v>0.006788120523370258</v>
+        <v>0.009987464176926936</v>
       </c>
       <c r="E42">
-        <v>2.455272224535836</v>
+        <v>3.612479080583618</v>
       </c>
       <c r="F42">
-        <v>0.3056985937639496</v>
+        <v>0.4497789548142136</v>
       </c>
       <c r="G42">
-        <v>2.297200824460659</v>
+        <v>3.379906243932849</v>
       </c>
       <c r="H42">
-        <v>0.05165822539264948</v>
+        <v>0.07600552668097676</v>
       </c>
       <c r="I42">
-        <v>1.455930394821451</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="J42">
-        <v>0.3168142333810059</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K42">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L42">
-        <v>0.7881229940450823</v>
+        <v>1.159577256022199</v>
       </c>
       <c r="M42">
-        <v>4.800301241511079</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="P42">
-        <v>21.8520926646322</v>
+        <v>32.15131374399107</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,49 +2482,49 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.1815447507907648</v>
+        <v>0.2671095318342498</v>
       </c>
       <c r="C43">
-        <v>5.266836290842699</v>
+        <v>7.749175725361678</v>
       </c>
       <c r="D43">
-        <v>0.007515419150874214</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E43">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F43">
-        <v>0.5731848633074054</v>
+        <v>0.8433355402766504</v>
       </c>
       <c r="G43">
-        <v>4.307251545863735</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="H43">
-        <v>0.0206632901570598</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I43">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J43">
-        <v>0.2534513867048047</v>
+        <v>0.3729068505180137</v>
       </c>
       <c r="K43">
-        <v>1.276474496181162</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="L43">
-        <v>0.5254153293633883</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M43">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N43">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O43">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P43">
-        <v>19.07969254935178</v>
+        <v>28.07223961144697</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2532,43 +2532,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.2012303261777152</v>
+        <v>0.296073216009048</v>
       </c>
       <c r="C44">
-        <v>5.837939021175037</v>
+        <v>8.589447791967157</v>
       </c>
       <c r="D44">
-        <v>0.007515419150874214</v>
+        <v>0.01105754962445482</v>
       </c>
       <c r="E44">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="F44">
-        <v>0.382123242204937</v>
+        <v>0.5622236935177675</v>
       </c>
       <c r="G44">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H44">
-        <v>0.04132658031411959</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I44">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J44">
-        <v>0.3484956567191065</v>
+        <v>0.5127469194622689</v>
       </c>
       <c r="K44">
-        <v>1.755152432249098</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="L44">
-        <v>0.3152491976180329</v>
+        <v>0.4638309024088798</v>
       </c>
       <c r="M44">
-        <v>1.920120496604431</v>
+        <v>2.825102266407402</v>
       </c>
       <c r="P44">
-        <v>17.56373482438244</v>
+        <v>25.84178813084337</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2576,49 +2576,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2712234831090945</v>
+        <v>0.399055204186108</v>
       </c>
       <c r="C45">
-        <v>7.868526506801143</v>
+        <v>11.57708180656444</v>
       </c>
       <c r="D45">
-        <v>0.00242432875834652</v>
+        <v>0.003566951491759621</v>
       </c>
       <c r="E45">
-        <v>0.8768829373342271</v>
+        <v>1.290171100208435</v>
       </c>
       <c r="F45">
-        <v>0.7260341601893804</v>
+        <v>1.068225017683758</v>
       </c>
       <c r="G45">
-        <v>5.455851958094063</v>
+        <v>8.027277329340514</v>
       </c>
       <c r="H45">
-        <v>0.06198987047117938</v>
+        <v>0.09120663201717216</v>
       </c>
       <c r="I45">
-        <v>1.747116473785742</v>
+        <v>2.570558836540892</v>
       </c>
       <c r="J45">
-        <v>0.5861063317548612</v>
+        <v>0.8623470918229067</v>
       </c>
       <c r="K45">
-        <v>2.951847272418938</v>
+        <v>4.343097443179496</v>
       </c>
       <c r="L45">
-        <v>0.6830399281724047</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M45">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N45">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O45">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P45">
-        <v>26.05708466947026</v>
+        <v>38.33818194528414</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2626,49 +2626,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.6299384123824129</v>
+        <v>0.9268378935935417</v>
       </c>
       <c r="C46">
-        <v>18.2752873706349</v>
+        <v>26.88870613137546</v>
       </c>
       <c r="D46">
-        <v>0.001939463006677216</v>
+        <v>0.002853561193407696</v>
       </c>
       <c r="E46">
-        <v>0.7015063498673816</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="F46">
-        <v>1.146369726614811</v>
+        <v>1.686671080553301</v>
       </c>
       <c r="G46">
-        <v>8.614503091727469</v>
+        <v>12.67464841474818</v>
       </c>
       <c r="H46">
-        <v>0.3099493523558969</v>
+        <v>0.4560331600858605</v>
       </c>
       <c r="I46">
-        <v>8.735582368928709</v>
+        <v>12.85279418270446</v>
       </c>
       <c r="J46">
-        <v>1.805841130271733</v>
+        <v>2.656961309940848</v>
       </c>
       <c r="K46">
-        <v>9.094880785290782</v>
+        <v>13.38143536547196</v>
       </c>
       <c r="L46">
-        <v>2.311827449198909</v>
+        <v>3.401426617665118</v>
       </c>
       <c r="M46">
-        <v>14.08088364176582</v>
+        <v>20.71741662032094</v>
       </c>
       <c r="N46">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O46">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P46">
-        <v>66.04139931334782</v>
+        <v>97.16770755105986</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2676,49 +2676,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.197539169372816</v>
+        <v>1.761957453966889</v>
       </c>
       <c r="C47">
-        <v>34.74208276188407</v>
+        <v>51.11655071850021</v>
       </c>
       <c r="D47">
-        <v>0.004121358889189086</v>
+        <v>0.006063817535991355</v>
       </c>
       <c r="E47">
-        <v>1.490700993468186</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="F47">
-        <v>1.948828535245179</v>
+        <v>2.867340836940612</v>
       </c>
       <c r="G47">
-        <v>14.64465525593669</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="H47">
-        <v>0.8988531218321011</v>
+        <v>1.322496164248996</v>
       </c>
       <c r="I47">
-        <v>25.33318886989325</v>
+        <v>37.27310312984293</v>
       </c>
       <c r="J47">
-        <v>2.66123956040045</v>
+        <v>3.915521930439143</v>
       </c>
       <c r="K47">
-        <v>13.40298220990221</v>
+        <v>19.72001001227447</v>
       </c>
       <c r="L47">
-        <v>3.257575042053007</v>
+        <v>4.792919324891759</v>
       </c>
       <c r="M47">
-        <v>19.84124513157912</v>
+        <v>29.19272341954316</v>
       </c>
       <c r="N47">
-        <v>0.1089552662859759</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O47">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P47">
-        <v>121.253907952619</v>
+        <v>178.4027048164305</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2726,49 +2726,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.722487846358161</v>
+        <v>2.534322365294839</v>
       </c>
       <c r="C48">
-        <v>49.97148890407984</v>
+        <v>73.52380582797976</v>
       </c>
       <c r="D48">
-        <v>0.006303254771700953</v>
+        <v>0.009274073878575014</v>
       </c>
       <c r="E48">
-        <v>2.27989563706899</v>
+        <v>3.354444860541931</v>
       </c>
       <c r="F48">
-        <v>2.06346550790666</v>
+        <v>3.036007944995942</v>
       </c>
       <c r="G48">
-        <v>15.50610556510944</v>
+        <v>22.81436714654673</v>
       </c>
       <c r="H48">
-        <v>0.9815062824603403</v>
+        <v>1.444105006938558</v>
       </c>
       <c r="I48">
-        <v>27.66267750160758</v>
+        <v>40.70051491189746</v>
       </c>
       <c r="J48">
-        <v>2.803805965421902</v>
+        <v>4.125282033855526</v>
       </c>
       <c r="K48">
-        <v>14.12099911400411</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="L48">
-        <v>4.150781101970765</v>
+        <v>6.107106881716917</v>
       </c>
       <c r="M48">
-        <v>25.28158653862501</v>
+        <v>37.19717984103079</v>
       </c>
       <c r="N48">
-        <v>0.1683854115328718</v>
+        <v>0.2477479973744902</v>
       </c>
       <c r="O48">
-        <v>2.661181044536761</v>
+        <v>3.915435835165739</v>
       </c>
       <c r="P48">
-        <v>149.3806696754541</v>
+        <v>219.7860338472921</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2776,49 +2776,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.873410590991447</v>
+        <v>2.756377277301627</v>
       </c>
       <c r="C49">
-        <v>54.34994316996112</v>
+        <v>79.96589167195515</v>
       </c>
       <c r="D49">
-        <v>0.01090947941255934</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E49">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F49">
-        <v>2.598438046993572</v>
+        <v>3.823121115920816</v>
       </c>
       <c r="G49">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="H49">
-        <v>0.4649240285338453</v>
+        <v>0.6840497401287911</v>
       </c>
       <c r="I49">
-        <v>13.10337355339306</v>
+        <v>19.27919127405669</v>
       </c>
       <c r="J49">
-        <v>2.867168812098103</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K49">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L49">
-        <v>2.837242778562296</v>
+        <v>4.174478121679919</v>
       </c>
       <c r="M49">
-        <v>17.28108446943988</v>
+        <v>25.42592039766662</v>
       </c>
       <c r="N49">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O49">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P49">
-        <v>134.463908492913</v>
+        <v>197.838777985601</v>
       </c>
     </row>
   </sheetData>
